--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>7.928</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2200000000000015</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-90.90909090909037</v>
+      </c>
       <c r="L13" t="n">
         <v>7.907999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2300000000000022</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-91.30434782608646</v>
+      </c>
       <c r="L14" t="n">
         <v>7.886999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2400000000000029</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-83.3333333333324</v>
+      </c>
       <c r="L15" t="n">
         <v>7.866999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.2800000000000029</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-57.1428571428566</v>
+      </c>
       <c r="L16" t="n">
         <v>7.850999999999997</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.3700000000000028</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-67.56756756756707</v>
+      </c>
       <c r="L17" t="n">
         <v>7.825999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4700000000000024</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-31.91489361702119</v>
+      </c>
       <c r="L18" t="n">
         <v>7.810999999999997</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4800000000000022</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-8.571428571428354</v>
+      </c>
       <c r="L19" t="n">
         <v>7.794999999999997</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.490000000000002</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9.677419354838747</v>
+      </c>
       <c r="L20" t="n">
         <v>7.792999999999997</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.490000000000002</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>21.42857142857152</v>
+      </c>
       <c r="L21" t="n">
         <v>7.795999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.490000000000002</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>18.51851851851842</v>
+      </c>
       <c r="L22" t="n">
         <v>7.801999999999998</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.490000000000002</v>
       </c>
       <c r="K23" t="n">
-        <v>-30.61224489795913</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L23" t="n">
         <v>7.806999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>0.6300000000000017</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.58730158730169</v>
+        <v>48.71794871794874</v>
       </c>
       <c r="L24" t="n">
         <v>7.826999999999998</v>
@@ -1515,7 +1537,7 @@
         <v>0.8100000000000014</v>
       </c>
       <c r="K25" t="n">
-        <v>-23.4567901234568</v>
+        <v>-5.66037735849063</v>
       </c>
       <c r="L25" t="n">
         <v>7.827999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.9900000000000011</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.010101010101077</v>
+        <v>38.70967741935483</v>
       </c>
       <c r="L26" t="n">
         <v>7.842999999999998</v>
@@ -1613,7 +1635,7 @@
         <v>0.9900000000000011</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.010101010101077</v>
+        <v>26.92307692307693</v>
       </c>
       <c r="L27" t="n">
         <v>7.866999999999997</v>
@@ -1662,7 +1684,7 @@
         <v>1.080000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.2592592592593</v>
+        <v>9.999999999999956</v>
       </c>
       <c r="L28" t="n">
         <v>7.871999999999997</v>
@@ -1711,7 +1733,7 @@
         <v>1.150000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.608695652173932</v>
+        <v>18.18181818181822</v>
       </c>
       <c r="L29" t="n">
         <v>7.884999999999996</v>
@@ -1760,7 +1782,7 @@
         <v>1.200000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>4.672897196261747</v>
+        <v>9.859154929577517</v>
       </c>
       <c r="L30" t="n">
         <v>7.891999999999998</v>
@@ -1809,7 +1831,7 @@
         <v>1.210000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>10.67961165048547</v>
+        <v>11.11111111111114</v>
       </c>
       <c r="L31" t="n">
         <v>7.899999999999997</v>
@@ -1860,7 +1882,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>12.87128712871295</v>
+        <v>9.589041095890467</v>
       </c>
       <c r="L32" t="n">
         <v>7.906999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>1.23</v>
       </c>
       <c r="K33" t="n">
-        <v>12.87128712871287</v>
+        <v>-9.999999999999956</v>
       </c>
       <c r="L33" t="n">
         <v>7.914999999999997</v>
@@ -1962,7 +1984,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>6.542056074766391</v>
+        <v>10.20408163265304</v>
       </c>
       <c r="L34" t="n">
         <v>7.901999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>5.660377358490541</v>
+        <v>-41.93548387096776</v>
       </c>
       <c r="L35" t="n">
         <v>7.906999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>1.960784313725453</v>
+        <v>-41.93548387096776</v>
       </c>
       <c r="L36" t="n">
         <v>7.893999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>11.82795698924728</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L37" t="n">
         <v>7.880999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>1.430000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-12.50000000000004</v>
+        <v>-85.71428571428599</v>
       </c>
       <c r="L38" t="n">
         <v>7.863999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.44</v>
       </c>
       <c r="K39" t="n">
-        <v>-10.41666666666674</v>
+        <v>-75.00000000000047</v>
       </c>
       <c r="L39" t="n">
         <v>7.840999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>1.45</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.50000000000004</v>
+        <v>-83.33333333333364</v>
       </c>
       <c r="L40" t="n">
         <v>7.821999999999997</v>
@@ -2319,7 +2341,7 @@
         <v>1.47</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571428</v>
+        <v>-84.00000000000028</v>
       </c>
       <c r="L41" t="n">
         <v>7.799999999999997</v>
@@ -2370,7 +2392,7 @@
         <v>1.48</v>
       </c>
       <c r="K42" t="n">
-        <v>-13.13131313131315</v>
+        <v>-84.00000000000028</v>
       </c>
       <c r="L42" t="n">
         <v>7.779999999999997</v>
@@ -2421,7 +2443,7 @@
         <v>1.489999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>-14</v>
+        <v>-78.94736842105291</v>
       </c>
       <c r="L43" t="n">
         <v>7.757999999999997</v>
@@ -2472,7 +2494,7 @@
         <v>1.54</v>
       </c>
       <c r="K44" t="n">
-        <v>-36.26373626373633</v>
+        <v>-83.33333333333364</v>
       </c>
       <c r="L44" t="n">
         <v>7.737999999999997</v>
@@ -2523,7 +2545,7 @@
         <v>1.550000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-18.91891891891889</v>
+        <v>-75.9999999999998</v>
       </c>
       <c r="L45" t="n">
         <v>7.718999999999997</v>
@@ -2574,7 +2596,7 @@
         <v>1.560000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-57.89473684210525</v>
+        <v>-76.92307692307679</v>
       </c>
       <c r="L46" t="n">
         <v>7.698999999999996</v>
@@ -2625,7 +2647,7 @@
         <v>1.570000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>-55.17241379310325</v>
+        <v>-42.85714285714214</v>
       </c>
       <c r="L47" t="n">
         <v>7.679999999999997</v>
@@ -2676,7 +2698,7 @@
         <v>1.570000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>-46.93877551020388</v>
+        <v>-53.84615384615269</v>
       </c>
       <c r="L48" t="n">
         <v>7.673999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>1.590000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>-63.63636363636363</v>
+        <v>-28.5714285714283</v>
       </c>
       <c r="L49" t="n">
         <v>7.668999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>1.620000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-47.61904761904756</v>
+        <v>6.666666666666429</v>
       </c>
       <c r="L50" t="n">
         <v>7.667999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>1.660000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>-55.55555555555542</v>
+        <v>-22.22222222222195</v>
       </c>
       <c r="L51" t="n">
         <v>7.664999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>1.730000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-33.33333333333321</v>
+        <v>16.66666666666648</v>
       </c>
       <c r="L52" t="n">
         <v>7.667999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>1.730000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>-35.99999999999982</v>
+        <v>47.36842105263143</v>
       </c>
       <c r="L53" t="n">
         <v>7.672</v>
@@ -2982,7 +3004,7 @@
         <v>1.760000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>-30.43478260869546</v>
+        <v>23.80952380952353</v>
       </c>
       <c r="L54" t="n">
         <v>7.678</v>
@@ -3033,7 +3055,7 @@
         <v>1.770000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>-27.659574468085</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>7.683999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>1.770000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>-27.659574468085</v>
+        <v>29.99999999999978</v>
       </c>
       <c r="L56" t="n">
         <v>7.690999999999998</v>
@@ -3135,7 +3157,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>-15.38461538461536</v>
+        <v>43.99999999999977</v>
       </c>
       <c r="L57" t="n">
         <v>7.701999999999998</v>
@@ -3186,7 +3208,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>12.82051282051273</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L58" t="n">
         <v>7.712999999999998</v>
@@ -3237,7 +3259,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>10.52631578947365</v>
+        <v>29.99999999999978</v>
       </c>
       <c r="L59" t="n">
         <v>7.721999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>1.840000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>7.692307692307727</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L60" t="n">
         <v>7.725999999999997</v>
@@ -3339,7 +3361,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>10.52631578947365</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>7.732999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>1.870000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>2.564102564102494</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L62" t="n">
         <v>7.730999999999997</v>
@@ -3441,7 +3463,7 @@
         <v>1.940000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L63" t="n">
         <v>7.721999999999997</v>
@@ -3492,7 +3514,7 @@
         <v>2.010000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>14.89361702127658</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>7.722999999999996</v>
@@ -3543,7 +3565,7 @@
         <v>2.010000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>13.04347826086943</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>7.722999999999996</v>
@@ -3594,7 +3616,7 @@
         <v>2.010000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>15.55555555555558</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L66" t="n">
         <v>7.722999999999996</v>
@@ -3645,7 +3667,7 @@
         <v>2.050000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>4.166666666666574</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L67" t="n">
         <v>7.713999999999996</v>
@@ -3696,7 +3718,7 @@
         <v>2.060000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>6.122448979591703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>7.705999999999996</v>
@@ -3747,7 +3769,7 @@
         <v>2.070000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L69" t="n">
         <v>7.696999999999996</v>
@@ -3798,7 +3820,7 @@
         <v>2.080000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-8.695652173913052</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L70" t="n">
         <v>7.688999999999996</v>
@@ -3849,7 +3871,7 @@
         <v>2.090000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.325581395348789</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L71" t="n">
         <v>7.680999999999996</v>
@@ -3900,7 +3922,7 @@
         <v>2.100000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>-24.32432432432452</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>7.673999999999997</v>
@@ -3951,7 +3973,7 @@
         <v>2.150000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>-33.33333333333348</v>
+        <v>-85.71428571428599</v>
       </c>
       <c r="L73" t="n">
         <v>7.668999999999997</v>
@@ -4002,7 +4024,7 @@
         <v>2.270000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>1.960784313725449</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>7.668999999999997</v>
@@ -4053,7 +4075,7 @@
         <v>2.300000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.660377358490611</v>
+        <v>-10.34482758620698</v>
       </c>
       <c r="L75" t="n">
         <v>7.665999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>2.320000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>-1.818181818181777</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L76" t="n">
         <v>7.664999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>2.340000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>7.669999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>2.340000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.692307692307693</v>
+        <v>18.51851851851842</v>
       </c>
       <c r="L78" t="n">
         <v>7.673999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>2.380000000000003</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571428</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L79" t="n">
         <v>7.674999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>2.420000000000003</v>
       </c>
       <c r="K80" t="n">
-        <v>-3.44827586206904</v>
+        <v>21.21212121212097</v>
       </c>
       <c r="L80" t="n">
         <v>7.680999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>2.440000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.0847457627119</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L81" t="n">
         <v>7.685999999999998</v>
@@ -4410,7 +4432,7 @@
         <v>2.440000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>-1.754385964912242</v>
+        <v>37.93103448275873</v>
       </c>
       <c r="L82" t="n">
         <v>7.691999999999998</v>
@@ -4461,7 +4483,7 @@
         <v>2.460000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>15.38461538461541</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L83" t="n">
         <v>7.704999999999998</v>
@@ -4512,7 +4534,7 @@
         <v>2.470000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>4.347826086956622</v>
+        <v>29.41176470588278</v>
       </c>
       <c r="L84" t="n">
         <v>7.706999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>2.510000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.999999999999915</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L85" t="n">
         <v>7.707999999999998</v>
@@ -4614,7 +4636,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>-18.6440677966102</v>
+        <v>-46.15384615384608</v>
       </c>
       <c r="L86" t="n">
         <v>7.697999999999998</v>
@@ -4665,7 +4687,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>-12.72727272727276</v>
+        <v>-46.15384615384608</v>
       </c>
       <c r="L87" t="n">
         <v>7.685999999999997</v>
@@ -4716,7 +4738,7 @@
         <v>2.730000000000004</v>
       </c>
       <c r="K88" t="n">
-        <v>7.462686567164265</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L88" t="n">
         <v>7.686999999999998</v>
@@ -4767,7 +4789,7 @@
         <v>2.820000000000004</v>
       </c>
       <c r="K89" t="n">
-        <v>20</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L89" t="n">
         <v>7.700999999999996</v>
@@ -4818,7 +4840,7 @@
         <v>2.830000000000005</v>
       </c>
       <c r="K90" t="n">
-        <v>19.99999999999986</v>
+        <v>28.20512820512789</v>
       </c>
       <c r="L90" t="n">
         <v>7.709999999999996</v>
@@ -4869,7 +4891,7 @@
         <v>2.840000000000004</v>
       </c>
       <c r="K91" t="n">
-        <v>19.99999999999986</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L91" t="n">
         <v>7.719999999999996</v>
@@ -4920,7 +4942,7 @@
         <v>2.870000000000005</v>
       </c>
       <c r="K92" t="n">
-        <v>24.67532467532465</v>
+        <v>26.82926829268282</v>
       </c>
       <c r="L92" t="n">
         <v>7.732999999999995</v>
@@ -4971,7 +4993,7 @@
         <v>2.890000000000004</v>
       </c>
       <c r="K93" t="n">
-        <v>35.13513513513501</v>
+        <v>28.57142857142827</v>
       </c>
       <c r="L93" t="n">
         <v>7.745999999999995</v>
@@ -5022,7 +5044,7 @@
         <v>2.960000000000004</v>
       </c>
       <c r="K94" t="n">
-        <v>30.43478260869555</v>
+        <v>51.11111111111079</v>
       </c>
       <c r="L94" t="n">
         <v>7.764999999999995</v>
@@ -5073,7 +5095,7 @@
         <v>3.060000000000004</v>
       </c>
       <c r="K95" t="n">
-        <v>18.42105263157898</v>
+        <v>47.82608695652179</v>
       </c>
       <c r="L95" t="n">
         <v>7.777999999999994</v>
@@ -5124,7 +5146,7 @@
         <v>3.150000000000004</v>
       </c>
       <c r="K96" t="n">
-        <v>25.30120481927707</v>
+        <v>56.36363636363638</v>
       </c>
       <c r="L96" t="n">
         <v>7.808999999999995</v>
@@ -5175,7 +5197,7 @@
         <v>3.150000000000004</v>
       </c>
       <c r="K97" t="n">
-        <v>23.4567901234568</v>
+        <v>42.8571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>7.839999999999995</v>
@@ -5226,7 +5248,7 @@
         <v>3.150000000000004</v>
       </c>
       <c r="K98" t="n">
-        <v>23.4567901234568</v>
+        <v>27.27272727272723</v>
       </c>
       <c r="L98" t="n">
         <v>7.857999999999994</v>
@@ -5277,7 +5299,7 @@
         <v>3.150000000000004</v>
       </c>
       <c r="K99" t="n">
-        <v>29.87012987012988</v>
+        <v>31.25000000000023</v>
       </c>
       <c r="L99" t="n">
         <v>7.866999999999993</v>
@@ -5328,7 +5350,7 @@
         <v>3.160000000000004</v>
       </c>
       <c r="K100" t="n">
-        <v>24.32432432432437</v>
+        <v>31.25000000000023</v>
       </c>
       <c r="L100" t="n">
         <v>7.875999999999993</v>
@@ -5379,7 +5401,7 @@
         <v>3.220000000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>17.94871794871786</v>
+        <v>2.857142857142799</v>
       </c>
       <c r="L101" t="n">
         <v>7.879999999999994</v>
@@ -5430,7 +5452,7 @@
         <v>3.280000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>23.80952380952376</v>
+        <v>12.82051282051298</v>
       </c>
       <c r="L102" t="n">
         <v>7.886999999999995</v>
@@ -5481,7 +5503,7 @@
         <v>3.280000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>21.95121951219512</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L103" t="n">
         <v>7.891999999999996</v>
@@ -5532,7 +5554,7 @@
         <v>3.280000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>20.98765432098759</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L104" t="n">
         <v>7.889999999999996</v>
@@ -5583,7 +5605,7 @@
         <v>3.290000000000004</v>
       </c>
       <c r="K105" t="n">
-        <v>28.2051282051281</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>7.898999999999996</v>
@@ -5634,7 +5656,7 @@
         <v>3.290000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>44.92753623188405</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>7.898999999999996</v>
@@ -5685,7 +5707,7 @@
         <v>3.300000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>45.71428571428569</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L107" t="n">
         <v>7.899999999999996</v>
@@ -5736,7 +5758,7 @@
         <v>3.380000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>41.53846153846145</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L108" t="n">
         <v>7.908999999999996</v>
@@ -5787,7 +5809,7 @@
         <v>3.480000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>42.42424242424232</v>
+        <v>62.49999999999972</v>
       </c>
       <c r="L109" t="n">
         <v>7.927999999999995</v>
@@ -5838,7 +5860,7 @@
         <v>3.520000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>36.23188405797121</v>
+        <v>73.33333333333381</v>
       </c>
       <c r="L110" t="n">
         <v>7.943999999999996</v>
@@ -5889,7 +5911,7 @@
         <v>3.560000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>41.66666666666676</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L111" t="n">
         <v>7.969999999999994</v>
@@ -5940,7 +5962,7 @@
         <v>3.560000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>39.13043478260877</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L112" t="n">
         <v>7.989999999999993</v>
@@ -5991,7 +6013,7 @@
         <v>3.590000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>40.0000000000002</v>
+        <v>74.19354838709722</v>
       </c>
       <c r="L113" t="n">
         <v>8.012999999999993</v>
@@ -6042,7 +6064,7 @@
         <v>3.660000000000004</v>
       </c>
       <c r="K114" t="n">
-        <v>20.0000000000001</v>
+        <v>40.54054054054072</v>
       </c>
       <c r="L114" t="n">
         <v>8.028999999999993</v>
@@ -6093,7 +6115,7 @@
         <v>3.710000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>44.61538461538458</v>
+        <v>47.61904761904766</v>
       </c>
       <c r="L115" t="n">
         <v>8.048999999999992</v>
@@ -6144,7 +6166,7 @@
         <v>3.720000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L116" t="n">
         <v>8.067999999999993</v>
@@ -6195,7 +6217,7 @@
         <v>3.730000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>34.48275862068964</v>
+        <v>31.42857142857146</v>
       </c>
       <c r="L117" t="n">
         <v>8.086999999999993</v>
@@ -6246,7 +6268,7 @@
         <v>3.760000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>37.70491803278698</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L118" t="n">
         <v>8.100999999999992</v>
@@ -6297,7 +6319,7 @@
         <v>3.900000000000004</v>
       </c>
       <c r="K119" t="n">
-        <v>11.99999999999998</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L119" t="n">
         <v>8.090999999999992</v>
@@ -6348,7 +6370,7 @@
         <v>4.130000000000004</v>
       </c>
       <c r="K120" t="n">
-        <v>-13.40206185567017</v>
+        <v>-57.89473684210507</v>
       </c>
       <c r="L120" t="n">
         <v>8.061999999999992</v>
@@ -6399,7 +6421,7 @@
         <v>4.360000000000005</v>
       </c>
       <c r="K121" t="n">
-        <v>14.03508771929825</v>
+        <v>-12.49999999999992</v>
       </c>
       <c r="L121" t="n">
         <v>8.051999999999992</v>
@@ -6450,7 +6472,7 @@
         <v>4.460000000000004</v>
       </c>
       <c r="K122" t="n">
-        <v>16.94915254237283</v>
+        <v>-3.448275862069092</v>
       </c>
       <c r="L122" t="n">
         <v>8.051999999999992</v>
@@ -6501,7 +6523,7 @@
         <v>4.560000000000004</v>
       </c>
       <c r="K123" t="n">
-        <v>7.812499999999976</v>
+        <v>-6.666666666666719</v>
       </c>
       <c r="L123" t="n">
         <v>8.038999999999993</v>
@@ -6552,7 +6574,7 @@
         <v>4.570000000000004</v>
       </c>
       <c r="K124" t="n">
-        <v>6.976744186046504</v>
+        <v>-13.95348837209291</v>
       </c>
       <c r="L124" t="n">
         <v>8.031999999999993</v>
@@ -6603,7 +6625,7 @@
         <v>4.570000000000004</v>
       </c>
       <c r="K125" t="n">
-        <v>6.250000000000008</v>
+        <v>-12.94117647058815</v>
       </c>
       <c r="L125" t="n">
         <v>8.019999999999992</v>
@@ -6654,7 +6676,7 @@
         <v>4.580000000000004</v>
       </c>
       <c r="K126" t="n">
-        <v>6.976744186046504</v>
+        <v>-12.94117647058815</v>
       </c>
       <c r="L126" t="n">
         <v>8.009999999999993</v>
@@ -6705,7 +6727,7 @@
         <v>4.590000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>5.426356589147312</v>
+        <v>-18.07228915662655</v>
       </c>
       <c r="L127" t="n">
         <v>7.997999999999992</v>
@@ -6807,7 +6829,7 @@
         <v>4.600000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>-8.928571428571402</v>
+        <v>48.93617021276616</v>
       </c>
       <c r="L129" t="n">
         <v>7.983999999999992</v>
@@ -6858,7 +6880,7 @@
         <v>4.670000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>0.8695652173912857</v>
+        <v>22.58064516129051</v>
       </c>
       <c r="L130" t="n">
         <v>8.013999999999992</v>
@@ -6909,7 +6931,7 @@
         <v>4.740000000000004</v>
       </c>
       <c r="K131" t="n">
-        <v>3.389830508474651</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L131" t="n">
         <v>8.027999999999992</v>
@@ -6960,7 +6982,7 @@
         <v>4.750000000000004</v>
       </c>
       <c r="K132" t="n">
-        <v>4.201680672268963</v>
+        <v>78.94736842105303</v>
       </c>
       <c r="L132" t="n">
         <v>8.032999999999992</v>
@@ -7011,7 +7033,7 @@
         <v>4.780000000000003</v>
       </c>
       <c r="K133" t="n">
-        <v>4.20168067226882</v>
+        <v>90.47619047619064</v>
       </c>
       <c r="L133" t="n">
         <v>8.050999999999993</v>
@@ -7062,7 +7084,7 @@
         <v>4.800000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>12.28070175438587</v>
+        <v>91.3043478260871</v>
       </c>
       <c r="L134" t="n">
         <v>8.071999999999994</v>
@@ -7113,7 +7135,7 @@
         <v>4.880000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>14.52991452991453</v>
+        <v>93.33333333333346</v>
       </c>
       <c r="L135" t="n">
         <v>8.100999999999996</v>
@@ -7164,7 +7186,7 @@
         <v>4.910000000000004</v>
       </c>
       <c r="K136" t="n">
-        <v>17.64705882352947</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>8.131999999999994</v>
@@ -7215,7 +7237,7 @@
         <v>5.030000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>24.61538461538462</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>8.175999999999995</v>
@@ -7266,7 +7288,7 @@
         <v>5.060000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>20</v>
+        <v>86.95652173913069</v>
       </c>
       <c r="L138" t="n">
         <v>8.215999999999996</v>
@@ -7317,7 +7339,7 @@
         <v>5.060000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>34.48275862068974</v>
+        <v>84.6153846153849</v>
       </c>
       <c r="L139" t="n">
         <v>8.255999999999997</v>
@@ -7368,7 +7390,7 @@
         <v>5.060000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>67.7419354838712</v>
+        <v>81.25000000000031</v>
       </c>
       <c r="L140" t="n">
         <v>8.288999999999996</v>
@@ -7419,7 +7441,7 @@
         <v>5.080000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>58.33333333333356</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L141" t="n">
         <v>8.316999999999997</v>
@@ -7470,7 +7492,7 @@
         <v>5.120000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>42.42424242424281</v>
+        <v>58.82352941176535</v>
       </c>
       <c r="L142" t="n">
         <v>8.339999999999995</v>
@@ -7521,7 +7543,7 @@
         <v>5.140000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>68.96551724137979</v>
+        <v>58.82352941176535</v>
       </c>
       <c r="L143" t="n">
         <v>8.361999999999995</v>
@@ -7572,7 +7594,7 @@
         <v>5.190000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>58.06451612903241</v>
+        <v>22.58064516129051</v>
       </c>
       <c r="L144" t="n">
         <v>8.376999999999994</v>
@@ -7623,7 +7645,7 @@
         <v>5.260000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>62.31884057971031</v>
+        <v>31.42857142857146</v>
       </c>
       <c r="L145" t="n">
         <v>8.390999999999995</v>
@@ -7674,7 +7696,7 @@
         <v>5.290000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>54.92957746478903</v>
+        <v>-15.38461538461517</v>
       </c>
       <c r="L146" t="n">
         <v>8.398999999999994</v>
@@ -7725,7 +7747,7 @@
         <v>5.32</v>
       </c>
       <c r="K147" t="n">
-        <v>58.90410958904131</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L147" t="n">
         <v>8.397999999999993</v>
@@ -7776,7 +7798,7 @@
         <v>5.390000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>44.30379746835453</v>
+        <v>-15.15151515151545</v>
       </c>
       <c r="L148" t="n">
         <v>8.392999999999992</v>
@@ -7827,7 +7849,7 @@
         <v>5.4</v>
       </c>
       <c r="K149" t="n">
-        <v>42.50000000000014</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L149" t="n">
         <v>8.386999999999992</v>
@@ -7878,7 +7900,7 @@
         <v>5.4</v>
       </c>
       <c r="K150" t="n">
-        <v>36.98630136986311</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L150" t="n">
         <v>8.380999999999991</v>
@@ -7929,7 +7951,7 @@
         <v>5.41</v>
       </c>
       <c r="K151" t="n">
-        <v>31.34328358208958</v>
+        <v>-10.34482758620732</v>
       </c>
       <c r="L151" t="n">
         <v>8.373999999999992</v>
@@ -7980,7 +8002,7 @@
         <v>5.41</v>
       </c>
       <c r="K152" t="n">
-        <v>30.30303030303035</v>
+        <v>-18.51851851851881</v>
       </c>
       <c r="L152" t="n">
         <v>8.370999999999992</v>
@@ -8031,7 +8053,7 @@
         <v>5.529999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>6.666666666666793</v>
+        <v>-35.29411764705879</v>
       </c>
       <c r="L153" t="n">
         <v>8.35399999999999</v>
@@ -8082,7 +8104,7 @@
         <v>5.529999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>4.109589041096064</v>
+        <v>-70.37037037037076</v>
       </c>
       <c r="L154" t="n">
         <v>8.341999999999992</v>
@@ -8133,7 +8155,7 @@
         <v>5.73</v>
       </c>
       <c r="K155" t="n">
-        <v>-29.41176470588243</v>
+        <v>-81.81818181818218</v>
       </c>
       <c r="L155" t="n">
         <v>8.302999999999992</v>
@@ -8184,7 +8206,7 @@
         <v>5.930000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>-7.843137254901984</v>
+        <v>-31.14754098360642</v>
       </c>
       <c r="L156" t="n">
         <v>8.286999999999992</v>
@@ -8235,7 +8257,7 @@
         <v>6.060000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-32.03883495145634</v>
+        <v>-37.3134328358208</v>
       </c>
       <c r="L157" t="n">
         <v>8.254999999999992</v>
@@ -8286,7 +8308,7 @@
         <v>6.060000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-30.00000000000007</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L158" t="n">
         <v>8.229999999999992</v>
@@ -8337,7 +8359,7 @@
         <v>6.180000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>-16.07142857142853</v>
+        <v>-15.38461538461523</v>
       </c>
       <c r="L159" t="n">
         <v>8.217999999999991</v>
@@ -8388,7 +8410,7 @@
         <v>6.290000000000004</v>
       </c>
       <c r="K160" t="n">
-        <v>-23.57723577235776</v>
+        <v>-27.27272727272717</v>
       </c>
       <c r="L160" t="n">
         <v>8.19499999999999</v>
@@ -8439,7 +8461,7 @@
         <v>6.480000000000004</v>
       </c>
       <c r="K161" t="n">
-        <v>-35.71428571428566</v>
+        <v>-40.1869158878503</v>
       </c>
       <c r="L161" t="n">
         <v>8.15199999999999</v>
@@ -8490,7 +8512,7 @@
         <v>6.530000000000004</v>
       </c>
       <c r="K162" t="n">
-        <v>-29.07801418439718</v>
+        <v>-25.99999999999995</v>
       </c>
       <c r="L162" t="n">
         <v>8.113999999999992</v>
@@ -8541,7 +8563,7 @@
         <v>6.530000000000004</v>
       </c>
       <c r="K163" t="n">
-        <v>-30.93525179856113</v>
+        <v>-25.99999999999995</v>
       </c>
       <c r="L163" t="n">
         <v>8.08799999999999</v>
@@ -8592,7 +8614,7 @@
         <v>6.540000000000004</v>
       </c>
       <c r="K164" t="n">
-        <v>-27.40740740740729</v>
+        <v>-6.172839506172677</v>
       </c>
       <c r="L164" t="n">
         <v>8.062999999999992</v>
@@ -8643,7 +8665,7 @@
         <v>6.560000000000004</v>
       </c>
       <c r="K165" t="n">
-        <v>-32.30769230769224</v>
+        <v>-36.50793650793643</v>
       </c>
       <c r="L165" t="n">
         <v>8.059999999999992</v>
@@ -8694,7 +8716,7 @@
         <v>6.570000000000004</v>
       </c>
       <c r="K166" t="n">
-        <v>-29.68749999999999</v>
+        <v>-17.64705882352933</v>
       </c>
       <c r="L166" t="n">
         <v>8.037999999999991</v>
@@ -8745,7 +8767,7 @@
         <v>6.570000000000004</v>
       </c>
       <c r="K167" t="n">
-        <v>-32.79999999999992</v>
+        <v>-17.64705882352933</v>
       </c>
       <c r="L167" t="n">
         <v>8.028999999999993</v>
@@ -8796,7 +8818,7 @@
         <v>6.570000000000004</v>
       </c>
       <c r="K168" t="n">
-        <v>-28.8135593220338</v>
+        <v>-53.84615384615399</v>
       </c>
       <c r="L168" t="n">
         <v>8.019999999999992</v>
@@ -8847,7 +8869,7 @@
         <v>6.580000000000004</v>
       </c>
       <c r="K169" t="n">
-        <v>-27.11864406779656</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L169" t="n">
         <v>7.999999999999993</v>
@@ -8898,7 +8920,7 @@
         <v>6.590000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>-27.73109243697472</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L170" t="n">
         <v>7.989999999999993</v>
@@ -8949,7 +8971,7 @@
         <v>6.600000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>-27.73109243697472</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L171" t="n">
         <v>7.999999999999993</v>
@@ -9000,7 +9022,7 @@
         <v>6.600000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>-27.73109243697472</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L172" t="n">
         <v>8.004999999999992</v>
@@ -9051,7 +9073,7 @@
         <v>6.610000000000003</v>
       </c>
       <c r="K173" t="n">
-        <v>-20.37037037037036</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L173" t="n">
         <v>8.008999999999993</v>
@@ -9102,7 +9124,7 @@
         <v>6.610000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>-20.37037037037036</v>
+        <v>20</v>
       </c>
       <c r="L174" t="n">
         <v>8.011999999999993</v>
@@ -9153,7 +9175,7 @@
         <v>6.620000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-1.123595505617951</v>
+        <v>20</v>
       </c>
       <c r="L175" t="n">
         <v>8.013999999999992</v>

--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S175"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +701,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1300000000000008</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1300000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1800000000000006</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>7.949000000000001</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2100000000000009</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2100000000000009</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7.928</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2200000000000015</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-90.90909090909037</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.907999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2100000000000009</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2300000000000022</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-91.30434782608646</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.886999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2400000000000029</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-83.3333333333324</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.866999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2800000000000029</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-57.1428571428566</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7.850999999999997</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3700000000000028</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-67.56756756756707</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7.825999999999998</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4700000000000024</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-31.91489361702119</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.810999999999997</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4800000000000022</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-8.571428571428354</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7.794999999999997</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.490000000000002</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.677419354838747</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.792999999999997</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.490000000000002</v>
-      </c>
-      <c r="K21" t="n">
-        <v>21.42857142857152</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.795999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>7.8725</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.490000000000002</v>
-      </c>
-      <c r="K22" t="n">
-        <v>18.51851851851842</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.801999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>7.865000000000002</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.490000000000002</v>
-      </c>
-      <c r="K23" t="n">
-        <v>23.07692307692329</v>
-      </c>
-      <c r="L23" t="n">
-        <v>7.806999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>7.857500000000003</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6300000000000017</v>
-      </c>
-      <c r="K24" t="n">
-        <v>48.71794871794874</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7.826999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>7.857000000000004</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1900000000000004</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8100000000000014</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-5.66037735849063</v>
-      </c>
-      <c r="L25" t="n">
-        <v>7.827999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>7.847500000000004</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="K26" t="n">
-        <v>38.70967741935483</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.842999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>7.847000000000004</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="K27" t="n">
-        <v>26.92307692307693</v>
-      </c>
-      <c r="L27" t="n">
-        <v>7.866999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>7.846500000000004</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.080000000000001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9.999999999999956</v>
-      </c>
-      <c r="L28" t="n">
-        <v>7.871999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>7.841500000000005</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.150000000000001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>18.18181818181822</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.884999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>7.840000000000005</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9.859154929577517</v>
-      </c>
-      <c r="L30" t="n">
-        <v>7.891999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>7.842500000000006</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.210000000000001</v>
-      </c>
-      <c r="K31" t="n">
-        <v>11.11111111111114</v>
-      </c>
-      <c r="L31" t="n">
-        <v>7.899999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>7.848000000000004</v>
-      </c>
-      <c r="N31" t="n">
-        <v>7.881666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.220000000000001</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9.589041095890467</v>
-      </c>
-      <c r="L32" t="n">
-        <v>7.906999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>7.854500000000004</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7.879000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-9.999999999999956</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.914999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>7.861000000000004</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7.876666666666668</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>10.20408163265304</v>
-      </c>
-      <c r="L34" t="n">
-        <v>7.901999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>7.864500000000004</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7.872000000000002</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-41.93548387096776</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.906999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>7.867500000000004</v>
-      </c>
-      <c r="N35" t="n">
-        <v>7.867333333333336</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-41.93548387096776</v>
-      </c>
-      <c r="L36" t="n">
-        <v>7.893999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>7.868500000000004</v>
-      </c>
-      <c r="N36" t="n">
-        <v>7.862666666666669</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-18.18181818181822</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.880999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>7.874000000000005</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.858000000000003</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.2700000000000005</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.430000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-85.71428571428599</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7.863999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>7.868000000000005</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7.849000000000004</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.2600000000000007</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-75.00000000000047</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.840999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>7.863000000000005</v>
-      </c>
-      <c r="N39" t="n">
-        <v>7.840333333333337</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2700000000000005</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-83.33333333333364</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.821999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>7.857000000000005</v>
-      </c>
-      <c r="N40" t="n">
-        <v>7.835666666666671</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-84.00000000000028</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7.799999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>7.850000000000004</v>
-      </c>
-      <c r="N41" t="n">
-        <v>7.832000000000004</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.2800000000000002</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-84.00000000000028</v>
-      </c>
-      <c r="L42" t="n">
-        <v>7.779999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>7.843500000000003</v>
-      </c>
-      <c r="N42" t="n">
-        <v>7.82966666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.489999999999999</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-78.94736842105291</v>
-      </c>
-      <c r="L43" t="n">
-        <v>7.757999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>7.836500000000003</v>
-      </c>
-      <c r="N43" t="n">
-        <v>7.82666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.3400000000000007</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-83.33333333333364</v>
-      </c>
-      <c r="L44" t="n">
-        <v>7.737999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>7.820000000000002</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7.822333333333336</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.550000000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-75.9999999999998</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7.718999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>7.813000000000002</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.818000000000002</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.3400000000000007</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.560000000000001</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-76.92307692307679</v>
-      </c>
-      <c r="L46" t="n">
-        <v>7.698999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>7.796500000000002</v>
-      </c>
-      <c r="N46" t="n">
-        <v>7.812000000000002</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.570000000000002</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-42.85714285714214</v>
-      </c>
-      <c r="L47" t="n">
-        <v>7.679999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>7.780500000000002</v>
-      </c>
-      <c r="N47" t="n">
-        <v>7.809333333333337</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.570000000000002</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-53.84615384615269</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.673999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>7.769000000000003</v>
-      </c>
-      <c r="N48" t="n">
-        <v>7.803333333333336</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.590000000000002</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-28.5714285714283</v>
-      </c>
-      <c r="L49" t="n">
-        <v>7.668999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>7.755000000000003</v>
-      </c>
-      <c r="N49" t="n">
-        <v>7.798333333333336</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.2800000000000002</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.620000000000002</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6.666666666666429</v>
-      </c>
-      <c r="L50" t="n">
-        <v>7.667999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>7.745000000000002</v>
-      </c>
-      <c r="N50" t="n">
-        <v>7.794000000000001</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.3200000000000003</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.660000000000002</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-22.22222222222195</v>
-      </c>
-      <c r="L51" t="n">
-        <v>7.664999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>7.732500000000002</v>
-      </c>
-      <c r="N51" t="n">
-        <v>7.788333333333335</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.730000000000002</v>
-      </c>
-      <c r="K52" t="n">
-        <v>16.66666666666648</v>
-      </c>
-      <c r="L52" t="n">
-        <v>7.667999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>7.724000000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>7.785</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.730000000000002</v>
-      </c>
-      <c r="K53" t="n">
-        <v>47.36842105263143</v>
-      </c>
-      <c r="L53" t="n">
-        <v>7.672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>7.715000000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>7.781666666666666</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.2800000000000002</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.760000000000002</v>
-      </c>
-      <c r="K54" t="n">
-        <v>23.80952380952353</v>
-      </c>
-      <c r="L54" t="n">
-        <v>7.678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>7.708</v>
-      </c>
-      <c r="N54" t="n">
-        <v>7.772666666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.2700000000000005</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.770000000000002</v>
-      </c>
-      <c r="K55" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L55" t="n">
-        <v>7.683999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>7.7015</v>
-      </c>
-      <c r="N55" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.2700000000000005</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.770000000000002</v>
-      </c>
-      <c r="K56" t="n">
-        <v>29.99999999999978</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.690999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>7.695</v>
-      </c>
-      <c r="N56" t="n">
-        <v>7.761333333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.2200000000000006</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.820000000000002</v>
-      </c>
-      <c r="K57" t="n">
-        <v>43.99999999999977</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7.701999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>7.691</v>
-      </c>
-      <c r="N57" t="n">
-        <v>7.754333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.2200000000000006</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.820000000000002</v>
-      </c>
-      <c r="K58" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L58" t="n">
-        <v>7.712999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>7.693499999999998</v>
-      </c>
-      <c r="N58" t="n">
-        <v>7.750333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.2200000000000006</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.820000000000002</v>
-      </c>
-      <c r="K59" t="n">
-        <v>29.99999999999978</v>
-      </c>
-      <c r="L59" t="n">
-        <v>7.721999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>7.695499999999998</v>
-      </c>
-      <c r="N59" t="n">
-        <v>7.744</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.2400000000000002</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.840000000000002</v>
-      </c>
-      <c r="K60" t="n">
-        <v>44.44444444444456</v>
-      </c>
-      <c r="L60" t="n">
-        <v>7.725999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>7.696999999999998</v>
-      </c>
-      <c r="N60" t="n">
-        <v>7.738666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.850000000000001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>7.732999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>7.698999999999998</v>
-      </c>
-      <c r="N61" t="n">
-        <v>7.732666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.2700000000000005</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.870000000000002</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-14.28571428571465</v>
-      </c>
-      <c r="L62" t="n">
-        <v>7.730999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>7.699499999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>7.726333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.3400000000000007</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.940000000000002</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-33.33333333333366</v>
-      </c>
-      <c r="L63" t="n">
-        <v>7.721999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>7.696999999999998</v>
-      </c>
-      <c r="N63" t="n">
-        <v>7.717333333333332</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.2700000000000005</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.010000000000002</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.722999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>7.7005</v>
-      </c>
-      <c r="N64" t="n">
-        <v>7.712999999999999</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2656,21 @@
         <v>7.787999999999996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.2700000000000005</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.010000000000002</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7.722999999999996</v>
+        <v>7.72</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>7.7035</v>
-      </c>
-      <c r="N65" t="n">
-        <v>7.708666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2697,21 @@
         <v>7.783499999999995</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.2700000000000005</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.010000000000002</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-26.31578947368406</v>
-      </c>
-      <c r="L66" t="n">
-        <v>7.722999999999996</v>
+        <v>7.71</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>7.707000000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>7.704333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2738,21 @@
         <v>7.778333333333328</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.3100000000000005</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.050000000000002</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-39.13043478260856</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.713999999999996</v>
+        <v>7.67</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>7.708</v>
-      </c>
-      <c r="N67" t="n">
-        <v>7.698666666666666</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2779,21 @@
         <v>7.773333333333328</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.060000000000002</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L68" t="n">
-        <v>7.705999999999996</v>
+        <v>7.69</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>7.7095</v>
-      </c>
-      <c r="N68" t="n">
-        <v>7.697666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2820,21 @@
         <v>7.768166666666661</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.3100000000000005</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.070000000000002</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-30.43478260869572</v>
-      </c>
-      <c r="L69" t="n">
-        <v>7.696999999999996</v>
+        <v>7.67</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>7.7095</v>
-      </c>
-      <c r="N69" t="n">
-        <v>7.695999999999999</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +2861,21 @@
         <v>7.764999999999995</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.3200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.080000000000002</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-30.43478260869572</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.688999999999996</v>
+        <v>7.67</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>7.7075</v>
-      </c>
-      <c r="N70" t="n">
-        <v>7.694333333333332</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2902,21 @@
         <v>7.762499999999994</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.3300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.090000000000002</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-27.27272727272713</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.680999999999996</v>
+        <v>7.65</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>7.707000000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>7.692999999999999</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +2943,21 @@
         <v>7.760333333333327</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.3400000000000007</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.100000000000002</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.673999999999997</v>
+        <v>7.64</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>7.702500000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>7.690999999999999</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +2984,21 @@
         <v>7.757166666666661</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.3900000000000006</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.150000000000002</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-85.71428571428599</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.668999999999997</v>
+        <v>7.6</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>7.695500000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>7.687666666666666</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3025,21 @@
         <v>7.756166666666661</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.2700000000000005</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.270000000000002</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.668999999999997</v>
+        <v>7.67</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>7.696000000000002</v>
-      </c>
-      <c r="N74" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3066,21 @@
         <v>7.754499999999995</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.300000000000002</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-10.34482758620698</v>
-      </c>
-      <c r="L75" t="n">
-        <v>7.665999999999999</v>
+        <v>7.68</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>7.694500000000002</v>
-      </c>
-      <c r="N75" t="n">
-        <v>7.691</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3107,21 @@
         <v>7.752499999999995</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.2800000000000002</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.320000000000003</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.11111111111118</v>
-      </c>
-      <c r="L76" t="n">
-        <v>7.664999999999999</v>
+        <v>7.68</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>7.694000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>7.693</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3148,21 @@
         <v>7.752333333333328</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.2600000000000007</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.340000000000003</v>
-      </c>
-      <c r="K77" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L77" t="n">
-        <v>7.669999999999999</v>
+        <v>7.72</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>7.692000000000002</v>
-      </c>
-      <c r="N77" t="n">
-        <v>7.695333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3189,21 @@
         <v>7.750499999999996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.2600000000000007</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.340000000000003</v>
-      </c>
-      <c r="K78" t="n">
-        <v>18.51851851851842</v>
-      </c>
-      <c r="L78" t="n">
-        <v>7.673999999999998</v>
+        <v>7.72</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>7.690000000000002</v>
-      </c>
-      <c r="N78" t="n">
-        <v>7.697666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3230,21 @@
         <v>7.748166666666663</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.380000000000003</v>
-      </c>
-      <c r="K79" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L79" t="n">
-        <v>7.674999999999999</v>
+        <v>7.68</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>7.686000000000003</v>
-      </c>
-      <c r="N79" t="n">
-        <v>7.698</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3271,21 @@
         <v>7.74633333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.2600000000000007</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.420000000000003</v>
-      </c>
-      <c r="K80" t="n">
-        <v>21.21212121212097</v>
-      </c>
-      <c r="L80" t="n">
-        <v>7.680999999999999</v>
+        <v>7.72</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>7.685000000000002</v>
-      </c>
-      <c r="N80" t="n">
-        <v>7.698666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3312,21 @@
         <v>7.744166666666663</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.2800000000000002</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.440000000000002</v>
-      </c>
-      <c r="K81" t="n">
-        <v>17.64705882352957</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.685999999999998</v>
+        <v>7.7</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>7.683500000000002</v>
-      </c>
-      <c r="N81" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3353,21 @@
         <v>7.741999999999996</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.2800000000000002</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.440000000000002</v>
-      </c>
-      <c r="K82" t="n">
-        <v>37.93103448275873</v>
-      </c>
-      <c r="L82" t="n">
-        <v>7.691999999999998</v>
+        <v>7.7</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>7.683000000000002</v>
-      </c>
-      <c r="N82" t="n">
-        <v>7.699</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3394,21 @@
         <v>7.740166666666664</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.2600000000000007</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.460000000000002</v>
-      </c>
-      <c r="K83" t="n">
-        <v>5.263157894736744</v>
-      </c>
-      <c r="L83" t="n">
-        <v>7.704999999999998</v>
+        <v>7.72</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>7.687000000000002</v>
-      </c>
-      <c r="N83" t="n">
-        <v>7.698666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3435,21 @@
         <v>7.736166666666664</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.470000000000002</v>
-      </c>
-      <c r="K84" t="n">
-        <v>29.41176470588278</v>
-      </c>
-      <c r="L84" t="n">
-        <v>7.706999999999999</v>
+        <v>7.73</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>7.688000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>7.699666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3476,21 @@
         <v>7.734499999999997</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.29</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.510000000000002</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-5.263157894736744</v>
-      </c>
-      <c r="L85" t="n">
-        <v>7.707999999999998</v>
+        <v>7.7</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>7.687</v>
-      </c>
-      <c r="N85" t="n">
-        <v>7.699</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3517,21 @@
         <v>7.72833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.600000000000003</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-46.15384615384608</v>
-      </c>
-      <c r="L86" t="n">
-        <v>7.697999999999998</v>
+        <v>7.6</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>7.6815</v>
-      </c>
-      <c r="N86" t="n">
-        <v>7.695333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3558,21 @@
         <v>7.722166666666664</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.600000000000003</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-46.15384615384608</v>
-      </c>
-      <c r="L87" t="n">
-        <v>7.685999999999997</v>
+        <v>7.6</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>7.678</v>
-      </c>
-      <c r="N87" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3599,21 @@
         <v>7.719666666666664</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.730000000000004</v>
-      </c>
-      <c r="K88" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L88" t="n">
-        <v>7.686999999999998</v>
+        <v>7.73</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>7.680499999999999</v>
-      </c>
-      <c r="N88" t="n">
-        <v>7.688999999999999</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3640,21 @@
         <v>7.717499999999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.820000000000004</v>
-      </c>
-      <c r="K89" t="n">
-        <v>25.00000000000006</v>
-      </c>
-      <c r="L89" t="n">
-        <v>7.700999999999996</v>
+        <v>7.73</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>7.688</v>
-      </c>
-      <c r="N89" t="n">
-        <v>7.691</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3681,21 @@
         <v>7.715999999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1700000000000008</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.830000000000005</v>
-      </c>
-      <c r="K90" t="n">
-        <v>28.20512820512789</v>
-      </c>
-      <c r="L90" t="n">
-        <v>7.709999999999996</v>
+        <v>7.83</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>7.6955</v>
-      </c>
-      <c r="N90" t="n">
-        <v>7.693333333333332</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3722,21 @@
         <v>7.714166666666665</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1800000000000006</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.840000000000004</v>
-      </c>
-      <c r="K91" t="n">
-        <v>24.99999999999978</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.719999999999996</v>
+        <v>7.8</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>7.703</v>
-      </c>
-      <c r="N91" t="n">
-        <v>7.695666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3763,21 @@
         <v>7.712999999999997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.870000000000005</v>
-      </c>
-      <c r="K92" t="n">
-        <v>26.82926829268282</v>
-      </c>
-      <c r="L92" t="n">
-        <v>7.732999999999995</v>
+        <v>7.82</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>7.712500000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>7.699666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3807,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.1300000000000008</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2.890000000000004</v>
-      </c>
-      <c r="K93" t="n">
-        <v>28.57142857142827</v>
-      </c>
-      <c r="L93" t="n">
-        <v>7.745999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>7.725500000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>7.706666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3846,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.960000000000004</v>
-      </c>
-      <c r="K94" t="n">
-        <v>51.11111111111079</v>
-      </c>
-      <c r="L94" t="n">
-        <v>7.764999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>7.736</v>
-      </c>
-      <c r="N94" t="n">
-        <v>7.713666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3885,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.060000000000004</v>
-      </c>
-      <c r="K95" t="n">
-        <v>47.82608695652179</v>
-      </c>
-      <c r="L95" t="n">
-        <v>7.777999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>7.742999999999999</v>
-      </c>
-      <c r="N95" t="n">
-        <v>7.717333333333332</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3924,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3.150000000000004</v>
-      </c>
-      <c r="K96" t="n">
-        <v>56.36363636363638</v>
-      </c>
-      <c r="L96" t="n">
-        <v>7.808999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>7.7535</v>
-      </c>
-      <c r="N96" t="n">
-        <v>7.723999999999999</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3963,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3.150000000000004</v>
-      </c>
-      <c r="K97" t="n">
-        <v>42.8571428571428</v>
-      </c>
-      <c r="L97" t="n">
-        <v>7.839999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>7.763</v>
-      </c>
-      <c r="N97" t="n">
-        <v>7.731999999999999</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4002,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3.150000000000004</v>
-      </c>
-      <c r="K98" t="n">
-        <v>27.27272727272723</v>
-      </c>
-      <c r="L98" t="n">
-        <v>7.857999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>7.772499999999999</v>
-      </c>
-      <c r="N98" t="n">
-        <v>7.739666666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4041,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3.150000000000004</v>
-      </c>
-      <c r="K99" t="n">
-        <v>31.25000000000023</v>
-      </c>
-      <c r="L99" t="n">
-        <v>7.866999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>7.783999999999999</v>
-      </c>
-      <c r="N99" t="n">
-        <v>7.747666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4080,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.160000000000004</v>
-      </c>
-      <c r="K100" t="n">
-        <v>31.25000000000023</v>
-      </c>
-      <c r="L100" t="n">
-        <v>7.875999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>7.792999999999999</v>
-      </c>
-      <c r="N100" t="n">
-        <v>7.755666666666666</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4119,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3.220000000000004</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2.857142857142799</v>
-      </c>
-      <c r="L101" t="n">
-        <v>7.879999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="N101" t="n">
-        <v>7.762</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4158,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3.280000000000005</v>
-      </c>
-      <c r="K102" t="n">
-        <v>12.82051282051298</v>
-      </c>
-      <c r="L102" t="n">
-        <v>7.886999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="N102" t="n">
-        <v>7.770666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4197,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.280000000000005</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-6.249999999999861</v>
-      </c>
-      <c r="L103" t="n">
-        <v>7.891999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>7.819000000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>7.781000000000001</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4236,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.280000000000005</v>
-      </c>
-      <c r="K104" t="n">
-        <v>36.3636363636363</v>
-      </c>
-      <c r="L104" t="n">
-        <v>7.889999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>7.827500000000002</v>
-      </c>
-      <c r="N104" t="n">
-        <v>7.787333333333334</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4275,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3.290000000000004</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>7.898999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>7.838500000000002</v>
-      </c>
-      <c r="N105" t="n">
-        <v>7.795</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4314,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3.290000000000004</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>7.898999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>7.854000000000002</v>
-      </c>
-      <c r="N106" t="n">
-        <v>7.802</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4353,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3.300000000000004</v>
-      </c>
-      <c r="K107" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L107" t="n">
-        <v>7.899999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>7.870000000000002</v>
-      </c>
-      <c r="N107" t="n">
-        <v>7.808666666666666</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4392,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3.380000000000004</v>
-      </c>
-      <c r="K108" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L108" t="n">
-        <v>7.908999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>7.883500000000002</v>
-      </c>
-      <c r="N108" t="n">
-        <v>7.818</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4431,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1199999999999992</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3.480000000000004</v>
-      </c>
-      <c r="K109" t="n">
-        <v>62.49999999999972</v>
-      </c>
-      <c r="L109" t="n">
-        <v>7.927999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>7.897500000000003</v>
-      </c>
-      <c r="N109" t="n">
-        <v>7.831999999999999</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4470,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3.520000000000003</v>
-      </c>
-      <c r="K110" t="n">
-        <v>73.33333333333381</v>
-      </c>
-      <c r="L110" t="n">
-        <v>7.943999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>7.910000000000002</v>
-      </c>
-      <c r="N110" t="n">
-        <v>7.843333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4509,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1199999999999992</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3.560000000000002</v>
-      </c>
-      <c r="K111" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L111" t="n">
-        <v>7.969999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>7.925000000000002</v>
-      </c>
-      <c r="N111" t="n">
-        <v>7.856666666666666</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4548,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1199999999999992</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.560000000000002</v>
-      </c>
-      <c r="K112" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L112" t="n">
-        <v>7.989999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>7.9385</v>
-      </c>
-      <c r="N112" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4587,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3.590000000000003</v>
-      </c>
-      <c r="K113" t="n">
-        <v>74.19354838709722</v>
-      </c>
-      <c r="L113" t="n">
-        <v>8.012999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>7.952500000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>7.883666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4626,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.660000000000004</v>
-      </c>
-      <c r="K114" t="n">
-        <v>40.54054054054072</v>
-      </c>
-      <c r="L114" t="n">
-        <v>8.028999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>7.959500000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>7.894666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4665,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.129999999999999</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3.710000000000003</v>
-      </c>
-      <c r="K115" t="n">
-        <v>47.61904761904766</v>
-      </c>
-      <c r="L115" t="n">
-        <v>8.048999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>7.974000000000001</v>
-      </c>
-      <c r="N115" t="n">
-        <v>7.908666666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4704,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1199999999999992</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.720000000000002</v>
-      </c>
-      <c r="K116" t="n">
-        <v>42.85714285714297</v>
-      </c>
-      <c r="L116" t="n">
-        <v>8.067999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>7.983500000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>7.925333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4743,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.129999999999999</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.730000000000002</v>
-      </c>
-      <c r="K117" t="n">
-        <v>31.42857142857146</v>
-      </c>
-      <c r="L117" t="n">
-        <v>8.086999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>7.993500000000002</v>
-      </c>
-      <c r="N117" t="n">
-        <v>7.942333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4782,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3.760000000000003</v>
-      </c>
-      <c r="K118" t="n">
-        <v>14.28571428571465</v>
-      </c>
-      <c r="L118" t="n">
-        <v>8.100999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>8.005000000000003</v>
-      </c>
-      <c r="N118" t="n">
-        <v>7.956000000000001</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4821,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3.900000000000004</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-15.78947368421063</v>
-      </c>
-      <c r="L119" t="n">
-        <v>8.090999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>8.009500000000003</v>
-      </c>
-      <c r="N119" t="n">
-        <v>7.962000000000002</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4860,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.2100000000000009</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4.130000000000004</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-57.89473684210507</v>
-      </c>
-      <c r="L120" t="n">
-        <v>8.061999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>8.003000000000004</v>
-      </c>
-      <c r="N120" t="n">
-        <v>7.960666666666668</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4899,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J121" t="n">
-        <v>4.360000000000005</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-12.49999999999992</v>
-      </c>
-      <c r="L121" t="n">
-        <v>8.051999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>8.011000000000003</v>
-      </c>
-      <c r="N121" t="n">
-        <v>7.967333333333334</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4938,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1199999999999992</v>
-      </c>
-      <c r="J122" t="n">
-        <v>4.460000000000004</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-3.448275862069092</v>
-      </c>
-      <c r="L122" t="n">
-        <v>8.051999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>8.021000000000003</v>
-      </c>
-      <c r="N122" t="n">
-        <v>7.976333333333334</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4977,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J123" t="n">
-        <v>4.560000000000004</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-6.666666666666719</v>
-      </c>
-      <c r="L123" t="n">
-        <v>8.038999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>8.026000000000002</v>
-      </c>
-      <c r="N123" t="n">
-        <v>7.981333333333335</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5016,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4.570000000000004</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-13.95348837209291</v>
-      </c>
-      <c r="L124" t="n">
-        <v>8.031999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>8.030500000000002</v>
-      </c>
-      <c r="N124" t="n">
-        <v>7.983666666666668</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5055,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J125" t="n">
-        <v>4.570000000000004</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-12.94117647058815</v>
-      </c>
-      <c r="L125" t="n">
-        <v>8.019999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>8.034500000000003</v>
-      </c>
-      <c r="N125" t="n">
-        <v>7.989333333333335</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5094,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J126" t="n">
-        <v>4.580000000000004</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-12.94117647058815</v>
-      </c>
-      <c r="L126" t="n">
-        <v>8.009999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>8.039000000000003</v>
-      </c>
-      <c r="N126" t="n">
-        <v>7.992333333333336</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5133,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4.590000000000003</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-18.07228915662655</v>
-      </c>
-      <c r="L127" t="n">
-        <v>7.997999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>8.042500000000004</v>
-      </c>
-      <c r="N127" t="n">
-        <v>7.995000000000003</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5172,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J128" t="n">
-        <v>4.600000000000003</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>7.983999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>8.042500000000004</v>
-      </c>
-      <c r="N128" t="n">
-        <v>7.998000000000003</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5211,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J129" t="n">
-        <v>4.600000000000003</v>
-      </c>
-      <c r="K129" t="n">
-        <v>48.93617021276616</v>
-      </c>
-      <c r="L129" t="n">
-        <v>7.983999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>8.037500000000005</v>
-      </c>
-      <c r="N129" t="n">
-        <v>8.001000000000003</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5250,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J130" t="n">
-        <v>4.670000000000003</v>
-      </c>
-      <c r="K130" t="n">
-        <v>22.58064516129051</v>
-      </c>
-      <c r="L130" t="n">
-        <v>8.013999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>8.038000000000004</v>
-      </c>
-      <c r="N130" t="n">
-        <v>8.006666666666669</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5289,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4.740000000000004</v>
-      </c>
-      <c r="K131" t="n">
-        <v>14.28571428571465</v>
-      </c>
-      <c r="L131" t="n">
-        <v>8.027999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>8.040000000000004</v>
-      </c>
-      <c r="N131" t="n">
-        <v>8.016666666666669</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5328,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4.750000000000004</v>
-      </c>
-      <c r="K132" t="n">
-        <v>78.94736842105303</v>
-      </c>
-      <c r="L132" t="n">
-        <v>8.032999999999992</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>8.042500000000006</v>
-      </c>
-      <c r="N132" t="n">
-        <v>8.025000000000002</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5367,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J133" t="n">
-        <v>4.780000000000003</v>
-      </c>
-      <c r="K133" t="n">
-        <v>90.47619047619064</v>
-      </c>
-      <c r="L133" t="n">
-        <v>8.050999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>8.045000000000005</v>
-      </c>
-      <c r="N133" t="n">
-        <v>8.034333333333336</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5406,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.2199999999999989</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.800000000000002</v>
-      </c>
-      <c r="K134" t="n">
-        <v>91.3043478260871</v>
-      </c>
-      <c r="L134" t="n">
-        <v>8.071999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>8.052000000000005</v>
-      </c>
-      <c r="N134" t="n">
-        <v>8.044333333333336</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5445,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.880000000000003</v>
-      </c>
-      <c r="K135" t="n">
-        <v>93.33333333333346</v>
-      </c>
-      <c r="L135" t="n">
-        <v>8.100999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>8.060500000000005</v>
-      </c>
-      <c r="N135" t="n">
-        <v>8.056666666666668</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5484,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.910000000000004</v>
-      </c>
-      <c r="K136" t="n">
-        <v>100</v>
-      </c>
-      <c r="L136" t="n">
-        <v>8.131999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>8.071000000000005</v>
-      </c>
-      <c r="N136" t="n">
-        <v>8.070000000000002</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,30 +5523,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.4499999999999993</v>
-      </c>
-      <c r="J137" t="n">
-        <v>5.030000000000003</v>
-      </c>
-      <c r="K137" t="n">
-        <v>100</v>
-      </c>
-      <c r="L137" t="n">
-        <v>8.175999999999995</v>
-      </c>
-      <c r="M137" t="n">
-        <v>8.087000000000007</v>
-      </c>
-      <c r="N137" t="n">
-        <v>8.087000000000003</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7282,28 +5560,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5.060000000000002</v>
-      </c>
-      <c r="K138" t="n">
-        <v>86.95652173913069</v>
-      </c>
-      <c r="L138" t="n">
-        <v>8.215999999999996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>8.100000000000005</v>
-      </c>
-      <c r="N138" t="n">
-        <v>8.100333333333337</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5595,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="J139" t="n">
-        <v>5.060000000000002</v>
-      </c>
-      <c r="K139" t="n">
-        <v>84.6153846153849</v>
-      </c>
-      <c r="L139" t="n">
-        <v>8.255999999999997</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>8.120000000000006</v>
-      </c>
-      <c r="N139" t="n">
-        <v>8.110333333333337</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5630,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="J140" t="n">
-        <v>5.060000000000002</v>
-      </c>
-      <c r="K140" t="n">
-        <v>81.25000000000031</v>
-      </c>
-      <c r="L140" t="n">
-        <v>8.288999999999996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>8.151500000000006</v>
-      </c>
-      <c r="N140" t="n">
-        <v>8.121666666666671</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5665,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J141" t="n">
-        <v>5.080000000000002</v>
-      </c>
-      <c r="K141" t="n">
-        <v>81.81818181818211</v>
-      </c>
-      <c r="L141" t="n">
-        <v>8.316999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>8.172500000000005</v>
-      </c>
-      <c r="N141" t="n">
-        <v>8.132333333333337</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5700,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J142" t="n">
-        <v>5.120000000000001</v>
-      </c>
-      <c r="K142" t="n">
-        <v>58.82352941176535</v>
-      </c>
-      <c r="L142" t="n">
-        <v>8.339999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>8.186500000000006</v>
-      </c>
-      <c r="N142" t="n">
-        <v>8.141666666666671</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5735,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="J143" t="n">
-        <v>5.140000000000001</v>
-      </c>
-      <c r="K143" t="n">
-        <v>58.82352941176535</v>
-      </c>
-      <c r="L143" t="n">
-        <v>8.361999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>8.206500000000005</v>
-      </c>
-      <c r="N143" t="n">
-        <v>8.150666666666671</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5770,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.3699999999999992</v>
-      </c>
-      <c r="J144" t="n">
-        <v>5.190000000000001</v>
-      </c>
-      <c r="K144" t="n">
-        <v>22.58064516129051</v>
-      </c>
-      <c r="L144" t="n">
-        <v>8.376999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>8.224500000000004</v>
-      </c>
-      <c r="N144" t="n">
-        <v>8.160333333333337</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5805,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J145" t="n">
-        <v>5.260000000000002</v>
-      </c>
-      <c r="K145" t="n">
-        <v>31.42857142857146</v>
-      </c>
-      <c r="L145" t="n">
-        <v>8.390999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>8.246000000000004</v>
-      </c>
-      <c r="N145" t="n">
-        <v>8.170666666666671</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5840,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4100000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>5.290000000000001</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-15.38461538461517</v>
-      </c>
-      <c r="L146" t="n">
-        <v>8.398999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>8.265500000000003</v>
-      </c>
-      <c r="N146" t="n">
-        <v>8.180333333333337</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5875,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J147" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K147" t="n">
-        <v>7.692307692307587</v>
-      </c>
-      <c r="L147" t="n">
-        <v>8.397999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>8.287000000000003</v>
-      </c>
-      <c r="N147" t="n">
-        <v>8.190666666666669</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5910,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.3699999999999992</v>
-      </c>
-      <c r="J148" t="n">
-        <v>5.390000000000001</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-15.15151515151545</v>
-      </c>
-      <c r="L148" t="n">
-        <v>8.392999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>8.304500000000001</v>
-      </c>
-      <c r="N148" t="n">
-        <v>8.197666666666668</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5945,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3599999999999994</v>
-      </c>
-      <c r="J149" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-17.64705882352966</v>
-      </c>
-      <c r="L149" t="n">
-        <v>8.386999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>8.321500000000002</v>
-      </c>
-      <c r="N149" t="n">
-        <v>8.209000000000001</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5980,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3599999999999994</v>
-      </c>
-      <c r="J150" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-25.00000000000014</v>
-      </c>
-      <c r="L150" t="n">
-        <v>8.380999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>8.335000000000003</v>
-      </c>
-      <c r="N150" t="n">
-        <v>8.228000000000002</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6015,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3699999999999992</v>
-      </c>
-      <c r="J151" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-10.34482758620732</v>
-      </c>
-      <c r="L151" t="n">
-        <v>8.373999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>8.345500000000001</v>
-      </c>
-      <c r="N151" t="n">
-        <v>8.239666666666668</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6050,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3699999999999992</v>
-      </c>
-      <c r="J152" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-18.51851851851881</v>
-      </c>
-      <c r="L152" t="n">
-        <v>8.370999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>8.355500000000001</v>
-      </c>
-      <c r="N152" t="n">
-        <v>8.248000000000001</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6085,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J153" t="n">
-        <v>5.529999999999999</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-35.29411764705879</v>
-      </c>
-      <c r="L153" t="n">
-        <v>8.35399999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>8.358000000000001</v>
-      </c>
-      <c r="N153" t="n">
-        <v>8.255666666666668</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,1099 +6120,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J154" t="n">
-        <v>5.529999999999999</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-70.37037037037076</v>
-      </c>
-      <c r="L154" t="n">
-        <v>8.341999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>8.359500000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>8.263666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C155" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D155" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="E155" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>472925.7168</v>
-      </c>
-      <c r="G155" t="n">
-        <v>8.127166666666669</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.04999999999999893</v>
-      </c>
-      <c r="J155" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-81.81818181818218</v>
-      </c>
-      <c r="L155" t="n">
-        <v>8.302999999999992</v>
-      </c>
-      <c r="M155" t="n">
-        <v>8.347</v>
-      </c>
-      <c r="N155" t="n">
-        <v>8.265000000000001</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D156" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E156" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>27622.588</v>
-      </c>
-      <c r="G156" t="n">
-        <v>8.132500000000002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J156" t="n">
-        <v>5.930000000000001</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-31.14754098360642</v>
-      </c>
-      <c r="L156" t="n">
-        <v>8.286999999999992</v>
-      </c>
-      <c r="M156" t="n">
-        <v>8.343</v>
-      </c>
-      <c r="N156" t="n">
-        <v>8.272666666666668</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>308</v>
-      </c>
-      <c r="G157" t="n">
-        <v>8.135666666666669</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.1199999999999992</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6.060000000000002</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-37.3134328358208</v>
-      </c>
-      <c r="L157" t="n">
-        <v>8.254999999999992</v>
-      </c>
-      <c r="M157" t="n">
-        <v>8.326499999999999</v>
-      </c>
-      <c r="N157" t="n">
-        <v>8.276333333333334</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9537.7788</v>
-      </c>
-      <c r="G158" t="n">
-        <v>8.138833333333334</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.1199999999999992</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6.060000000000002</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-36.3636363636363</v>
-      </c>
-      <c r="L158" t="n">
-        <v>8.229999999999992</v>
-      </c>
-      <c r="M158" t="n">
-        <v>8.311499999999999</v>
-      </c>
-      <c r="N158" t="n">
-        <v>8.279666666666667</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9383.454900000001</v>
-      </c>
-      <c r="G159" t="n">
-        <v>8.144000000000002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.2400000000000002</v>
-      </c>
-      <c r="J159" t="n">
-        <v>6.180000000000003</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-15.38461538461523</v>
-      </c>
-      <c r="L159" t="n">
-        <v>8.217999999999991</v>
-      </c>
-      <c r="M159" t="n">
-        <v>8.302499999999998</v>
-      </c>
-      <c r="N159" t="n">
-        <v>8.287000000000003</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="D160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F160" t="n">
-        <v>645.4254</v>
-      </c>
-      <c r="G160" t="n">
-        <v>8.147500000000003</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.129999999999999</v>
-      </c>
-      <c r="J160" t="n">
-        <v>6.290000000000004</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-27.27272727272717</v>
-      </c>
-      <c r="L160" t="n">
-        <v>8.19499999999999</v>
-      </c>
-      <c r="M160" t="n">
-        <v>8.287999999999998</v>
-      </c>
-      <c r="N160" t="n">
-        <v>8.288333333333336</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="C161" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D161" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E161" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F161" t="n">
-        <v>16035.5249</v>
-      </c>
-      <c r="G161" t="n">
-        <v>8.148833333333336</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J161" t="n">
-        <v>6.480000000000004</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-40.1869158878503</v>
-      </c>
-      <c r="L161" t="n">
-        <v>8.15199999999999</v>
-      </c>
-      <c r="M161" t="n">
-        <v>8.262999999999998</v>
-      </c>
-      <c r="N161" t="n">
-        <v>8.281000000000004</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2976.9661</v>
-      </c>
-      <c r="G162" t="n">
-        <v>8.150000000000004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J162" t="n">
-        <v>6.530000000000004</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-25.99999999999995</v>
-      </c>
-      <c r="L162" t="n">
-        <v>8.113999999999992</v>
-      </c>
-      <c r="M162" t="n">
-        <v>8.242499999999998</v>
-      </c>
-      <c r="N162" t="n">
-        <v>8.275000000000004</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F163" t="n">
-        <v>64621.0232</v>
-      </c>
-      <c r="G163" t="n">
-        <v>8.151166666666672</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J163" t="n">
-        <v>6.530000000000004</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-25.99999999999995</v>
-      </c>
-      <c r="L163" t="n">
-        <v>8.08799999999999</v>
-      </c>
-      <c r="M163" t="n">
-        <v>8.220999999999998</v>
-      </c>
-      <c r="N163" t="n">
-        <v>8.268000000000004</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F164" t="n">
-        <v>7788.0331</v>
-      </c>
-      <c r="G164" t="n">
-        <v>8.152500000000005</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>6.540000000000004</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-6.172839506172677</v>
-      </c>
-      <c r="L164" t="n">
-        <v>8.062999999999992</v>
-      </c>
-      <c r="M164" t="n">
-        <v>8.202499999999997</v>
-      </c>
-      <c r="N164" t="n">
-        <v>8.260666666666673</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G165" t="n">
-        <v>8.154000000000005</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J165" t="n">
-        <v>6.560000000000004</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-36.50793650793643</v>
-      </c>
-      <c r="L165" t="n">
-        <v>8.059999999999992</v>
-      </c>
-      <c r="M165" t="n">
-        <v>8.181499999999998</v>
-      </c>
-      <c r="N165" t="n">
-        <v>8.251333333333339</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F166" t="n">
-        <v>69196.1906</v>
-      </c>
-      <c r="G166" t="n">
-        <v>8.15566666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J166" t="n">
-        <v>6.570000000000004</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-17.64705882352933</v>
-      </c>
-      <c r="L166" t="n">
-        <v>8.037999999999991</v>
-      </c>
-      <c r="M166" t="n">
-        <v>8.162499999999998</v>
-      </c>
-      <c r="N166" t="n">
-        <v>8.241333333333339</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F167" t="n">
-        <v>34598.0953</v>
-      </c>
-      <c r="G167" t="n">
-        <v>8.15716666666667</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J167" t="n">
-        <v>6.570000000000004</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-17.64705882352933</v>
-      </c>
-      <c r="L167" t="n">
-        <v>8.028999999999993</v>
-      </c>
-      <c r="M167" t="n">
-        <v>8.141999999999998</v>
-      </c>
-      <c r="N167" t="n">
-        <v>8.227333333333338</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F168" t="n">
-        <v>5443.1491</v>
-      </c>
-      <c r="G168" t="n">
-        <v>8.157333333333337</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J168" t="n">
-        <v>6.570000000000004</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-53.84615384615399</v>
-      </c>
-      <c r="L168" t="n">
-        <v>8.019999999999992</v>
-      </c>
-      <c r="M168" t="n">
-        <v>8.124999999999996</v>
-      </c>
-      <c r="N168" t="n">
-        <v>8.214333333333338</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2657.5827</v>
-      </c>
-      <c r="G169" t="n">
-        <v>8.156000000000002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.03999999999999915</v>
-      </c>
-      <c r="J169" t="n">
-        <v>6.580000000000004</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-31.03448275862073</v>
-      </c>
-      <c r="L169" t="n">
-        <v>7.999999999999993</v>
-      </c>
-      <c r="M169" t="n">
-        <v>8.108999999999998</v>
-      </c>
-      <c r="N169" t="n">
-        <v>8.201666666666672</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F170" t="n">
-        <v>67531.0628</v>
-      </c>
-      <c r="G170" t="n">
-        <v>8.15516666666667</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J170" t="n">
-        <v>6.590000000000003</v>
-      </c>
-      <c r="K170" t="n">
-        <v>81.81818181818211</v>
-      </c>
-      <c r="L170" t="n">
-        <v>7.989999999999993</v>
-      </c>
-      <c r="M170" t="n">
-        <v>8.092499999999998</v>
-      </c>
-      <c r="N170" t="n">
-        <v>8.18866666666667</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F171" t="n">
-        <v>14641.4649</v>
-      </c>
-      <c r="G171" t="n">
-        <v>8.153833333333335</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.03999999999999915</v>
-      </c>
-      <c r="J171" t="n">
-        <v>6.600000000000003</v>
-      </c>
-      <c r="K171" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L171" t="n">
-        <v>7.999999999999993</v>
-      </c>
-      <c r="M171" t="n">
-        <v>8.075999999999997</v>
-      </c>
-      <c r="N171" t="n">
-        <v>8.175333333333338</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6608.9081</v>
-      </c>
-      <c r="G172" t="n">
-        <v>8.152500000000002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.03999999999999915</v>
-      </c>
-      <c r="J172" t="n">
-        <v>6.600000000000003</v>
-      </c>
-      <c r="K172" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L172" t="n">
-        <v>8.004999999999992</v>
-      </c>
-      <c r="M172" t="n">
-        <v>8.059499999999998</v>
-      </c>
-      <c r="N172" t="n">
-        <v>8.163333333333338</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F173" t="n">
-        <v>222395.0621</v>
-      </c>
-      <c r="G173" t="n">
-        <v>8.150500000000001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J173" t="n">
-        <v>6.610000000000003</v>
-      </c>
-      <c r="K173" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L173" t="n">
-        <v>8.008999999999993</v>
-      </c>
-      <c r="M173" t="n">
-        <v>8.048499999999999</v>
-      </c>
-      <c r="N173" t="n">
-        <v>8.150333333333338</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F174" t="n">
-        <v>54987.5232</v>
-      </c>
-      <c r="G174" t="n">
-        <v>8.149666666666668</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J174" t="n">
-        <v>6.610000000000003</v>
-      </c>
-      <c r="K174" t="n">
-        <v>20</v>
-      </c>
-      <c r="L174" t="n">
-        <v>8.011999999999993</v>
-      </c>
-      <c r="M174" t="n">
-        <v>8.037499999999998</v>
-      </c>
-      <c r="N174" t="n">
-        <v>8.139000000000005</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C175" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D175" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E175" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F175" t="n">
-        <v>170849.0893</v>
-      </c>
-      <c r="G175" t="n">
-        <v>8.148166666666667</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.03999999999999915</v>
-      </c>
-      <c r="J175" t="n">
-        <v>6.620000000000003</v>
-      </c>
-      <c r="K175" t="n">
-        <v>20</v>
-      </c>
-      <c r="L175" t="n">
-        <v>8.013999999999992</v>
-      </c>
-      <c r="M175" t="n">
-        <v>8.036999999999999</v>
-      </c>
-      <c r="N175" t="n">
-        <v>8.125666666666671</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -2201,13 +2201,17 @@
         <v>7.838333333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="K52" t="n">
+        <v>7.66</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
@@ -2236,14 +2240,22 @@
         <v>7.835333333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2283,22 @@
         <v>7.832333333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K54" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2606,20 @@
         <v>7.796999999999997</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>7.71</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2647,20 @@
         <v>7.792499999999996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>7.64</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2656,18 +2688,16 @@
         <v>7.787999999999996</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>7.72</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2697,14 +2727,12 @@
         <v>7.783499999999995</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2738,14 +2766,12 @@
         <v>7.778333333333328</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>7.67</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2779,14 +2805,12 @@
         <v>7.773333333333328</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>7.69</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2820,14 +2844,12 @@
         <v>7.768166666666661</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>7.67</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -2861,14 +2883,12 @@
         <v>7.764999999999995</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>7.67</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -2902,14 +2922,12 @@
         <v>7.762499999999994</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>7.65</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -2943,14 +2961,12 @@
         <v>7.760333333333327</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>7.64</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -2984,14 +3000,12 @@
         <v>7.757166666666661</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>7.6</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3025,14 +3039,12 @@
         <v>7.756166666666661</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>7.67</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3066,14 +3078,12 @@
         <v>7.754499999999995</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3107,14 +3117,12 @@
         <v>7.752499999999995</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3148,14 +3156,12 @@
         <v>7.752333333333328</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>7.72</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3189,14 +3195,12 @@
         <v>7.750499999999996</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>7.72</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3230,14 +3234,12 @@
         <v>7.748166666666663</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3271,14 +3273,12 @@
         <v>7.74633333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>7.72</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3312,14 +3312,12 @@
         <v>7.744166666666663</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>7.7</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3353,14 +3351,12 @@
         <v>7.741999999999996</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>7.7</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3394,14 +3390,12 @@
         <v>7.740166666666664</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>7.72</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3435,14 +3429,12 @@
         <v>7.736166666666664</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>7.73</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3476,14 +3468,12 @@
         <v>7.734499999999997</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>7.7</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3517,14 +3507,12 @@
         <v>7.72833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>7.6</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3558,14 +3546,12 @@
         <v>7.722166666666664</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>7.6</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3599,14 +3585,12 @@
         <v>7.719666666666664</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>7.73</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3640,14 +3624,12 @@
         <v>7.717499999999998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>7.73</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3681,14 +3663,12 @@
         <v>7.715999999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>7.83</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3722,14 +3702,12 @@
         <v>7.714166666666665</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3763,14 +3741,12 @@
         <v>7.712999999999997</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>7.82</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -5523,16 +5499,18 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5560,11 +5538,15 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5599,10 +5581,12 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">

--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="C2" t="n">
         <v>7.98</v>
@@ -442,13 +442,13 @@
         <v>7.98</v>
       </c>
       <c r="E2" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="F2" t="n">
-        <v>2605.9088</v>
+        <v>40861.2907</v>
       </c>
       <c r="G2" t="n">
-        <v>7.939000000000001</v>
+        <v>7.935666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="C3" t="n">
         <v>7.98</v>
@@ -477,13 +477,13 @@
         <v>7.98</v>
       </c>
       <c r="E3" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="F3" t="n">
-        <v>2543.8596</v>
+        <v>2605.9088</v>
       </c>
       <c r="G3" t="n">
-        <v>7.940166666666667</v>
+        <v>7.939000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>7.98</v>
       </c>
       <c r="F4" t="n">
-        <v>3391.2906</v>
+        <v>2543.8596</v>
       </c>
       <c r="G4" t="n">
-        <v>7.941333333333334</v>
+        <v>7.940166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>7.98</v>
       </c>
       <c r="F5" t="n">
-        <v>279.1353</v>
+        <v>3391.2906</v>
       </c>
       <c r="G5" t="n">
-        <v>7.9425</v>
+        <v>7.941333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>7.98</v>
       </c>
       <c r="F6" t="n">
-        <v>1481.3283</v>
+        <v>279.1353</v>
       </c>
       <c r="G6" t="n">
-        <v>7.944000000000001</v>
+        <v>7.9425</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>7.98</v>
       </c>
       <c r="F7" t="n">
-        <v>1713.1641</v>
+        <v>1481.3283</v>
       </c>
       <c r="G7" t="n">
-        <v>7.947000000000001</v>
+        <v>7.944000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>7.98</v>
       </c>
       <c r="F8" t="n">
-        <v>790.6891000000001</v>
+        <v>1713.1641</v>
       </c>
       <c r="G8" t="n">
-        <v>7.948000000000001</v>
+        <v>7.947000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>7.98</v>
       </c>
       <c r="F9" t="n">
-        <v>749.9373000000001</v>
+        <v>790.6891000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>7.949166666666668</v>
+        <v>7.948000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="C10" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="D10" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="E10" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="F10" t="n">
-        <v>9102.0537</v>
+        <v>749.9373000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>7.948333333333335</v>
+        <v>7.949166666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C11" t="n">
         <v>7.85</v>
       </c>
-      <c r="C11" t="n">
-        <v>7.8</v>
-      </c>
       <c r="D11" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E11" t="n">
         <v>7.85</v>
       </c>
-      <c r="E11" t="n">
-        <v>7.8</v>
-      </c>
       <c r="F11" t="n">
-        <v>2551.2541</v>
+        <v>9102.0537</v>
       </c>
       <c r="G11" t="n">
-        <v>7.947166666666669</v>
+        <v>7.948333333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.76</v>
+        <v>7.85</v>
       </c>
       <c r="C12" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="D12" t="n">
-        <v>7.77</v>
+        <v>7.85</v>
       </c>
       <c r="E12" t="n">
-        <v>7.76</v>
+        <v>7.8</v>
       </c>
       <c r="F12" t="n">
-        <v>136357.8041</v>
+        <v>2551.2541</v>
       </c>
       <c r="G12" t="n">
-        <v>7.945500000000001</v>
+        <v>7.947166666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="C13" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D13" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E13" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F13" t="n">
-        <v>3289.1416</v>
+        <v>136357.8041</v>
       </c>
       <c r="G13" t="n">
-        <v>7.944166666666667</v>
+        <v>7.945500000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F14" t="n">
-        <v>5307.7436</v>
+        <v>3289.1416</v>
       </c>
       <c r="G14" t="n">
-        <v>7.945666666666667</v>
+        <v>7.944166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F15" t="n">
-        <v>2488.9328</v>
+        <v>5307.7436</v>
       </c>
       <c r="G15" t="n">
         <v>7.945666666666667</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="C16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="D16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="E16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="F16" t="n">
-        <v>1012.2762</v>
+        <v>2488.9328</v>
       </c>
       <c r="G16" t="n">
-        <v>7.946333333333333</v>
+        <v>7.945666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="C17" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="D17" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="F17" t="n">
-        <v>95300.7549</v>
+        <v>1012.2762</v>
       </c>
       <c r="G17" t="n">
-        <v>7.943833333333334</v>
+        <v>7.946333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="C18" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="D18" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="E18" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="F18" t="n">
-        <v>88798.89539999999</v>
+        <v>95300.7549</v>
       </c>
       <c r="G18" t="n">
         <v>7.943833333333334</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="C19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="D19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="E19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="F19" t="n">
-        <v>4052.6122</v>
+        <v>88798.89539999999</v>
       </c>
       <c r="G19" t="n">
-        <v>7.944166666666667</v>
+        <v>7.943833333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="C20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="D20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="E20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="F20" t="n">
-        <v>14020577.6476</v>
+        <v>4052.6122</v>
       </c>
       <c r="G20" t="n">
-        <v>7.944666666666667</v>
+        <v>7.944166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>7.83</v>
       </c>
       <c r="F21" t="n">
-        <v>24512798.0064</v>
+        <v>14020577.6476</v>
       </c>
       <c r="G21" t="n">
-        <v>7.944333333333333</v>
+        <v>7.944666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>7.83</v>
       </c>
       <c r="F22" t="n">
-        <v>24141391.976</v>
+        <v>24512798.0064</v>
       </c>
       <c r="G22" t="n">
-        <v>7.943999999999999</v>
+        <v>7.944333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>7.83</v>
       </c>
       <c r="F23" t="n">
-        <v>21077292.2252</v>
+        <v>24141391.976</v>
       </c>
       <c r="G23" t="n">
-        <v>7.941666666666665</v>
+        <v>7.943999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.96</v>
+        <v>7.83</v>
       </c>
       <c r="C24" t="n">
-        <v>7.97</v>
+        <v>7.83</v>
       </c>
       <c r="D24" t="n">
-        <v>7.97</v>
+        <v>7.83</v>
       </c>
       <c r="E24" t="n">
-        <v>7.96</v>
+        <v>7.83</v>
       </c>
       <c r="F24" t="n">
-        <v>117321.5809</v>
+        <v>21077292.2252</v>
       </c>
       <c r="G24" t="n">
-        <v>7.941166666666665</v>
+        <v>7.941666666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="C25" t="n">
         <v>7.97</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.79</v>
       </c>
       <c r="D25" t="n">
         <v>7.97</v>
       </c>
       <c r="E25" t="n">
-        <v>7.79</v>
+        <v>7.96</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>117321.5809</v>
       </c>
       <c r="G25" t="n">
-        <v>7.937666666666666</v>
+        <v>7.941166666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>7.97</v>
       </c>
       <c r="C26" t="n">
-        <v>7.97</v>
+        <v>7.79</v>
       </c>
       <c r="D26" t="n">
         <v>7.97</v>
       </c>
       <c r="E26" t="n">
-        <v>7.97</v>
+        <v>7.79</v>
       </c>
       <c r="F26" t="n">
-        <v>31536.6687</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>7.935999999999999</v>
+        <v>7.937666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>7.97</v>
       </c>
       <c r="F27" t="n">
-        <v>32875.9096</v>
+        <v>31536.6687</v>
       </c>
       <c r="G27" t="n">
-        <v>7.934</v>
+        <v>7.935999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="C28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="D28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="E28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="F28" t="n">
-        <v>117321.5809</v>
+        <v>32875.9096</v>
       </c>
       <c r="G28" t="n">
-        <v>7.932</v>
+        <v>7.934</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="C29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="D29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="E29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="F29" t="n">
-        <v>2515.723270440252</v>
+        <v>117321.5809</v>
       </c>
       <c r="G29" t="n">
-        <v>7.929666666666667</v>
+        <v>7.932</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="C30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="D30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="E30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="F30" t="n">
-        <v>29625.2516</v>
+        <v>2515.723270440252</v>
       </c>
       <c r="G30" t="n">
-        <v>7.927333333333333</v>
+        <v>7.929666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="C31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="D31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="E31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="F31" t="n">
-        <v>5724.3427</v>
+        <v>29625.2516</v>
       </c>
       <c r="G31" t="n">
-        <v>7.9275</v>
+        <v>7.927333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F32" t="n">
-        <v>142768.5458</v>
+        <v>5724.3427</v>
       </c>
       <c r="G32" t="n">
-        <v>7.926500000000001</v>
+        <v>7.9275</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="C33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="D33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="E33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="F33" t="n">
-        <v>11409.3552</v>
+        <v>142768.5458</v>
       </c>
       <c r="G33" t="n">
-        <v>7.925666666666668</v>
+        <v>7.926500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="C34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="D34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="E34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="F34" t="n">
-        <v>189318.8775</v>
+        <v>11409.3552</v>
       </c>
       <c r="G34" t="n">
-        <v>7.925000000000001</v>
+        <v>7.925666666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>7.84</v>
       </c>
       <c r="F35" t="n">
-        <v>65920.1201</v>
+        <v>189318.8775</v>
       </c>
       <c r="G35" t="n">
-        <v>7.924333333333334</v>
+        <v>7.925000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>7.84</v>
       </c>
       <c r="F36" t="n">
-        <v>4190.1572</v>
+        <v>65920.1201</v>
       </c>
       <c r="G36" t="n">
-        <v>7.921833333333334</v>
+        <v>7.924333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.85</v>
+        <v>7.84</v>
       </c>
       <c r="C37" t="n">
         <v>7.84</v>
       </c>
       <c r="D37" t="n">
-        <v>7.85</v>
+        <v>7.84</v>
       </c>
       <c r="E37" t="n">
         <v>7.84</v>
       </c>
       <c r="F37" t="n">
-        <v>7393.9784</v>
+        <v>4190.1572</v>
       </c>
       <c r="G37" t="n">
-        <v>7.917666666666666</v>
+        <v>7.921833333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.73</v>
+        <v>7.85</v>
       </c>
       <c r="C38" t="n">
-        <v>7.71</v>
+        <v>7.84</v>
       </c>
       <c r="D38" t="n">
-        <v>7.73</v>
+        <v>7.85</v>
       </c>
       <c r="E38" t="n">
-        <v>7.71</v>
+        <v>7.84</v>
       </c>
       <c r="F38" t="n">
-        <v>20578.6106</v>
+        <v>7393.9784</v>
       </c>
       <c r="G38" t="n">
-        <v>7.913833333333333</v>
+        <v>7.917666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
       <c r="C39" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="D39" t="n">
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
       <c r="E39" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="F39" t="n">
-        <v>2728.5995</v>
+        <v>20578.6106</v>
       </c>
       <c r="G39" t="n">
-        <v>7.908</v>
+        <v>7.913833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="C40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="D40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="E40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="F40" t="n">
         <v>2728.5995</v>
       </c>
       <c r="G40" t="n">
-        <v>7.905333333333333</v>
+        <v>7.908</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>7.71</v>
       </c>
       <c r="C41" t="n">
-        <v>7.69</v>
+        <v>7.71</v>
       </c>
       <c r="D41" t="n">
         <v>7.71</v>
       </c>
       <c r="E41" t="n">
-        <v>7.69</v>
+        <v>7.71</v>
       </c>
       <c r="F41" t="n">
-        <v>171899.8623</v>
+        <v>2728.5995</v>
       </c>
       <c r="G41" t="n">
-        <v>7.898833333333333</v>
+        <v>7.905333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="C42" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="D42" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="E42" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F42" t="n">
-        <v>73334.2856</v>
+        <v>171899.8623</v>
       </c>
       <c r="G42" t="n">
-        <v>7.8925</v>
+        <v>7.898833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="C43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="D43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="E43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F43" t="n">
-        <v>35898.2272</v>
+        <v>73334.2856</v>
       </c>
       <c r="G43" t="n">
-        <v>7.886166666666667</v>
+        <v>7.8925</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="C44" t="n">
-        <v>7.64</v>
+        <v>7.69</v>
       </c>
       <c r="D44" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="E44" t="n">
-        <v>7.64</v>
+        <v>7.69</v>
       </c>
       <c r="F44" t="n">
-        <v>163184.8129</v>
+        <v>35898.2272</v>
       </c>
       <c r="G44" t="n">
-        <v>7.878833333333334</v>
+        <v>7.886166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>7.65</v>
       </c>
       <c r="C45" t="n">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="D45" t="n">
         <v>7.65</v>
       </c>
       <c r="E45" t="n">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="F45" t="n">
-        <v>28916.5262</v>
+        <v>163184.8129</v>
       </c>
       <c r="G45" t="n">
-        <v>7.874666666666667</v>
+        <v>7.878833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>7.65</v>
       </c>
       <c r="C46" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="D46" t="n">
         <v>7.65</v>
       </c>
       <c r="E46" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="F46" t="n">
-        <v>16809.811</v>
+        <v>28916.5262</v>
       </c>
       <c r="G46" t="n">
-        <v>7.867666666666667</v>
+        <v>7.874666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>7.65</v>
       </c>
       <c r="C47" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D47" t="n">
         <v>7.65</v>
       </c>
-      <c r="D47" t="n">
-        <v>7.66</v>
-      </c>
       <c r="E47" t="n">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="F47" t="n">
-        <v>411306.6717</v>
+        <v>16809.811</v>
       </c>
       <c r="G47" t="n">
-        <v>7.8635</v>
+        <v>7.867666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="C48" t="n">
         <v>7.65</v>
@@ -2055,10 +2055,10 @@
         <v>7.65</v>
       </c>
       <c r="F48" t="n">
-        <v>58624.5401</v>
+        <v>411306.6717</v>
       </c>
       <c r="G48" t="n">
-        <v>7.859333333333334</v>
+        <v>7.8635</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="C49" t="n">
-        <v>7.67</v>
+        <v>7.65</v>
       </c>
       <c r="D49" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="E49" t="n">
-        <v>7.67</v>
+        <v>7.65</v>
       </c>
       <c r="F49" t="n">
-        <v>8857.8878</v>
+        <v>58624.5401</v>
       </c>
       <c r="G49" t="n">
-        <v>7.853</v>
+        <v>7.859333333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>7.67</v>
       </c>
       <c r="C50" t="n">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="D50" t="n">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="E50" t="n">
         <v>7.67</v>
       </c>
       <c r="F50" t="n">
-        <v>275858.5796</v>
+        <v>8857.8878</v>
       </c>
       <c r="G50" t="n">
-        <v>7.847166666666666</v>
+        <v>7.853</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="C51" t="n">
-        <v>7.66</v>
+        <v>7.7</v>
       </c>
       <c r="D51" t="n">
-        <v>7.66</v>
+        <v>7.7</v>
       </c>
       <c r="E51" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="F51" t="n">
-        <v>10.012</v>
+        <v>275858.5796</v>
       </c>
       <c r="G51" t="n">
-        <v>7.840666666666666</v>
+        <v>7.847166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,35 +2183,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="C52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="D52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="E52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="F52" t="n">
-        <v>45</v>
+        <v>10.012</v>
       </c>
       <c r="G52" t="n">
-        <v>7.838333333333334</v>
+        <v>7.840666666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="K52" t="n">
-        <v>7.66</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
@@ -2234,28 +2230,20 @@
         <v>7.73</v>
       </c>
       <c r="F53" t="n">
-        <v>52764.6287</v>
+        <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>7.835333333333334</v>
+        <v>7.838333333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K53" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,40 +2253,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="C54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="D54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="E54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="F54" t="n">
-        <v>61497.0361</v>
+        <v>52764.6287</v>
       </c>
       <c r="G54" t="n">
-        <v>7.832333333333334</v>
+        <v>7.835333333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K54" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2308,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="C55" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="D55" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="E55" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="F55" t="n">
-        <v>23929.0047</v>
+        <v>61497.0361</v>
       </c>
       <c r="G55" t="n">
-        <v>7.829499999999999</v>
+        <v>7.832333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2343,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="C56" t="n">
         <v>7.71</v>
       </c>
       <c r="D56" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="E56" t="n">
         <v>7.71</v>
       </c>
       <c r="F56" t="n">
-        <v>37550.9951</v>
+        <v>23929.0047</v>
       </c>
       <c r="G56" t="n">
-        <v>7.826666666666666</v>
+        <v>7.829499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2378,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="C57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="D57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="E57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="F57" t="n">
-        <v>1100</v>
+        <v>37550.9951</v>
       </c>
       <c r="G57" t="n">
-        <v>7.822833333333333</v>
+        <v>7.826666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2425,10 +2405,10 @@
         <v>7.76</v>
       </c>
       <c r="F58" t="n">
-        <v>1619.5533</v>
+        <v>1100</v>
       </c>
       <c r="G58" t="n">
-        <v>7.818999999999999</v>
+        <v>7.822833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2460,10 +2440,10 @@
         <v>7.76</v>
       </c>
       <c r="F59" t="n">
-        <v>18380.4467</v>
+        <v>1619.5533</v>
       </c>
       <c r="G59" t="n">
-        <v>7.815333333333331</v>
+        <v>7.818999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2483,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="C60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="D60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="E60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="F60" t="n">
-        <v>40712.375</v>
+        <v>18380.4467</v>
       </c>
       <c r="G60" t="n">
-        <v>7.811333333333332</v>
+        <v>7.815333333333331</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2521,19 +2501,19 @@
         <v>7.74</v>
       </c>
       <c r="C61" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D61" t="n">
         <v>7.74</v>
       </c>
       <c r="E61" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F61" t="n">
-        <v>90615.1271</v>
+        <v>40712.375</v>
       </c>
       <c r="G61" t="n">
-        <v>7.807166666666665</v>
+        <v>7.811333333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2553,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="C62" t="n">
-        <v>7.71</v>
+        <v>7.73</v>
       </c>
       <c r="D62" t="n">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="E62" t="n">
-        <v>7.71</v>
+        <v>7.73</v>
       </c>
       <c r="F62" t="n">
-        <v>1050</v>
+        <v>90615.1271</v>
       </c>
       <c r="G62" t="n">
-        <v>7.802666666666664</v>
+        <v>7.807166666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2588,38 +2568,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="C63" t="n">
-        <v>7.64</v>
+        <v>7.71</v>
       </c>
       <c r="D63" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="E63" t="n">
-        <v>7.64</v>
+        <v>7.71</v>
       </c>
       <c r="F63" t="n">
-        <v>60828.7663</v>
+        <v>1050</v>
       </c>
       <c r="G63" t="n">
-        <v>7.796999999999997</v>
+        <v>7.802666666666664</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2629,38 +2603,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.71</v>
+        <v>7.67</v>
       </c>
       <c r="C64" t="n">
-        <v>7.71</v>
+        <v>7.64</v>
       </c>
       <c r="D64" t="n">
-        <v>7.71</v>
+        <v>7.67</v>
       </c>
       <c r="E64" t="n">
-        <v>7.71</v>
+        <v>7.64</v>
       </c>
       <c r="F64" t="n">
-        <v>5476.9724</v>
+        <v>60828.7663</v>
       </c>
       <c r="G64" t="n">
-        <v>7.792499999999996</v>
+        <v>7.796999999999997</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>7.64</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="C65" t="n">
         <v>7.71</v>
       </c>
       <c r="D65" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="E65" t="n">
         <v>7.71</v>
       </c>
       <c r="F65" t="n">
-        <v>1931.0586</v>
+        <v>5476.9724</v>
       </c>
       <c r="G65" t="n">
-        <v>7.787999999999996</v>
+        <v>7.792499999999996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2695,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2709,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="C66" t="n">
         <v>7.71</v>
       </c>
       <c r="D66" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="E66" t="n">
         <v>7.71</v>
       </c>
       <c r="F66" t="n">
-        <v>261.6083</v>
+        <v>1931.0586</v>
       </c>
       <c r="G66" t="n">
-        <v>7.783499999999995</v>
+        <v>7.787999999999996</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2734,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2748,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="C67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="D67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="E67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="F67" t="n">
-        <v>55000</v>
+        <v>261.6083</v>
       </c>
       <c r="G67" t="n">
-        <v>7.778333333333328</v>
+        <v>7.783499999999995</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2773,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2787,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="C68" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="D68" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="E68" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="F68" t="n">
-        <v>44047.7513</v>
+        <v>55000</v>
       </c>
       <c r="G68" t="n">
-        <v>7.773333333333328</v>
+        <v>7.778333333333328</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2812,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2826,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.67</v>
+        <v>7.69</v>
       </c>
       <c r="C69" t="n">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="D69" t="n">
-        <v>7.67</v>
+        <v>7.69</v>
       </c>
       <c r="E69" t="n">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="F69" t="n">
-        <v>23752.8411</v>
+        <v>44047.7513</v>
       </c>
       <c r="G69" t="n">
-        <v>7.768166666666661</v>
+        <v>7.773333333333328</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2851,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2868,19 +2816,19 @@
         <v>7.67</v>
       </c>
       <c r="C70" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="D70" t="n">
         <v>7.67</v>
       </c>
       <c r="E70" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="F70" t="n">
-        <v>75336.63619999999</v>
+        <v>23752.8411</v>
       </c>
       <c r="G70" t="n">
-        <v>7.764999999999995</v>
+        <v>7.768166666666661</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2890,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
       <c r="C71" t="n">
-        <v>7.65</v>
+        <v>7.66</v>
       </c>
       <c r="D71" t="n">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
       <c r="E71" t="n">
-        <v>7.64</v>
+        <v>7.66</v>
       </c>
       <c r="F71" t="n">
-        <v>99111.2558</v>
+        <v>75336.63619999999</v>
       </c>
       <c r="G71" t="n">
-        <v>7.762499999999994</v>
+        <v>7.764999999999995</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2929,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2943,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="C72" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="D72" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="E72" t="n">
         <v>7.64</v>
       </c>
       <c r="F72" t="n">
-        <v>504471.9858</v>
+        <v>99111.2558</v>
       </c>
       <c r="G72" t="n">
-        <v>7.760333333333327</v>
+        <v>7.762499999999994</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2968,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2982,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.6</v>
+        <v>7.64</v>
       </c>
       <c r="C73" t="n">
-        <v>7.59</v>
+        <v>7.64</v>
       </c>
       <c r="D73" t="n">
-        <v>7.6</v>
+        <v>7.64</v>
       </c>
       <c r="E73" t="n">
-        <v>7.59</v>
+        <v>7.64</v>
       </c>
       <c r="F73" t="n">
-        <v>73873.6067</v>
+        <v>504471.9858</v>
       </c>
       <c r="G73" t="n">
-        <v>7.757166666666661</v>
+        <v>7.760333333333327</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3007,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3021,34 +2953,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.67</v>
+        <v>7.6</v>
       </c>
       <c r="C74" t="n">
-        <v>7.71</v>
+        <v>7.59</v>
       </c>
       <c r="D74" t="n">
-        <v>7.72</v>
+        <v>7.6</v>
       </c>
       <c r="E74" t="n">
-        <v>7.67</v>
+        <v>7.59</v>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>73873.6067</v>
       </c>
       <c r="G74" t="n">
-        <v>7.756166666666661</v>
+        <v>7.757166666666661</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>7.64</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3060,30 +2994,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="C75" t="n">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="D75" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="E75" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="F75" t="n">
-        <v>7807.552</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="n">
-        <v>7.754499999999995</v>
+        <v>7.756166666666661</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>7.59</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3102,27 +3038,29 @@
         <v>7.68</v>
       </c>
       <c r="C76" t="n">
-        <v>7.7</v>
+        <v>7.68</v>
       </c>
       <c r="D76" t="n">
-        <v>7.7</v>
+        <v>7.68</v>
       </c>
       <c r="E76" t="n">
         <v>7.68</v>
       </c>
       <c r="F76" t="n">
-        <v>57485.2396</v>
+        <v>7807.552</v>
       </c>
       <c r="G76" t="n">
-        <v>7.752499999999995</v>
+        <v>7.754499999999995</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>7.71</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3138,30 +3076,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="C77" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="D77" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="E77" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="F77" t="n">
-        <v>2186.0103</v>
+        <v>57485.2396</v>
       </c>
       <c r="G77" t="n">
-        <v>7.752333333333328</v>
+        <v>7.752499999999995</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3189,18 +3129,20 @@
         <v>7.72</v>
       </c>
       <c r="F78" t="n">
-        <v>491.8523</v>
+        <v>2186.0103</v>
       </c>
       <c r="G78" t="n">
-        <v>7.750499999999996</v>
+        <v>7.752333333333328</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7.7</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3216,30 +3158,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="C79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="D79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="E79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>491.8523</v>
       </c>
       <c r="G79" t="n">
-        <v>7.748166666666663</v>
+        <v>7.750499999999996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7.72</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3255,22 +3199,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="C80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="D80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="E80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="F80" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G80" t="n">
-        <v>7.74633333333333</v>
+        <v>7.748166666666663</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3294,22 +3238,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="C81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="D81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="E81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="F81" t="n">
-        <v>10290</v>
+        <v>25</v>
       </c>
       <c r="G81" t="n">
-        <v>7.744166666666663</v>
+        <v>7.74633333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3345,10 +3289,10 @@
         <v>7.7</v>
       </c>
       <c r="F82" t="n">
-        <v>10300</v>
+        <v>10290</v>
       </c>
       <c r="G82" t="n">
-        <v>7.741999999999996</v>
+        <v>7.744166666666663</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3372,22 +3316,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="C83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="D83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="E83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="F83" t="n">
-        <v>32455.3785</v>
+        <v>10300</v>
       </c>
       <c r="G83" t="n">
-        <v>7.740166666666664</v>
+        <v>7.741999999999996</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3411,22 +3355,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="C84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="D84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="E84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="F84" t="n">
-        <v>5000</v>
+        <v>32455.3785</v>
       </c>
       <c r="G84" t="n">
-        <v>7.736166666666664</v>
+        <v>7.740166666666664</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3450,22 +3394,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="C85" t="n">
-        <v>7.69</v>
+        <v>7.73</v>
       </c>
       <c r="D85" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="E85" t="n">
-        <v>7.69</v>
+        <v>7.73</v>
       </c>
       <c r="F85" t="n">
-        <v>74999.9999</v>
+        <v>5000</v>
       </c>
       <c r="G85" t="n">
-        <v>7.734499999999997</v>
+        <v>7.736166666666664</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3489,22 +3433,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C86" t="n">
-        <v>7.6</v>
+        <v>7.69</v>
       </c>
       <c r="D86" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="E86" t="n">
-        <v>7.6</v>
+        <v>7.69</v>
       </c>
       <c r="F86" t="n">
-        <v>27.8507</v>
+        <v>74999.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>7.72833333333333</v>
+        <v>7.734499999999997</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3540,10 +3484,10 @@
         <v>7.6</v>
       </c>
       <c r="F87" t="n">
-        <v>30</v>
+        <v>27.8507</v>
       </c>
       <c r="G87" t="n">
-        <v>7.722166666666664</v>
+        <v>7.72833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3567,22 +3511,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="C88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="D88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="E88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="F88" t="n">
-        <v>1255.6375</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
-        <v>7.719666666666664</v>
+        <v>7.722166666666664</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3609,19 +3553,19 @@
         <v>7.73</v>
       </c>
       <c r="C89" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="D89" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="E89" t="n">
         <v>7.73</v>
       </c>
       <c r="F89" t="n">
-        <v>102418.8381</v>
+        <v>1255.6375</v>
       </c>
       <c r="G89" t="n">
-        <v>7.717499999999998</v>
+        <v>7.719666666666664</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3645,22 +3589,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="C90" t="n">
-        <v>7.81</v>
+        <v>7.82</v>
       </c>
       <c r="D90" t="n">
-        <v>7.84</v>
+        <v>7.82</v>
       </c>
       <c r="E90" t="n">
-        <v>7.81</v>
+        <v>7.73</v>
       </c>
       <c r="F90" t="n">
-        <v>73547.3014</v>
+        <v>102418.8381</v>
       </c>
       <c r="G90" t="n">
-        <v>7.715999999999998</v>
+        <v>7.717499999999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3684,22 +3628,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="C91" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="D91" t="n">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="E91" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="F91" t="n">
-        <v>55011.3103</v>
+        <v>73547.3014</v>
       </c>
       <c r="G91" t="n">
-        <v>7.714166666666665</v>
+        <v>7.715999999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3723,22 +3667,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.82</v>
+        <v>7.8</v>
       </c>
       <c r="C92" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="D92" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="E92" t="n">
-        <v>7.82</v>
+        <v>7.8</v>
       </c>
       <c r="F92" t="n">
-        <v>3000</v>
+        <v>55011.3103</v>
       </c>
       <c r="G92" t="n">
-        <v>7.712999999999997</v>
+        <v>7.714166666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3762,22 +3706,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C93" t="n">
         <v>7.83</v>
       </c>
-      <c r="C93" t="n">
-        <v>7.85</v>
-      </c>
       <c r="D93" t="n">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="E93" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="F93" t="n">
-        <v>125643.2072</v>
+        <v>3000</v>
       </c>
       <c r="G93" t="n">
-        <v>7.711999999999998</v>
+        <v>7.712999999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3801,22 +3745,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.88</v>
+        <v>7.83</v>
       </c>
       <c r="C94" t="n">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="D94" t="n">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="E94" t="n">
-        <v>7.88</v>
+        <v>7.83</v>
       </c>
       <c r="F94" t="n">
-        <v>55055</v>
+        <v>125643.2072</v>
       </c>
       <c r="G94" t="n">
-        <v>7.713333333333332</v>
+        <v>7.711999999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3840,22 +3784,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.82</v>
+        <v>7.88</v>
       </c>
       <c r="C95" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="D95" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="E95" t="n">
-        <v>7.82</v>
+        <v>7.88</v>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>55055</v>
       </c>
       <c r="G95" t="n">
-        <v>7.712999999999998</v>
+        <v>7.713333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3882,19 +3826,19 @@
         <v>7.82</v>
       </c>
       <c r="C96" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="D96" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="E96" t="n">
         <v>7.82</v>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>7.714166666666666</v>
+        <v>7.712999999999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3918,7 +3862,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="C97" t="n">
         <v>7.91</v>
@@ -3927,13 +3871,13 @@
         <v>7.91</v>
       </c>
       <c r="E97" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="F97" t="n">
-        <v>8457.0733</v>
+        <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>7.715333333333334</v>
+        <v>7.714166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3969,10 +3913,10 @@
         <v>7.91</v>
       </c>
       <c r="F98" t="n">
-        <v>14461.5929</v>
+        <v>8457.0733</v>
       </c>
       <c r="G98" t="n">
-        <v>7.718666666666667</v>
+        <v>7.715333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4008,10 +3952,10 @@
         <v>7.91</v>
       </c>
       <c r="F99" t="n">
-        <v>7768.1415</v>
+        <v>14461.5929</v>
       </c>
       <c r="G99" t="n">
-        <v>7.721833333333334</v>
+        <v>7.718666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4035,22 +3979,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F100" t="n">
-        <v>3485.7025</v>
+        <v>7768.1415</v>
       </c>
       <c r="G100" t="n">
-        <v>7.725000000000001</v>
+        <v>7.721833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4074,22 +4018,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="C101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="D101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="E101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="F101" t="n">
-        <v>55000</v>
+        <v>3485.7025</v>
       </c>
       <c r="G101" t="n">
-        <v>7.727500000000001</v>
+        <v>7.725000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4113,22 +4057,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.89</v>
+        <v>7.84</v>
       </c>
       <c r="C102" t="n">
-        <v>7.9</v>
+        <v>7.84</v>
       </c>
       <c r="D102" t="n">
-        <v>7.9</v>
+        <v>7.84</v>
       </c>
       <c r="E102" t="n">
-        <v>7.89</v>
+        <v>7.84</v>
       </c>
       <c r="F102" t="n">
-        <v>58597.7977</v>
+        <v>55000</v>
       </c>
       <c r="G102" t="n">
-        <v>7.730833333333334</v>
+        <v>7.727500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4152,7 +4096,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="C103" t="n">
         <v>7.9</v>
@@ -4161,13 +4105,13 @@
         <v>7.9</v>
       </c>
       <c r="E103" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="F103" t="n">
-        <v>18213.4562</v>
+        <v>58597.7977</v>
       </c>
       <c r="G103" t="n">
-        <v>7.734333333333334</v>
+        <v>7.730833333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4203,10 +4147,10 @@
         <v>7.9</v>
       </c>
       <c r="F104" t="n">
-        <v>182943.6007</v>
+        <v>18213.4562</v>
       </c>
       <c r="G104" t="n">
-        <v>7.738666666666666</v>
+        <v>7.734333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4230,22 +4174,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="C105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="D105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="E105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="F105" t="n">
-        <v>1784.8214</v>
+        <v>182943.6007</v>
       </c>
       <c r="G105" t="n">
-        <v>7.743</v>
+        <v>7.738666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4281,10 +4225,10 @@
         <v>7.91</v>
       </c>
       <c r="F106" t="n">
-        <v>40782.736</v>
+        <v>1784.8214</v>
       </c>
       <c r="G106" t="n">
-        <v>7.747500000000001</v>
+        <v>7.743</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4311,19 +4255,19 @@
         <v>7.91</v>
       </c>
       <c r="C107" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="D107" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="E107" t="n">
         <v>7.91</v>
       </c>
       <c r="F107" t="n">
-        <v>558208.3501</v>
+        <v>40782.736</v>
       </c>
       <c r="G107" t="n">
-        <v>7.752000000000002</v>
+        <v>7.747500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4347,22 +4291,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C108" t="n">
         <v>7.92</v>
       </c>
-      <c r="C108" t="n">
-        <v>8</v>
-      </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>7.92</v>
       </c>
       <c r="E108" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="F108" t="n">
-        <v>53285.4074</v>
+        <v>558208.3501</v>
       </c>
       <c r="G108" t="n">
-        <v>7.757833333333336</v>
+        <v>7.752000000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4386,22 +4330,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C109" t="n">
         <v>8</v>
       </c>
-      <c r="C109" t="n">
-        <v>8.1</v>
-      </c>
       <c r="D109" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>7.92</v>
       </c>
       <c r="F109" t="n">
-        <v>48668.65</v>
+        <v>53285.4074</v>
       </c>
       <c r="G109" t="n">
-        <v>7.765000000000002</v>
+        <v>7.757833333333336</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4425,22 +4369,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="D110" t="n">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="E110" t="n">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>7457.813</v>
+        <v>48668.65</v>
       </c>
       <c r="G110" t="n">
-        <v>7.771000000000003</v>
+        <v>7.765000000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4464,22 +4408,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.08</v>
+        <v>8.06</v>
       </c>
       <c r="C111" t="n">
-        <v>8.1</v>
+        <v>8.06</v>
       </c>
       <c r="D111" t="n">
-        <v>8.1</v>
+        <v>8.06</v>
       </c>
       <c r="E111" t="n">
-        <v>8.08</v>
+        <v>8.06</v>
       </c>
       <c r="F111" t="n">
-        <v>370748.7468</v>
+        <v>7457.813</v>
       </c>
       <c r="G111" t="n">
-        <v>7.778333333333336</v>
+        <v>7.771000000000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4503,7 +4447,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="C112" t="n">
         <v>8.1</v>
@@ -4512,13 +4456,13 @@
         <v>8.1</v>
       </c>
       <c r="E112" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="F112" t="n">
-        <v>64303.4505</v>
+        <v>370748.7468</v>
       </c>
       <c r="G112" t="n">
-        <v>7.784500000000003</v>
+        <v>7.778333333333336</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4542,22 +4486,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="E113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="F113" t="n">
-        <v>125.3241</v>
+        <v>64303.4505</v>
       </c>
       <c r="G113" t="n">
-        <v>7.791166666666669</v>
+        <v>7.784500000000003</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4581,22 +4525,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.07</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>8.06</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>8.07</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>8.06</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>57103.3402</v>
+        <v>125.3241</v>
       </c>
       <c r="G114" t="n">
-        <v>7.797166666666669</v>
+        <v>7.791166666666669</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4620,22 +4564,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C115" t="n">
         <v>8.06</v>
       </c>
-      <c r="C115" t="n">
-        <v>8.109999999999999</v>
-      </c>
       <c r="D115" t="n">
-        <v>8.109999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="E115" t="n">
-        <v>7.93</v>
+        <v>8.06</v>
       </c>
       <c r="F115" t="n">
-        <v>11120.8134</v>
+        <v>57103.3402</v>
       </c>
       <c r="G115" t="n">
-        <v>7.803833333333336</v>
+        <v>7.797166666666669</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4659,22 +4603,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.039999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="C116" t="n">
-        <v>8.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>8.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>8.039999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F116" t="n">
-        <v>183287.6665</v>
+        <v>11120.8134</v>
       </c>
       <c r="G116" t="n">
-        <v>7.810333333333337</v>
+        <v>7.803833333333336</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4698,22 +4642,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="D117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="E117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>5255.324</v>
+        <v>183287.6665</v>
       </c>
       <c r="G117" t="n">
-        <v>7.816166666666671</v>
+        <v>7.810333333333337</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4737,22 +4681,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>5255.324</v>
       </c>
       <c r="G118" t="n">
-        <v>7.822500000000004</v>
+        <v>7.816166666666671</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4776,22 +4720,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.01</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>8.01</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>61409.9435</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="n">
-        <v>7.826500000000005</v>
+        <v>7.822500000000004</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4815,22 +4759,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.83</v>
+        <v>8.01</v>
       </c>
       <c r="C120" t="n">
-        <v>7.77</v>
+        <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>7.83</v>
+        <v>8.01</v>
       </c>
       <c r="E120" t="n">
-        <v>7.77</v>
+        <v>8</v>
       </c>
       <c r="F120" t="n">
-        <v>7000</v>
+        <v>61409.9435</v>
       </c>
       <c r="G120" t="n">
-        <v>7.827000000000004</v>
+        <v>7.826500000000005</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4854,22 +4798,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.95</v>
+        <v>7.83</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>7.77</v>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>7.83</v>
       </c>
       <c r="E121" t="n">
-        <v>7.95</v>
+        <v>7.77</v>
       </c>
       <c r="F121" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G121" t="n">
-        <v>7.831500000000004</v>
+        <v>7.827000000000004</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4893,22 +4837,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.029999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="C122" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="E122" t="n">
-        <v>8.029999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="F122" t="n">
-        <v>307910.2543</v>
+        <v>3000</v>
       </c>
       <c r="G122" t="n">
-        <v>7.838000000000005</v>
+        <v>7.831500000000004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4932,22 +4876,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>6536.052</v>
+        <v>307910.2543</v>
       </c>
       <c r="G123" t="n">
-        <v>7.844000000000005</v>
+        <v>7.838000000000005</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4971,22 +4915,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="E124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>6536.052</v>
       </c>
       <c r="G124" t="n">
-        <v>7.848666666666672</v>
+        <v>7.844000000000005</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5022,10 +4966,10 @@
         <v>7.99</v>
       </c>
       <c r="F125" t="n">
-        <v>1799.1358</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="n">
-        <v>7.853333333333339</v>
+        <v>7.848666666666672</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5049,22 +4993,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="D126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="E126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="F126" t="n">
-        <v>53201.4039</v>
+        <v>1799.1358</v>
       </c>
       <c r="G126" t="n">
-        <v>7.858166666666673</v>
+        <v>7.853333333333339</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5088,22 +5032,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>2736</v>
+        <v>53201.4039</v>
       </c>
       <c r="G127" t="n">
-        <v>7.863500000000005</v>
+        <v>7.858166666666673</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5130,19 +5074,19 @@
         <v>7.99</v>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="E128" t="n">
         <v>7.99</v>
       </c>
       <c r="F128" t="n">
-        <v>59375.0001</v>
+        <v>2736</v>
       </c>
       <c r="G128" t="n">
-        <v>7.868833333333339</v>
+        <v>7.863500000000005</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5166,7 +5110,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C129" t="n">
         <v>8</v>
@@ -5175,13 +5119,13 @@
         <v>8</v>
       </c>
       <c r="E129" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="F129" t="n">
-        <v>108167.465</v>
+        <v>59375.0001</v>
       </c>
       <c r="G129" t="n">
-        <v>7.874333333333339</v>
+        <v>7.868833333333339</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5205,22 +5149,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="E130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>2000</v>
+        <v>108167.465</v>
       </c>
       <c r="G130" t="n">
-        <v>7.881166666666672</v>
+        <v>7.874333333333339</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5244,22 +5188,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="C131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="D131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="E131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="F131" t="n">
-        <v>14962.5</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="n">
-        <v>7.889333333333338</v>
+        <v>7.881166666666672</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5283,22 +5227,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>22925.6513</v>
+        <v>14962.5</v>
       </c>
       <c r="G132" t="n">
-        <v>7.897833333333338</v>
+        <v>7.889333333333338</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5322,22 +5266,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.17</v>
+        <v>8.15</v>
       </c>
       <c r="C133" t="n">
-        <v>8.18</v>
+        <v>8.15</v>
       </c>
       <c r="D133" t="n">
-        <v>8.18</v>
+        <v>8.15</v>
       </c>
       <c r="E133" t="n">
-        <v>8.17</v>
+        <v>8.15</v>
       </c>
       <c r="F133" t="n">
-        <v>37281.7876</v>
+        <v>22925.6513</v>
       </c>
       <c r="G133" t="n">
-        <v>7.907666666666672</v>
+        <v>7.897833333333338</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5361,22 +5305,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C134" t="n">
         <v>8.18</v>
       </c>
-      <c r="C134" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="D134" t="n">
-        <v>8.199999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="E134" t="n">
-        <v>8.18</v>
+        <v>8.17</v>
       </c>
       <c r="F134" t="n">
-        <v>488150</v>
+        <v>37281.7876</v>
       </c>
       <c r="G134" t="n">
-        <v>7.915833333333339</v>
+        <v>7.907666666666672</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5400,22 +5344,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8.140000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="C135" t="n">
-        <v>8.279999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>8.279999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>8.140000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="F135" t="n">
-        <v>458879.2328</v>
+        <v>488150</v>
       </c>
       <c r="G135" t="n">
-        <v>7.925833333333339</v>
+        <v>7.915833333333339</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5439,22 +5383,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C136" t="n">
         <v>8.279999999999999</v>
       </c>
-      <c r="C136" t="n">
-        <v>8.31</v>
-      </c>
       <c r="D136" t="n">
-        <v>8.31</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>8.279999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>9520</v>
+        <v>458879.2328</v>
       </c>
       <c r="G136" t="n">
-        <v>7.936000000000005</v>
+        <v>7.925833333333339</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5478,22 +5422,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C137" t="n">
         <v>8.31</v>
       </c>
-      <c r="C137" t="n">
-        <v>8.43</v>
-      </c>
       <c r="D137" t="n">
-        <v>8.43</v>
+        <v>8.31</v>
       </c>
       <c r="E137" t="n">
-        <v>8.31</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>3051.7598</v>
+        <v>9520</v>
       </c>
       <c r="G137" t="n">
-        <v>7.947833333333338</v>
+        <v>7.936000000000005</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5517,39 +5461,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.4</v>
+        <v>8.31</v>
       </c>
       <c r="C138" t="n">
-        <v>8.4</v>
+        <v>8.43</v>
       </c>
       <c r="D138" t="n">
-        <v>8.4</v>
+        <v>8.43</v>
       </c>
       <c r="E138" t="n">
-        <v>8.4</v>
+        <v>8.31</v>
       </c>
       <c r="F138" t="n">
-        <v>99.2402</v>
+        <v>3051.7598</v>
       </c>
       <c r="G138" t="n">
-        <v>7.959166666666671</v>
+        <v>7.947833333333338</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5568,10 +5510,10 @@
         <v>8.4</v>
       </c>
       <c r="F139" t="n">
-        <v>16075.7142</v>
+        <v>99.2402</v>
       </c>
       <c r="G139" t="n">
-        <v>7.971166666666671</v>
+        <v>7.959166666666671</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5581,12 +5523,10 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5605,10 +5545,10 @@
         <v>8.4</v>
       </c>
       <c r="F140" t="n">
-        <v>4405.2178</v>
+        <v>16075.7142</v>
       </c>
       <c r="G140" t="n">
-        <v>7.982500000000003</v>
+        <v>7.971166666666671</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5628,22 +5568,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="C141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="D141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="E141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>4405.2178</v>
       </c>
       <c r="G141" t="n">
-        <v>7.994500000000003</v>
+        <v>7.982500000000003</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5663,28 +5603,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="C142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="D142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="E142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="F142" t="n">
-        <v>1111</v>
+        <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>8.005833333333337</v>
+        <v>7.994500000000003</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5698,28 +5638,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.359999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>8.359999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>25091.4292</v>
+        <v>1111</v>
       </c>
       <c r="G143" t="n">
-        <v>8.01716666666667</v>
+        <v>8.005833333333337</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5736,25 +5676,25 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>8.35</v>
+        <v>8.4</v>
       </c>
       <c r="D144" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E144" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="E144" t="n">
-        <v>8.35</v>
-      </c>
       <c r="F144" t="n">
-        <v>7128.9592</v>
+        <v>25091.4292</v>
       </c>
       <c r="G144" t="n">
-        <v>8.027500000000002</v>
+        <v>8.01716666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5768,28 +5708,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.42</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>8.42</v>
+        <v>8.35</v>
       </c>
       <c r="D145" t="n">
-        <v>8.42</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>8.42</v>
+        <v>8.35</v>
       </c>
       <c r="F145" t="n">
-        <v>11</v>
+        <v>7128.9592</v>
       </c>
       <c r="G145" t="n">
-        <v>8.039666666666669</v>
+        <v>8.027500000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5803,22 +5743,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="C146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="D146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="E146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="F146" t="n">
-        <v>6975.3277</v>
+        <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>8.052833333333336</v>
+        <v>8.039666666666669</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5838,22 +5778,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>11</v>
+        <v>6975.3277</v>
       </c>
       <c r="G147" t="n">
-        <v>8.066500000000001</v>
+        <v>8.052833333333336</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5873,22 +5813,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="C148" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="D148" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="E148" t="n">
-        <v>8.300000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="F148" t="n">
-        <v>601</v>
+        <v>11</v>
       </c>
       <c r="G148" t="n">
-        <v>8.076833333333335</v>
+        <v>8.066500000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5908,22 +5848,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.34</v>
+        <v>8.35</v>
       </c>
       <c r="C149" t="n">
-        <v>8.34</v>
+        <v>8.35</v>
       </c>
       <c r="D149" t="n">
-        <v>8.34</v>
+        <v>8.35</v>
       </c>
       <c r="E149" t="n">
-        <v>8.34</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>11</v>
+        <v>601</v>
       </c>
       <c r="G149" t="n">
-        <v>8.085500000000001</v>
+        <v>8.076833333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5955,10 +5895,10 @@
         <v>8.34</v>
       </c>
       <c r="F150" t="n">
-        <v>56500.1199</v>
+        <v>11</v>
       </c>
       <c r="G150" t="n">
-        <v>8.094333333333335</v>
+        <v>8.085500000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5978,22 +5918,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="C151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="D151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="E151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="F151" t="n">
-        <v>11</v>
+        <v>56500.1199</v>
       </c>
       <c r="G151" t="n">
-        <v>8.103500000000002</v>
+        <v>8.094333333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6025,10 +5965,10 @@
         <v>8.35</v>
       </c>
       <c r="F152" t="n">
-        <v>8811.137699999999</v>
+        <v>11</v>
       </c>
       <c r="G152" t="n">
-        <v>8.112166666666669</v>
+        <v>8.103500000000002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6048,22 +5988,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="C153" t="n">
-        <v>8.23</v>
+        <v>8.35</v>
       </c>
       <c r="D153" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="E153" t="n">
-        <v>8.23</v>
+        <v>8.35</v>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>8811.137699999999</v>
       </c>
       <c r="G153" t="n">
-        <v>8.118500000000003</v>
+        <v>8.112166666666669</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6083,22 +6023,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="C154" t="n">
         <v>8.23</v>
       </c>
       <c r="D154" t="n">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="E154" t="n">
         <v>8.23</v>
       </c>
       <c r="F154" t="n">
-        <v>94.48399999999999</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>8.123666666666669</v>
+        <v>8.118500000000003</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6113,6 +6053,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="C155" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="F155" t="n">
+        <v>94.48399999999999</v>
+      </c>
+      <c r="G155" t="n">
+        <v>8.123666666666669</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.96</v>
+        <v>7.77</v>
       </c>
       <c r="C2" t="n">
-        <v>7.96</v>
+        <v>7.77</v>
       </c>
       <c r="D2" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="E2" t="n">
-        <v>7.96</v>
+        <v>7.77</v>
       </c>
       <c r="F2" t="n">
-        <v>65988.2985</v>
+        <v>5307.7436</v>
       </c>
       <c r="G2" t="n">
-        <v>1565501.3295</v>
+        <v>2153473.2183</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,273 +467,333 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.96</v>
+        <v>7.78</v>
       </c>
       <c r="C3" t="n">
-        <v>7.96</v>
+        <v>7.78</v>
       </c>
       <c r="D3" t="n">
-        <v>7.96</v>
+        <v>7.78</v>
       </c>
       <c r="E3" t="n">
-        <v>7.96</v>
+        <v>7.78</v>
       </c>
       <c r="F3" t="n">
-        <v>22561.0884</v>
+        <v>2488.9328</v>
       </c>
       <c r="G3" t="n">
-        <v>1565501.3295</v>
+        <v>2155962.1511</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.77</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.88</v>
+        <v>7.82</v>
       </c>
       <c r="C4" t="n">
-        <v>7.88</v>
+        <v>7.82</v>
       </c>
       <c r="D4" t="n">
-        <v>7.88</v>
+        <v>7.82</v>
       </c>
       <c r="E4" t="n">
-        <v>7.88</v>
+        <v>7.82</v>
       </c>
       <c r="F4" t="n">
-        <v>5974.8096</v>
+        <v>1012.2762</v>
       </c>
       <c r="G4" t="n">
-        <v>1559526.5199</v>
+        <v>2156974.427300001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.88</v>
+        <v>7.75</v>
       </c>
       <c r="C5" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="D5" t="n">
-        <v>7.89</v>
+        <v>7.75</v>
       </c>
       <c r="E5" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="F5" t="n">
-        <v>750441.8758</v>
+        <v>95300.7549</v>
       </c>
       <c r="G5" t="n">
-        <v>1559526.5199</v>
+        <v>2061673.672400001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.9</v>
+        <v>7.83</v>
       </c>
       <c r="C6" t="n">
-        <v>7.99</v>
+        <v>7.83</v>
       </c>
       <c r="D6" t="n">
-        <v>8.029999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="E6" t="n">
-        <v>7.89</v>
+        <v>7.83</v>
       </c>
       <c r="F6" t="n">
-        <v>79878.77860000001</v>
+        <v>88798.89539999999</v>
       </c>
       <c r="G6" t="n">
-        <v>1639405.2985</v>
+        <v>2150472.5678</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.99</v>
+        <v>7.82</v>
       </c>
       <c r="C7" t="n">
-        <v>8.09</v>
+        <v>7.82</v>
       </c>
       <c r="D7" t="n">
-        <v>8.1</v>
+        <v>7.82</v>
       </c>
       <c r="E7" t="n">
-        <v>7.99</v>
+        <v>7.82</v>
       </c>
       <c r="F7" t="n">
-        <v>275630.969</v>
+        <v>4052.6122</v>
       </c>
       <c r="G7" t="n">
-        <v>1915036.267500001</v>
+        <v>2146419.9556</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.09</v>
+        <v>7.83</v>
       </c>
       <c r="C8" t="n">
-        <v>7.94</v>
+        <v>7.83</v>
       </c>
       <c r="D8" t="n">
-        <v>8.09</v>
+        <v>7.83</v>
       </c>
       <c r="E8" t="n">
-        <v>7.94</v>
+        <v>7.83</v>
       </c>
       <c r="F8" t="n">
-        <v>54939.443</v>
+        <v>14020577.6476</v>
       </c>
       <c r="G8" t="n">
-        <v>1860096.824500001</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.06</v>
+        <v>7.83</v>
       </c>
       <c r="C9" t="n">
-        <v>8.07</v>
+        <v>7.83</v>
       </c>
       <c r="D9" t="n">
-        <v>8.07</v>
+        <v>7.83</v>
       </c>
       <c r="E9" t="n">
-        <v>8.050000000000001</v>
+        <v>7.83</v>
       </c>
       <c r="F9" t="n">
-        <v>155785.0068</v>
+        <v>24512798.0064</v>
       </c>
       <c r="G9" t="n">
-        <v>2015881.831300001</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.050000000000001</v>
+        <v>7.83</v>
       </c>
       <c r="C10" t="n">
-        <v>7.87</v>
+        <v>7.83</v>
       </c>
       <c r="D10" t="n">
-        <v>8.07</v>
+        <v>7.83</v>
       </c>
       <c r="E10" t="n">
-        <v>7.87</v>
+        <v>7.83</v>
       </c>
       <c r="F10" t="n">
-        <v>62.0001</v>
+        <v>24141391.976</v>
       </c>
       <c r="G10" t="n">
-        <v>2015819.831200001</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,33 +802,40 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.89</v>
+        <v>7.83</v>
       </c>
       <c r="C11" t="n">
-        <v>8.08</v>
+        <v>7.83</v>
       </c>
       <c r="D11" t="n">
-        <v>8.08</v>
+        <v>7.83</v>
       </c>
       <c r="E11" t="n">
-        <v>7.89</v>
+        <v>7.83</v>
       </c>
       <c r="F11" t="n">
-        <v>28294.1396</v>
+        <v>21077292.2252</v>
       </c>
       <c r="G11" t="n">
-        <v>2044113.970800001</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,33 +844,40 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.08</v>
+        <v>7.96</v>
       </c>
       <c r="C12" t="n">
-        <v>8.08</v>
+        <v>7.97</v>
       </c>
       <c r="D12" t="n">
-        <v>8.08</v>
+        <v>7.97</v>
       </c>
       <c r="E12" t="n">
-        <v>8.08</v>
+        <v>7.96</v>
       </c>
       <c r="F12" t="n">
-        <v>21207.4566</v>
+        <v>117321.5809</v>
       </c>
       <c r="G12" t="n">
-        <v>2044113.970800001</v>
+        <v>16284319.1841</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,33 +886,40 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.07</v>
+        <v>7.97</v>
       </c>
       <c r="C13" t="n">
-        <v>8.07</v>
+        <v>7.79</v>
       </c>
       <c r="D13" t="n">
-        <v>8.07</v>
+        <v>7.97</v>
       </c>
       <c r="E13" t="n">
-        <v>8.07</v>
+        <v>7.79</v>
       </c>
       <c r="F13" t="n">
-        <v>15925.3097</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>2028188.661100001</v>
+        <v>16284299.1841</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,33 +928,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.07</v>
+        <v>7.97</v>
       </c>
       <c r="C14" t="n">
-        <v>8.08</v>
+        <v>7.97</v>
       </c>
       <c r="D14" t="n">
-        <v>8.08</v>
+        <v>7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>8.07</v>
+        <v>7.97</v>
       </c>
       <c r="F14" t="n">
-        <v>261637.8712</v>
+        <v>31536.6687</v>
       </c>
       <c r="G14" t="n">
-        <v>2289826.532300001</v>
+        <v>16315835.8528</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +970,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.06</v>
+        <v>7.97</v>
       </c>
       <c r="C15" t="n">
-        <v>7.9</v>
+        <v>7.97</v>
       </c>
       <c r="D15" t="n">
-        <v>8.06</v>
+        <v>7.97</v>
       </c>
       <c r="E15" t="n">
-        <v>7.9</v>
+        <v>7.97</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>32875.9096</v>
       </c>
       <c r="G15" t="n">
-        <v>2289806.532300001</v>
+        <v>16315835.8528</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +1012,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.06</v>
+        <v>7.88</v>
       </c>
       <c r="C16" t="n">
-        <v>8.06</v>
+        <v>7.88</v>
       </c>
       <c r="D16" t="n">
-        <v>8.06</v>
+        <v>7.88</v>
       </c>
       <c r="E16" t="n">
-        <v>8.06</v>
+        <v>7.88</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>117321.5809</v>
       </c>
       <c r="G16" t="n">
-        <v>2289816.532300001</v>
+        <v>16198514.2719</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1054,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.06</v>
+        <v>7.95</v>
       </c>
       <c r="C17" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="D17" t="n">
-        <v>8.06</v>
+        <v>7.95</v>
       </c>
       <c r="E17" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>2515.723270440252</v>
       </c>
       <c r="G17" t="n">
-        <v>2289796.532300001</v>
+        <v>16201029.99517044</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,11 +1096,18 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1005,10 +1126,10 @@
         <v>7.9</v>
       </c>
       <c r="F18" t="n">
-        <v>12629.3439</v>
+        <v>29625.2516</v>
       </c>
       <c r="G18" t="n">
-        <v>2289796.532300001</v>
+        <v>16171404.74357044</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1138,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="C19" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="D19" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="E19" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="F19" t="n">
-        <v>10420.9316</v>
+        <v>5724.3427</v>
       </c>
       <c r="G19" t="n">
-        <v>2300217.4639</v>
+        <v>16177129.08627044</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1180,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.87</v>
+        <v>7.9</v>
       </c>
       <c r="C20" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="D20" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="E20" t="n">
-        <v>7.87</v>
+        <v>7.9</v>
       </c>
       <c r="F20" t="n">
-        <v>10745.9499</v>
+        <v>142768.5458</v>
       </c>
       <c r="G20" t="n">
-        <v>2300217.4639</v>
+        <v>16034360.54047044</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1222,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="C21" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="D21" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="E21" t="n">
-        <v>8.050000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="F21" t="n">
-        <v>4454.944</v>
+        <v>11409.3552</v>
       </c>
       <c r="G21" t="n">
-        <v>2300217.4639</v>
+        <v>16045769.89567044</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1264,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="C22" t="n">
-        <v>7.87</v>
+        <v>7.84</v>
       </c>
       <c r="D22" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="E22" t="n">
-        <v>7.87</v>
+        <v>7.84</v>
       </c>
       <c r="F22" t="n">
-        <v>42816.0901</v>
+        <v>189318.8775</v>
       </c>
       <c r="G22" t="n">
-        <v>2257401.3738</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1306,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="C23" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="D23" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="E23" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="F23" t="n">
-        <v>59803.6869</v>
+        <v>65920.1201</v>
       </c>
       <c r="G23" t="n">
-        <v>2317205.0607</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1348,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="C24" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="D24" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="E24" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="F24" t="n">
-        <v>20242.5503</v>
+        <v>4190.1572</v>
       </c>
       <c r="G24" t="n">
-        <v>2296962.5104</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1390,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.88</v>
+        <v>7.85</v>
       </c>
       <c r="C25" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="D25" t="n">
-        <v>7.88</v>
+        <v>7.85</v>
       </c>
       <c r="E25" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="F25" t="n">
-        <v>10197.8371</v>
+        <v>7393.9784</v>
       </c>
       <c r="G25" t="n">
-        <v>2296962.5104</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1432,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="C26" t="n">
-        <v>7.88</v>
+        <v>7.71</v>
       </c>
       <c r="D26" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="E26" t="n">
-        <v>7.88</v>
+        <v>7.71</v>
       </c>
       <c r="F26" t="n">
-        <v>1468.9672</v>
+        <v>20578.6106</v>
       </c>
       <c r="G26" t="n">
-        <v>2296962.5104</v>
+        <v>15835872.40757044</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1474,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.99</v>
+        <v>7.72</v>
       </c>
       <c r="C27" t="n">
-        <v>7.99</v>
+        <v>7.72</v>
       </c>
       <c r="D27" t="n">
-        <v>7.99</v>
+        <v>7.72</v>
       </c>
       <c r="E27" t="n">
-        <v>7.99</v>
+        <v>7.72</v>
       </c>
       <c r="F27" t="n">
-        <v>9393.3477</v>
+        <v>2728.5995</v>
       </c>
       <c r="G27" t="n">
-        <v>2306355.8581</v>
+        <v>15838601.00707044</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1516,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="C28" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="D28" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="E28" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="F28" t="n">
-        <v>974.1426</v>
+        <v>2728.5995</v>
       </c>
       <c r="G28" t="n">
-        <v>2306355.8581</v>
+        <v>15835872.40757044</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1558,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.98</v>
+        <v>7.71</v>
       </c>
       <c r="C29" t="n">
-        <v>7.98</v>
+        <v>7.69</v>
       </c>
       <c r="D29" t="n">
-        <v>7.98</v>
+        <v>7.71</v>
       </c>
       <c r="E29" t="n">
-        <v>7.98</v>
+        <v>7.69</v>
       </c>
       <c r="F29" t="n">
-        <v>2852.9259</v>
+        <v>171899.8623</v>
       </c>
       <c r="G29" t="n">
-        <v>2303502.9322</v>
+        <v>15663972.54527044</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1600,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.98</v>
+        <v>7.7</v>
       </c>
       <c r="C30" t="n">
-        <v>7.98</v>
+        <v>7.7</v>
       </c>
       <c r="D30" t="n">
-        <v>7.98</v>
+        <v>7.7</v>
       </c>
       <c r="E30" t="n">
-        <v>7.98</v>
+        <v>7.7</v>
       </c>
       <c r="F30" t="n">
-        <v>786.817</v>
+        <v>73334.2856</v>
       </c>
       <c r="G30" t="n">
-        <v>2303502.9322</v>
+        <v>15737306.83087044</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1642,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.98</v>
+        <v>7.69</v>
       </c>
       <c r="C31" t="n">
-        <v>7.98</v>
+        <v>7.69</v>
       </c>
       <c r="D31" t="n">
-        <v>7.98</v>
+        <v>7.69</v>
       </c>
       <c r="E31" t="n">
-        <v>7.98</v>
+        <v>7.69</v>
       </c>
       <c r="F31" t="n">
-        <v>40861.2907</v>
+        <v>35898.2272</v>
       </c>
       <c r="G31" t="n">
-        <v>2303502.9322</v>
+        <v>15701408.60367044</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1684,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.97</v>
+        <v>7.65</v>
       </c>
       <c r="C32" t="n">
-        <v>7.98</v>
+        <v>7.64</v>
       </c>
       <c r="D32" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="E32" t="n">
-        <v>7.97</v>
+        <v>7.64</v>
       </c>
       <c r="F32" t="n">
-        <v>2605.9088</v>
+        <v>163184.8129</v>
       </c>
       <c r="G32" t="n">
-        <v>2303502.9322</v>
+        <v>15538223.79077045</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1726,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="C33" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="D33" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="E33" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="F33" t="n">
-        <v>2543.8596</v>
+        <v>28916.5262</v>
       </c>
       <c r="G33" t="n">
-        <v>2303502.9322</v>
+        <v>15567140.31697045</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1768,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="C34" t="n">
-        <v>7.98</v>
+        <v>7.64</v>
       </c>
       <c r="D34" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="E34" t="n">
-        <v>7.98</v>
+        <v>7.64</v>
       </c>
       <c r="F34" t="n">
-        <v>3391.2906</v>
+        <v>16809.811</v>
       </c>
       <c r="G34" t="n">
-        <v>2303502.9322</v>
+        <v>15550330.50597044</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1810,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="C35" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="D35" t="n">
-        <v>7.98</v>
+        <v>7.66</v>
       </c>
       <c r="E35" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="F35" t="n">
-        <v>279.1353</v>
+        <v>411306.6717</v>
       </c>
       <c r="G35" t="n">
-        <v>2303502.9322</v>
+        <v>15961637.17767045</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1852,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.98</v>
+        <v>7.66</v>
       </c>
       <c r="C36" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="D36" t="n">
-        <v>7.98</v>
+        <v>7.66</v>
       </c>
       <c r="E36" t="n">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="F36" t="n">
-        <v>1481.3283</v>
+        <v>58624.5401</v>
       </c>
       <c r="G36" t="n">
-        <v>2303502.9322</v>
+        <v>15961637.17767045</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1894,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.98</v>
+        <v>7.67</v>
       </c>
       <c r="C37" t="n">
-        <v>7.98</v>
+        <v>7.67</v>
       </c>
       <c r="D37" t="n">
-        <v>7.98</v>
+        <v>7.67</v>
       </c>
       <c r="E37" t="n">
-        <v>7.98</v>
+        <v>7.67</v>
       </c>
       <c r="F37" t="n">
-        <v>1713.1641</v>
+        <v>8857.8878</v>
       </c>
       <c r="G37" t="n">
-        <v>2303502.9322</v>
+        <v>15970495.06547045</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,170 +1936,176 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.98</v>
+        <v>7.67</v>
       </c>
       <c r="C38" t="n">
-        <v>7.98</v>
+        <v>7.7</v>
       </c>
       <c r="D38" t="n">
-        <v>7.98</v>
+        <v>7.7</v>
       </c>
       <c r="E38" t="n">
-        <v>7.98</v>
+        <v>7.67</v>
       </c>
       <c r="F38" t="n">
-        <v>790.6891000000001</v>
+        <v>275858.5796</v>
       </c>
       <c r="G38" t="n">
-        <v>2303502.9322</v>
+        <v>16246353.64507045</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>7.98</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
+        <v>7.77</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.98</v>
+        <v>7.66</v>
       </c>
       <c r="C39" t="n">
-        <v>7.98</v>
+        <v>7.66</v>
       </c>
       <c r="D39" t="n">
-        <v>7.98</v>
+        <v>7.66</v>
       </c>
       <c r="E39" t="n">
-        <v>7.98</v>
+        <v>7.66</v>
       </c>
       <c r="F39" t="n">
-        <v>749.9373000000001</v>
+        <v>10.012</v>
       </c>
       <c r="G39" t="n">
-        <v>2303502.9322</v>
+        <v>16246343.63307045</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>7.98</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.86</v>
+        <v>7.73</v>
       </c>
       <c r="C40" t="n">
-        <v>7.85</v>
+        <v>7.73</v>
       </c>
       <c r="D40" t="n">
-        <v>7.86</v>
+        <v>7.73</v>
       </c>
       <c r="E40" t="n">
-        <v>7.85</v>
+        <v>7.73</v>
       </c>
       <c r="F40" t="n">
-        <v>9102.0537</v>
+        <v>45</v>
       </c>
       <c r="G40" t="n">
-        <v>2294400.8785</v>
+        <v>16246388.63307045</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>7.98</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.85</v>
+        <v>7.73</v>
       </c>
       <c r="C41" t="n">
-        <v>7.8</v>
+        <v>7.73</v>
       </c>
       <c r="D41" t="n">
-        <v>7.85</v>
+        <v>7.73</v>
       </c>
       <c r="E41" t="n">
-        <v>7.8</v>
+        <v>7.73</v>
       </c>
       <c r="F41" t="n">
-        <v>2551.2541</v>
+        <v>52764.6287</v>
       </c>
       <c r="G41" t="n">
-        <v>2291849.6244</v>
+        <v>16246388.63307045</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>7.85</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1855,40 +2115,39 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="C42" t="n">
-        <v>7.77</v>
+        <v>7.7</v>
       </c>
       <c r="D42" t="n">
-        <v>7.77</v>
+        <v>7.7</v>
       </c>
       <c r="E42" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="F42" t="n">
-        <v>136357.8041</v>
+        <v>61497.0361</v>
       </c>
       <c r="G42" t="n">
-        <v>2155491.8203</v>
+        <v>16184891.59697045</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1898,40 +2157,39 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.78</v>
+        <v>7.72</v>
       </c>
       <c r="C43" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="D43" t="n">
-        <v>7.78</v>
+        <v>7.72</v>
       </c>
       <c r="E43" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="F43" t="n">
-        <v>3289.1416</v>
+        <v>23929.0047</v>
       </c>
       <c r="G43" t="n">
-        <v>2158780.9619</v>
+        <v>16208820.60167045</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -1941,40 +2199,39 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.77</v>
+        <v>7.71</v>
       </c>
       <c r="C44" t="n">
-        <v>7.77</v>
+        <v>7.71</v>
       </c>
       <c r="D44" t="n">
-        <v>7.77</v>
+        <v>7.71</v>
       </c>
       <c r="E44" t="n">
-        <v>7.77</v>
+        <v>7.71</v>
       </c>
       <c r="F44" t="n">
-        <v>5307.7436</v>
+        <v>37550.9951</v>
       </c>
       <c r="G44" t="n">
-        <v>2153473.2183</v>
+        <v>16208820.60167045</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -1984,40 +2241,39 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="C45" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="D45" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="E45" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F45" t="n">
-        <v>2488.9328</v>
+        <v>1100</v>
       </c>
       <c r="G45" t="n">
-        <v>2155962.1511</v>
+        <v>16209920.60167045</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2027,40 +2283,39 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.82</v>
+        <v>7.76</v>
       </c>
       <c r="C46" t="n">
-        <v>7.82</v>
+        <v>7.76</v>
       </c>
       <c r="D46" t="n">
-        <v>7.82</v>
+        <v>7.76</v>
       </c>
       <c r="E46" t="n">
-        <v>7.82</v>
+        <v>7.76</v>
       </c>
       <c r="F46" t="n">
-        <v>1012.2762</v>
+        <v>1619.5533</v>
       </c>
       <c r="G46" t="n">
-        <v>2156974.427300001</v>
+        <v>16209920.60167045</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2070,40 +2325,39 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="C47" t="n">
-        <v>7.73</v>
+        <v>7.76</v>
       </c>
       <c r="D47" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="E47" t="n">
-        <v>7.73</v>
+        <v>7.76</v>
       </c>
       <c r="F47" t="n">
-        <v>95300.7549</v>
+        <v>18380.4467</v>
       </c>
       <c r="G47" t="n">
-        <v>2061673.672400001</v>
+        <v>16209920.60167045</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>7.82</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2113,40 +2367,39 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.83</v>
+        <v>7.74</v>
       </c>
       <c r="C48" t="n">
-        <v>7.83</v>
+        <v>7.74</v>
       </c>
       <c r="D48" t="n">
-        <v>7.83</v>
+        <v>7.74</v>
       </c>
       <c r="E48" t="n">
-        <v>7.83</v>
+        <v>7.74</v>
       </c>
       <c r="F48" t="n">
-        <v>88798.89539999999</v>
+        <v>40712.375</v>
       </c>
       <c r="G48" t="n">
-        <v>2150472.5678</v>
+        <v>16169208.22667045</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>7.73</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2156,40 +2409,39 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.82</v>
+        <v>7.74</v>
       </c>
       <c r="C49" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="D49" t="n">
-        <v>7.82</v>
+        <v>7.74</v>
       </c>
       <c r="E49" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="F49" t="n">
-        <v>4052.6122</v>
+        <v>90615.1271</v>
       </c>
       <c r="G49" t="n">
-        <v>2146419.9556</v>
+        <v>16078593.09957045</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>7.83</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2199,40 +2451,39 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="C50" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="D50" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="E50" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="F50" t="n">
-        <v>14020577.6476</v>
+        <v>1050</v>
       </c>
       <c r="G50" t="n">
-        <v>16166997.6032</v>
+        <v>16077543.09957045</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>7.82</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2242,28 +2493,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.83</v>
+        <v>7.67</v>
       </c>
       <c r="C51" t="n">
-        <v>7.83</v>
+        <v>7.64</v>
       </c>
       <c r="D51" t="n">
-        <v>7.83</v>
+        <v>7.67</v>
       </c>
       <c r="E51" t="n">
-        <v>7.83</v>
+        <v>7.64</v>
       </c>
       <c r="F51" t="n">
-        <v>24512798.0064</v>
+        <v>60828.7663</v>
       </c>
       <c r="G51" t="n">
-        <v>16166997.6032</v>
+        <v>16016714.33327045</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2273,7 +2525,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2283,28 +2535,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="C52" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="D52" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="E52" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="F52" t="n">
-        <v>24141391.976</v>
+        <v>5476.9724</v>
       </c>
       <c r="G52" t="n">
-        <v>16166997.6032</v>
+        <v>16022191.30567045</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2314,7 +2567,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2324,28 +2577,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.83</v>
+        <v>7.72</v>
       </c>
       <c r="C53" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="D53" t="n">
-        <v>7.83</v>
+        <v>7.72</v>
       </c>
       <c r="E53" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="F53" t="n">
-        <v>21077292.2252</v>
+        <v>1931.0586</v>
       </c>
       <c r="G53" t="n">
-        <v>16166997.6032</v>
+        <v>16022191.30567045</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2355,7 +2609,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2365,28 +2619,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.96</v>
+        <v>7.71</v>
       </c>
       <c r="C54" t="n">
-        <v>7.97</v>
+        <v>7.71</v>
       </c>
       <c r="D54" t="n">
-        <v>7.97</v>
+        <v>7.71</v>
       </c>
       <c r="E54" t="n">
-        <v>7.96</v>
+        <v>7.71</v>
       </c>
       <c r="F54" t="n">
-        <v>117321.5809</v>
+        <v>261.6083</v>
       </c>
       <c r="G54" t="n">
-        <v>16284319.1841</v>
+        <v>16022191.30567045</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2396,7 +2651,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2406,28 +2661,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.97</v>
+        <v>7.67</v>
       </c>
       <c r="C55" t="n">
-        <v>7.79</v>
+        <v>7.67</v>
       </c>
       <c r="D55" t="n">
-        <v>7.97</v>
+        <v>7.67</v>
       </c>
       <c r="E55" t="n">
-        <v>7.79</v>
+        <v>7.67</v>
       </c>
       <c r="F55" t="n">
-        <v>20</v>
+        <v>55000</v>
       </c>
       <c r="G55" t="n">
-        <v>16284299.1841</v>
+        <v>15967191.30567045</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2437,7 +2693,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2447,28 +2703,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.97</v>
+        <v>7.69</v>
       </c>
       <c r="C56" t="n">
-        <v>7.97</v>
+        <v>7.68</v>
       </c>
       <c r="D56" t="n">
-        <v>7.97</v>
+        <v>7.69</v>
       </c>
       <c r="E56" t="n">
-        <v>7.97</v>
+        <v>7.68</v>
       </c>
       <c r="F56" t="n">
-        <v>31536.6687</v>
+        <v>44047.7513</v>
       </c>
       <c r="G56" t="n">
-        <v>16315835.8528</v>
+        <v>16011239.05697045</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2478,7 +2735,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2488,28 +2745,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.97</v>
+        <v>7.67</v>
       </c>
       <c r="C57" t="n">
-        <v>7.97</v>
+        <v>7.67</v>
       </c>
       <c r="D57" t="n">
-        <v>7.97</v>
+        <v>7.67</v>
       </c>
       <c r="E57" t="n">
-        <v>7.97</v>
+        <v>7.67</v>
       </c>
       <c r="F57" t="n">
-        <v>32875.9096</v>
+        <v>23752.8411</v>
       </c>
       <c r="G57" t="n">
-        <v>16315835.8528</v>
+        <v>15987486.21587045</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2519,7 +2777,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2529,28 +2787,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.88</v>
+        <v>7.67</v>
       </c>
       <c r="C58" t="n">
-        <v>7.88</v>
+        <v>7.66</v>
       </c>
       <c r="D58" t="n">
-        <v>7.88</v>
+        <v>7.67</v>
       </c>
       <c r="E58" t="n">
-        <v>7.88</v>
+        <v>7.66</v>
       </c>
       <c r="F58" t="n">
-        <v>117321.5809</v>
+        <v>75336.63619999999</v>
       </c>
       <c r="G58" t="n">
-        <v>16198514.2719</v>
+        <v>15912149.57967045</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2560,7 +2819,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2570,28 +2829,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.95</v>
+        <v>7.65</v>
       </c>
       <c r="C59" t="n">
-        <v>7.95</v>
+        <v>7.65</v>
       </c>
       <c r="D59" t="n">
-        <v>7.95</v>
+        <v>7.65</v>
       </c>
       <c r="E59" t="n">
-        <v>7.95</v>
+        <v>7.64</v>
       </c>
       <c r="F59" t="n">
-        <v>2515.723270440252</v>
+        <v>99111.2558</v>
       </c>
       <c r="G59" t="n">
-        <v>16201029.99517044</v>
+        <v>15813038.32387045</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2601,7 +2861,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2611,28 +2871,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.9</v>
+        <v>7.64</v>
       </c>
       <c r="C60" t="n">
-        <v>7.9</v>
+        <v>7.64</v>
       </c>
       <c r="D60" t="n">
-        <v>7.9</v>
+        <v>7.64</v>
       </c>
       <c r="E60" t="n">
-        <v>7.9</v>
+        <v>7.64</v>
       </c>
       <c r="F60" t="n">
-        <v>29625.2516</v>
+        <v>504471.9858</v>
       </c>
       <c r="G60" t="n">
-        <v>16171404.74357044</v>
+        <v>15308566.33807045</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2642,7 +2903,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2652,28 +2913,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.91</v>
+        <v>7.6</v>
       </c>
       <c r="C61" t="n">
-        <v>7.91</v>
+        <v>7.59</v>
       </c>
       <c r="D61" t="n">
-        <v>7.91</v>
+        <v>7.6</v>
       </c>
       <c r="E61" t="n">
-        <v>7.91</v>
+        <v>7.59</v>
       </c>
       <c r="F61" t="n">
-        <v>5724.3427</v>
+        <v>73873.6067</v>
       </c>
       <c r="G61" t="n">
-        <v>16177129.08627044</v>
+        <v>15234692.73137045</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2683,7 +2945,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2693,28 +2955,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.9</v>
+        <v>7.67</v>
       </c>
       <c r="C62" t="n">
-        <v>7.9</v>
+        <v>7.71</v>
       </c>
       <c r="D62" t="n">
-        <v>7.9</v>
+        <v>7.72</v>
       </c>
       <c r="E62" t="n">
-        <v>7.9</v>
+        <v>7.67</v>
       </c>
       <c r="F62" t="n">
-        <v>142768.5458</v>
+        <v>15000</v>
       </c>
       <c r="G62" t="n">
-        <v>16034360.54047044</v>
+        <v>15249692.73137045</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2724,7 +2987,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2734,28 +2997,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.91</v>
+        <v>7.68</v>
       </c>
       <c r="C63" t="n">
-        <v>7.91</v>
+        <v>7.68</v>
       </c>
       <c r="D63" t="n">
-        <v>7.91</v>
+        <v>7.68</v>
       </c>
       <c r="E63" t="n">
-        <v>7.91</v>
+        <v>7.68</v>
       </c>
       <c r="F63" t="n">
-        <v>11409.3552</v>
+        <v>7807.552</v>
       </c>
       <c r="G63" t="n">
-        <v>16045769.89567044</v>
+        <v>15241885.17937045</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2765,7 +3029,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2775,28 +3039,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.84</v>
+        <v>7.68</v>
       </c>
       <c r="C64" t="n">
-        <v>7.84</v>
+        <v>7.7</v>
       </c>
       <c r="D64" t="n">
-        <v>7.84</v>
+        <v>7.7</v>
       </c>
       <c r="E64" t="n">
-        <v>7.84</v>
+        <v>7.68</v>
       </c>
       <c r="F64" t="n">
-        <v>189318.8775</v>
+        <v>57485.2396</v>
       </c>
       <c r="G64" t="n">
-        <v>15856451.01817044</v>
+        <v>15299370.41897045</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2806,7 +3071,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2816,28 +3081,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="C65" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="D65" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="E65" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="F65" t="n">
-        <v>65920.1201</v>
+        <v>2186.0103</v>
       </c>
       <c r="G65" t="n">
-        <v>15856451.01817044</v>
+        <v>15301556.42927045</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2847,7 +3113,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2857,28 +3123,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="C66" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="D66" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="E66" t="n">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="F66" t="n">
-        <v>4190.1572</v>
+        <v>491.8523</v>
       </c>
       <c r="G66" t="n">
-        <v>15856451.01817044</v>
+        <v>15301556.42927045</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2888,7 +3155,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2898,28 +3165,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.85</v>
+        <v>7.68</v>
       </c>
       <c r="C67" t="n">
-        <v>7.84</v>
+        <v>7.68</v>
       </c>
       <c r="D67" t="n">
-        <v>7.85</v>
+        <v>7.68</v>
       </c>
       <c r="E67" t="n">
-        <v>7.84</v>
+        <v>7.68</v>
       </c>
       <c r="F67" t="n">
-        <v>7393.9784</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="n">
-        <v>15856451.01817044</v>
+        <v>15296556.42927045</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2929,7 +3197,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2939,28 +3207,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="C68" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="D68" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="E68" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="F68" t="n">
-        <v>20578.6106</v>
+        <v>25</v>
       </c>
       <c r="G68" t="n">
-        <v>15835872.40757044</v>
+        <v>15296581.42927045</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2970,7 +3239,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2980,28 +3249,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="C69" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="D69" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="E69" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="F69" t="n">
-        <v>2728.5995</v>
+        <v>10290</v>
       </c>
       <c r="G69" t="n">
-        <v>15838601.00707044</v>
+        <v>15286291.42927045</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3011,7 +3281,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3021,28 +3291,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="C70" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="D70" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="E70" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2728.5995</v>
+        <v>10300</v>
       </c>
       <c r="G70" t="n">
-        <v>15835872.40757044</v>
+        <v>15286291.42927045</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3052,7 +3323,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3062,28 +3333,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="C71" t="n">
-        <v>7.69</v>
+        <v>7.72</v>
       </c>
       <c r="D71" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="E71" t="n">
-        <v>7.69</v>
+        <v>7.72</v>
       </c>
       <c r="F71" t="n">
-        <v>171899.8623</v>
+        <v>32455.3785</v>
       </c>
       <c r="G71" t="n">
-        <v>15663972.54527044</v>
+        <v>15318746.80777045</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3093,7 +3365,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3103,28 +3375,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="C72" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="D72" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="E72" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="F72" t="n">
-        <v>73334.2856</v>
+        <v>5000</v>
       </c>
       <c r="G72" t="n">
-        <v>15737306.83087044</v>
+        <v>15323746.80777045</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3134,7 +3407,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3144,28 +3417,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="C73" t="n">
         <v>7.69</v>
       </c>
       <c r="D73" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="E73" t="n">
         <v>7.69</v>
       </c>
       <c r="F73" t="n">
-        <v>35898.2272</v>
+        <v>74999.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>15701408.60367044</v>
+        <v>15248746.80787045</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3175,7 +3449,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3185,28 +3459,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.65</v>
+        <v>7.6</v>
       </c>
       <c r="C74" t="n">
-        <v>7.64</v>
+        <v>7.6</v>
       </c>
       <c r="D74" t="n">
-        <v>7.65</v>
+        <v>7.6</v>
       </c>
       <c r="E74" t="n">
-        <v>7.64</v>
+        <v>7.6</v>
       </c>
       <c r="F74" t="n">
-        <v>163184.8129</v>
+        <v>27.8507</v>
       </c>
       <c r="G74" t="n">
-        <v>15538223.79077045</v>
+        <v>15248718.95717045</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3216,7 +3491,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3226,28 +3501,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.65</v>
+        <v>7.6</v>
       </c>
       <c r="C75" t="n">
-        <v>7.65</v>
+        <v>7.6</v>
       </c>
       <c r="D75" t="n">
-        <v>7.65</v>
+        <v>7.6</v>
       </c>
       <c r="E75" t="n">
-        <v>7.65</v>
+        <v>7.6</v>
       </c>
       <c r="F75" t="n">
-        <v>28916.5262</v>
+        <v>30</v>
       </c>
       <c r="G75" t="n">
-        <v>15567140.31697045</v>
+        <v>15248718.95717045</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3257,7 +3533,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3267,28 +3543,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="C76" t="n">
-        <v>7.64</v>
+        <v>7.73</v>
       </c>
       <c r="D76" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="E76" t="n">
-        <v>7.64</v>
+        <v>7.73</v>
       </c>
       <c r="F76" t="n">
-        <v>16809.811</v>
+        <v>1255.6375</v>
       </c>
       <c r="G76" t="n">
-        <v>15550330.50597044</v>
+        <v>15249974.59467045</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3298,7 +3575,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3308,28 +3585,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="C77" t="n">
-        <v>7.65</v>
+        <v>7.82</v>
       </c>
       <c r="D77" t="n">
-        <v>7.66</v>
+        <v>7.82</v>
       </c>
       <c r="E77" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="F77" t="n">
-        <v>411306.6717</v>
+        <v>102418.8381</v>
       </c>
       <c r="G77" t="n">
-        <v>15961637.17767045</v>
+        <v>15352393.43277045</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3339,7 +3617,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3349,28 +3627,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.66</v>
+        <v>7.83</v>
       </c>
       <c r="C78" t="n">
-        <v>7.65</v>
+        <v>7.81</v>
       </c>
       <c r="D78" t="n">
-        <v>7.66</v>
+        <v>7.84</v>
       </c>
       <c r="E78" t="n">
-        <v>7.65</v>
+        <v>7.81</v>
       </c>
       <c r="F78" t="n">
-        <v>58624.5401</v>
+        <v>73547.3014</v>
       </c>
       <c r="G78" t="n">
-        <v>15961637.17767045</v>
+        <v>15278846.13137045</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3380,7 +3659,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3390,28 +3669,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.67</v>
+        <v>7.8</v>
       </c>
       <c r="C79" t="n">
-        <v>7.67</v>
+        <v>7.8</v>
       </c>
       <c r="D79" t="n">
-        <v>7.67</v>
+        <v>7.8</v>
       </c>
       <c r="E79" t="n">
-        <v>7.67</v>
+        <v>7.8</v>
       </c>
       <c r="F79" t="n">
-        <v>8857.8878</v>
+        <v>55011.3103</v>
       </c>
       <c r="G79" t="n">
-        <v>15970495.06547045</v>
+        <v>15223834.82107045</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3421,7 +3701,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3431,28 +3711,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.67</v>
+        <v>7.82</v>
       </c>
       <c r="C80" t="n">
-        <v>7.7</v>
+        <v>7.83</v>
       </c>
       <c r="D80" t="n">
-        <v>7.7</v>
+        <v>7.83</v>
       </c>
       <c r="E80" t="n">
-        <v>7.67</v>
+        <v>7.82</v>
       </c>
       <c r="F80" t="n">
-        <v>275858.5796</v>
+        <v>3000</v>
       </c>
       <c r="G80" t="n">
-        <v>16246353.64507045</v>
+        <v>15226834.82107045</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3462,7 +3743,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3472,28 +3753,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.66</v>
+        <v>7.83</v>
       </c>
       <c r="C81" t="n">
-        <v>7.66</v>
+        <v>7.85</v>
       </c>
       <c r="D81" t="n">
-        <v>7.66</v>
+        <v>7.85</v>
       </c>
       <c r="E81" t="n">
-        <v>7.66</v>
+        <v>7.83</v>
       </c>
       <c r="F81" t="n">
-        <v>10.012</v>
+        <v>125643.2072</v>
       </c>
       <c r="G81" t="n">
-        <v>16246343.63307045</v>
+        <v>15352478.02827045</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3503,7 +3785,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3513,28 +3795,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.73</v>
+        <v>7.88</v>
       </c>
       <c r="C82" t="n">
-        <v>7.73</v>
+        <v>7.92</v>
       </c>
       <c r="D82" t="n">
-        <v>7.73</v>
+        <v>7.92</v>
       </c>
       <c r="E82" t="n">
-        <v>7.73</v>
+        <v>7.88</v>
       </c>
       <c r="F82" t="n">
-        <v>45</v>
+        <v>55055</v>
       </c>
       <c r="G82" t="n">
-        <v>16246388.63307045</v>
+        <v>15407533.02827045</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3544,7 +3827,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3554,28 +3837,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="C83" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="D83" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="E83" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="F83" t="n">
-        <v>52764.6287</v>
+        <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>16246388.63307045</v>
+        <v>15407483.02827045</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3585,7 +3869,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3595,28 +3879,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.7</v>
+        <v>7.82</v>
       </c>
       <c r="C84" t="n">
-        <v>7.7</v>
+        <v>7.91</v>
       </c>
       <c r="D84" t="n">
-        <v>7.7</v>
+        <v>7.91</v>
       </c>
       <c r="E84" t="n">
-        <v>7.7</v>
+        <v>7.82</v>
       </c>
       <c r="F84" t="n">
-        <v>61497.0361</v>
+        <v>500</v>
       </c>
       <c r="G84" t="n">
-        <v>16184891.59697045</v>
+        <v>15407983.02827045</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3626,7 +3911,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3636,28 +3921,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.72</v>
+        <v>7.91</v>
       </c>
       <c r="C85" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="D85" t="n">
-        <v>7.72</v>
+        <v>7.91</v>
       </c>
       <c r="E85" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="F85" t="n">
-        <v>23929.0047</v>
+        <v>8457.0733</v>
       </c>
       <c r="G85" t="n">
-        <v>16208820.60167045</v>
+        <v>15407983.02827045</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3667,7 +3953,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3677,28 +3963,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="C86" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="D86" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="E86" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="F86" t="n">
-        <v>37550.9951</v>
+        <v>14461.5929</v>
       </c>
       <c r="G86" t="n">
-        <v>16208820.60167045</v>
+        <v>15407983.02827045</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3708,7 +3995,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3718,28 +4005,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.76</v>
+        <v>7.91</v>
       </c>
       <c r="C87" t="n">
-        <v>7.76</v>
+        <v>7.91</v>
       </c>
       <c r="D87" t="n">
-        <v>7.76</v>
+        <v>7.91</v>
       </c>
       <c r="E87" t="n">
-        <v>7.76</v>
+        <v>7.91</v>
       </c>
       <c r="F87" t="n">
-        <v>1100</v>
+        <v>7768.1415</v>
       </c>
       <c r="G87" t="n">
-        <v>16209920.60167045</v>
+        <v>15407983.02827045</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3749,7 +4037,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3759,28 +4047,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="C88" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="D88" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="E88" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="F88" t="n">
-        <v>1619.5533</v>
+        <v>3485.7025</v>
       </c>
       <c r="G88" t="n">
-        <v>16209920.60167045</v>
+        <v>15404497.32577045</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3790,7 +4079,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3800,28 +4089,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="C89" t="n">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="D89" t="n">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="E89" t="n">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="F89" t="n">
-        <v>18380.4467</v>
+        <v>55000</v>
       </c>
       <c r="G89" t="n">
-        <v>16209920.60167045</v>
+        <v>15349497.32577045</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3831,7 +4121,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3841,28 +4131,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.74</v>
+        <v>7.89</v>
       </c>
       <c r="C90" t="n">
-        <v>7.74</v>
+        <v>7.9</v>
       </c>
       <c r="D90" t="n">
-        <v>7.74</v>
+        <v>7.9</v>
       </c>
       <c r="E90" t="n">
-        <v>7.74</v>
+        <v>7.89</v>
       </c>
       <c r="F90" t="n">
-        <v>40712.375</v>
+        <v>58597.7977</v>
       </c>
       <c r="G90" t="n">
-        <v>16169208.22667045</v>
+        <v>15408095.12347045</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3872,7 +4163,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3882,28 +4173,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.74</v>
+        <v>7.9</v>
       </c>
       <c r="C91" t="n">
-        <v>7.73</v>
+        <v>7.9</v>
       </c>
       <c r="D91" t="n">
-        <v>7.74</v>
+        <v>7.9</v>
       </c>
       <c r="E91" t="n">
-        <v>7.73</v>
+        <v>7.9</v>
       </c>
       <c r="F91" t="n">
-        <v>90615.1271</v>
+        <v>18213.4562</v>
       </c>
       <c r="G91" t="n">
-        <v>16078593.09957045</v>
+        <v>15408095.12347045</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3913,7 +4205,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3923,28 +4215,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.71</v>
+        <v>7.9</v>
       </c>
       <c r="C92" t="n">
-        <v>7.71</v>
+        <v>7.9</v>
       </c>
       <c r="D92" t="n">
-        <v>7.71</v>
+        <v>7.9</v>
       </c>
       <c r="E92" t="n">
-        <v>7.71</v>
+        <v>7.9</v>
       </c>
       <c r="F92" t="n">
-        <v>1050</v>
+        <v>182943.6007</v>
       </c>
       <c r="G92" t="n">
-        <v>16077543.09957045</v>
+        <v>15408095.12347045</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3954,7 +4247,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3964,28 +4257,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.67</v>
+        <v>7.91</v>
       </c>
       <c r="C93" t="n">
-        <v>7.64</v>
+        <v>7.91</v>
       </c>
       <c r="D93" t="n">
-        <v>7.67</v>
+        <v>7.91</v>
       </c>
       <c r="E93" t="n">
-        <v>7.64</v>
+        <v>7.91</v>
       </c>
       <c r="F93" t="n">
-        <v>60828.7663</v>
+        <v>1784.8214</v>
       </c>
       <c r="G93" t="n">
-        <v>16016714.33327045</v>
+        <v>15409879.94487045</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3995,7 +4289,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4005,28 +4299,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="C94" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="D94" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="E94" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="F94" t="n">
-        <v>5476.9724</v>
+        <v>40782.736</v>
       </c>
       <c r="G94" t="n">
-        <v>16022191.30567045</v>
+        <v>15409879.94487045</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4036,7 +4331,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4046,28 +4341,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.72</v>
+        <v>7.91</v>
       </c>
       <c r="C95" t="n">
-        <v>7.71</v>
+        <v>7.92</v>
       </c>
       <c r="D95" t="n">
-        <v>7.72</v>
+        <v>7.92</v>
       </c>
       <c r="E95" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="F95" t="n">
-        <v>1931.0586</v>
+        <v>558208.3501</v>
       </c>
       <c r="G95" t="n">
-        <v>16022191.30567045</v>
+        <v>15968088.29497045</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4077,7 +4373,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4087,28 +4383,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.71</v>
+        <v>7.92</v>
       </c>
       <c r="C96" t="n">
-        <v>7.71</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>7.71</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>7.71</v>
+        <v>7.92</v>
       </c>
       <c r="F96" t="n">
-        <v>261.6083</v>
+        <v>53285.4074</v>
       </c>
       <c r="G96" t="n">
-        <v>16022191.30567045</v>
+        <v>16021373.70237045</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4118,7 +4415,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4128,28 +4425,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.67</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>7.67</v>
+        <v>8.1</v>
       </c>
       <c r="D97" t="n">
-        <v>7.67</v>
+        <v>8.1</v>
       </c>
       <c r="E97" t="n">
-        <v>7.67</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
-        <v>55000</v>
+        <v>48668.65</v>
       </c>
       <c r="G97" t="n">
-        <v>15967191.30567045</v>
+        <v>16070042.35237045</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4159,7 +4457,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4169,28 +4467,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.69</v>
+        <v>8.06</v>
       </c>
       <c r="C98" t="n">
-        <v>7.68</v>
+        <v>8.06</v>
       </c>
       <c r="D98" t="n">
-        <v>7.69</v>
+        <v>8.06</v>
       </c>
       <c r="E98" t="n">
-        <v>7.68</v>
+        <v>8.06</v>
       </c>
       <c r="F98" t="n">
-        <v>44047.7513</v>
+        <v>7457.813</v>
       </c>
       <c r="G98" t="n">
-        <v>16011239.05697045</v>
+        <v>16062584.53937045</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4200,7 +4499,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4210,28 +4509,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.67</v>
+        <v>8.08</v>
       </c>
       <c r="C99" t="n">
-        <v>7.67</v>
+        <v>8.1</v>
       </c>
       <c r="D99" t="n">
-        <v>7.67</v>
+        <v>8.1</v>
       </c>
       <c r="E99" t="n">
-        <v>7.67</v>
+        <v>8.08</v>
       </c>
       <c r="F99" t="n">
-        <v>23752.8411</v>
+        <v>370748.7468</v>
       </c>
       <c r="G99" t="n">
-        <v>15987486.21587045</v>
+        <v>16433333.28617045</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4241,7 +4541,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4251,28 +4551,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.67</v>
+        <v>8.1</v>
       </c>
       <c r="C100" t="n">
-        <v>7.66</v>
+        <v>8.1</v>
       </c>
       <c r="D100" t="n">
-        <v>7.67</v>
+        <v>8.1</v>
       </c>
       <c r="E100" t="n">
-        <v>7.66</v>
+        <v>8.1</v>
       </c>
       <c r="F100" t="n">
-        <v>75336.63619999999</v>
+        <v>64303.4505</v>
       </c>
       <c r="G100" t="n">
-        <v>15912149.57967045</v>
+        <v>16433333.28617045</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4282,7 +4583,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4292,28 +4593,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.65</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>7.65</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>7.65</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>7.64</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>99111.2558</v>
+        <v>125.3241</v>
       </c>
       <c r="G101" t="n">
-        <v>15813038.32387045</v>
+        <v>16433458.61027045</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4323,7 +4625,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4333,28 +4635,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.64</v>
+        <v>8.07</v>
       </c>
       <c r="C102" t="n">
-        <v>7.64</v>
+        <v>8.06</v>
       </c>
       <c r="D102" t="n">
-        <v>7.64</v>
+        <v>8.07</v>
       </c>
       <c r="E102" t="n">
-        <v>7.64</v>
+        <v>8.06</v>
       </c>
       <c r="F102" t="n">
-        <v>504471.9858</v>
+        <v>57103.3402</v>
       </c>
       <c r="G102" t="n">
-        <v>15308566.33807045</v>
+        <v>16376355.27007045</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4364,7 +4667,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4374,28 +4677,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.6</v>
+        <v>8.06</v>
       </c>
       <c r="C103" t="n">
-        <v>7.59</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>7.6</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>7.59</v>
+        <v>7.93</v>
       </c>
       <c r="F103" t="n">
-        <v>73873.6067</v>
+        <v>11120.8134</v>
       </c>
       <c r="G103" t="n">
-        <v>15234692.73137045</v>
+        <v>16387476.08347045</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4405,7 +4709,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4415,28 +4719,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.67</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>7.71</v>
+        <v>8.1</v>
       </c>
       <c r="D104" t="n">
-        <v>7.72</v>
+        <v>8.1</v>
       </c>
       <c r="E104" t="n">
-        <v>7.67</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>15000</v>
+        <v>183287.6665</v>
       </c>
       <c r="G104" t="n">
-        <v>15249692.73137045</v>
+        <v>16204188.41697045</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4446,7 +4751,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4456,28 +4761,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.68</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>7.68</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>7.68</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>7.68</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>7807.552</v>
+        <v>5255.324</v>
       </c>
       <c r="G105" t="n">
-        <v>15241885.17937045</v>
+        <v>16209443.74097045</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4487,7 +4793,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4497,28 +4803,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.68</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>7.7</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>7.7</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>7.68</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>57485.2396</v>
+        <v>1000</v>
       </c>
       <c r="G106" t="n">
-        <v>15299370.41897045</v>
+        <v>16210443.74097045</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4528,7 +4835,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4538,28 +4845,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.72</v>
+        <v>8.01</v>
       </c>
       <c r="C107" t="n">
-        <v>7.72</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>7.72</v>
+        <v>8.01</v>
       </c>
       <c r="E107" t="n">
-        <v>7.72</v>
+        <v>8</v>
       </c>
       <c r="F107" t="n">
-        <v>2186.0103</v>
+        <v>61409.9435</v>
       </c>
       <c r="G107" t="n">
-        <v>15301556.42927045</v>
+        <v>16149033.79747045</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4569,7 +4877,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4579,28 +4887,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.72</v>
+        <v>7.83</v>
       </c>
       <c r="C108" t="n">
-        <v>7.72</v>
+        <v>7.77</v>
       </c>
       <c r="D108" t="n">
-        <v>7.72</v>
+        <v>7.83</v>
       </c>
       <c r="E108" t="n">
-        <v>7.72</v>
+        <v>7.77</v>
       </c>
       <c r="F108" t="n">
-        <v>491.8523</v>
+        <v>7000</v>
       </c>
       <c r="G108" t="n">
-        <v>15301556.42927045</v>
+        <v>16142033.79747045</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4610,7 +4919,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4620,28 +4929,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.68</v>
+        <v>7.95</v>
       </c>
       <c r="C109" t="n">
-        <v>7.68</v>
+        <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>7.68</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>7.68</v>
+        <v>7.95</v>
       </c>
       <c r="F109" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="n">
-        <v>15296556.42927045</v>
+        <v>16145033.79747045</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4651,7 +4961,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4661,28 +4971,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.72</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>7.72</v>
+        <v>8.1</v>
       </c>
       <c r="D110" t="n">
-        <v>7.72</v>
+        <v>8.1</v>
       </c>
       <c r="E110" t="n">
-        <v>7.72</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>25</v>
+        <v>307910.2543</v>
       </c>
       <c r="G110" t="n">
-        <v>15296581.42927045</v>
+        <v>16452944.05177045</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4692,7 +5003,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4702,28 +5013,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>10290</v>
+        <v>6536.052</v>
       </c>
       <c r="G111" t="n">
-        <v>15286291.42927045</v>
+        <v>16446407.99977045</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4733,7 +5045,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4743,28 +5055,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.7</v>
+        <v>7.99</v>
       </c>
       <c r="C112" t="n">
-        <v>7.7</v>
+        <v>7.99</v>
       </c>
       <c r="D112" t="n">
-        <v>7.7</v>
+        <v>7.99</v>
       </c>
       <c r="E112" t="n">
-        <v>7.7</v>
+        <v>7.99</v>
       </c>
       <c r="F112" t="n">
-        <v>10300</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="n">
-        <v>15286291.42927045</v>
+        <v>16444407.99977045</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4774,7 +5087,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4784,28 +5097,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.72</v>
+        <v>7.99</v>
       </c>
       <c r="C113" t="n">
-        <v>7.72</v>
+        <v>7.99</v>
       </c>
       <c r="D113" t="n">
-        <v>7.72</v>
+        <v>7.99</v>
       </c>
       <c r="E113" t="n">
-        <v>7.72</v>
+        <v>7.99</v>
       </c>
       <c r="F113" t="n">
-        <v>32455.3785</v>
+        <v>1799.1358</v>
       </c>
       <c r="G113" t="n">
-        <v>15318746.80777045</v>
+        <v>16444407.99977045</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4815,7 +5129,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4825,28 +5139,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.73</v>
+        <v>8</v>
       </c>
       <c r="C114" t="n">
-        <v>7.73</v>
+        <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>7.73</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
-        <v>7.73</v>
+        <v>8</v>
       </c>
       <c r="F114" t="n">
-        <v>5000</v>
+        <v>53201.4039</v>
       </c>
       <c r="G114" t="n">
-        <v>15323746.80777045</v>
+        <v>16497609.40367045</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4856,7 +5171,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4866,28 +5181,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.7</v>
+        <v>7.99</v>
       </c>
       <c r="C115" t="n">
-        <v>7.69</v>
+        <v>7.99</v>
       </c>
       <c r="D115" t="n">
-        <v>7.7</v>
+        <v>7.99</v>
       </c>
       <c r="E115" t="n">
-        <v>7.69</v>
+        <v>7.99</v>
       </c>
       <c r="F115" t="n">
-        <v>74999.9999</v>
+        <v>2736</v>
       </c>
       <c r="G115" t="n">
-        <v>15248746.80787045</v>
+        <v>16494873.40367045</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4897,7 +5213,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4907,28 +5223,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.6</v>
+        <v>7.99</v>
       </c>
       <c r="C116" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E116" t="n">
-        <v>7.6</v>
+        <v>7.99</v>
       </c>
       <c r="F116" t="n">
-        <v>27.8507</v>
+        <v>59375.0001</v>
       </c>
       <c r="G116" t="n">
-        <v>15248718.95717045</v>
+        <v>16554248.40377045</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4938,7 +5255,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4948,28 +5265,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="F117" t="n">
-        <v>30</v>
+        <v>108167.465</v>
       </c>
       <c r="G117" t="n">
-        <v>15248718.95717045</v>
+        <v>16554248.40377045</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4979,7 +5297,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4989,28 +5307,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.73</v>
+        <v>8.07</v>
       </c>
       <c r="C118" t="n">
-        <v>7.73</v>
+        <v>8.07</v>
       </c>
       <c r="D118" t="n">
-        <v>7.73</v>
+        <v>8.07</v>
       </c>
       <c r="E118" t="n">
-        <v>7.73</v>
+        <v>8.07</v>
       </c>
       <c r="F118" t="n">
-        <v>1255.6375</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>15249974.59467045</v>
+        <v>16556248.40377045</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5020,7 +5339,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5030,28 +5349,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.73</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>7.82</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>7.82</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>7.73</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>102418.8381</v>
+        <v>14962.5</v>
       </c>
       <c r="G119" t="n">
-        <v>15352393.43277045</v>
+        <v>16571210.90377045</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5061,7 +5381,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5071,28 +5391,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.83</v>
+        <v>8.15</v>
       </c>
       <c r="C120" t="n">
-        <v>7.81</v>
+        <v>8.15</v>
       </c>
       <c r="D120" t="n">
-        <v>7.84</v>
+        <v>8.15</v>
       </c>
       <c r="E120" t="n">
-        <v>7.81</v>
+        <v>8.15</v>
       </c>
       <c r="F120" t="n">
-        <v>73547.3014</v>
+        <v>22925.6513</v>
       </c>
       <c r="G120" t="n">
-        <v>15278846.13137045</v>
+        <v>16594136.55507045</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5102,7 +5423,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5112,28 +5433,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.8</v>
+        <v>8.17</v>
       </c>
       <c r="C121" t="n">
-        <v>7.8</v>
+        <v>8.18</v>
       </c>
       <c r="D121" t="n">
-        <v>7.8</v>
+        <v>8.18</v>
       </c>
       <c r="E121" t="n">
-        <v>7.8</v>
+        <v>8.17</v>
       </c>
       <c r="F121" t="n">
-        <v>55011.3103</v>
+        <v>37281.7876</v>
       </c>
       <c r="G121" t="n">
-        <v>15223834.82107045</v>
+        <v>16631418.34267045</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5143,7 +5465,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5153,28 +5475,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.82</v>
+        <v>8.18</v>
       </c>
       <c r="C122" t="n">
-        <v>7.83</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>7.83</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>7.82</v>
+        <v>8.18</v>
       </c>
       <c r="F122" t="n">
-        <v>3000</v>
+        <v>488150</v>
       </c>
       <c r="G122" t="n">
-        <v>15226834.82107045</v>
+        <v>17119568.34267045</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5184,7 +5507,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5194,28 +5517,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7.83</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>7.85</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>7.85</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>7.83</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>125643.2072</v>
+        <v>458879.2328</v>
       </c>
       <c r="G123" t="n">
-        <v>15352478.02827045</v>
+        <v>17578447.57547045</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5225,7 +5549,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5235,28 +5559,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.88</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>7.92</v>
+        <v>8.31</v>
       </c>
       <c r="D124" t="n">
-        <v>7.92</v>
+        <v>8.31</v>
       </c>
       <c r="E124" t="n">
-        <v>7.88</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>55055</v>
+        <v>9520</v>
       </c>
       <c r="G124" t="n">
-        <v>15407533.02827045</v>
+        <v>17587967.57547045</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5266,7 +5591,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5276,28 +5601,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.82</v>
+        <v>8.31</v>
       </c>
       <c r="C125" t="n">
-        <v>7.82</v>
+        <v>8.43</v>
       </c>
       <c r="D125" t="n">
-        <v>7.82</v>
+        <v>8.43</v>
       </c>
       <c r="E125" t="n">
-        <v>7.82</v>
+        <v>8.31</v>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>3051.7598</v>
       </c>
       <c r="G125" t="n">
-        <v>15407483.02827045</v>
+        <v>17591019.33527045</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5307,7 +5633,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5317,28 +5643,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.82</v>
+        <v>8.4</v>
       </c>
       <c r="C126" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="D126" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="E126" t="n">
-        <v>7.82</v>
+        <v>8.4</v>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>99.2402</v>
       </c>
       <c r="G126" t="n">
-        <v>15407983.02827045</v>
+        <v>17590920.09507044</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5348,7 +5675,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5358,28 +5685,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="C127" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="D127" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="E127" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="F127" t="n">
-        <v>8457.0733</v>
+        <v>16075.7142</v>
       </c>
       <c r="G127" t="n">
-        <v>15407983.02827045</v>
+        <v>17590920.09507044</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5389,7 +5717,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5399,28 +5727,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="C128" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="D128" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="E128" t="n">
-        <v>7.91</v>
+        <v>8.4</v>
       </c>
       <c r="F128" t="n">
-        <v>14461.5929</v>
+        <v>4405.2178</v>
       </c>
       <c r="G128" t="n">
-        <v>15407983.02827045</v>
+        <v>17590920.09507044</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5430,7 +5759,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5440,28 +5769,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="C129" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="D129" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="E129" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="F129" t="n">
-        <v>7768.1415</v>
+        <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>15407983.02827045</v>
+        <v>17590931.09507044</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5471,7 +5801,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5481,28 +5811,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7.9</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>7.9</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>7.9</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>7.9</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>3485.7025</v>
+        <v>1111</v>
       </c>
       <c r="G130" t="n">
-        <v>15404497.32577045</v>
+        <v>17589820.09507044</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5512,7 +5843,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5522,28 +5853,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>7.84</v>
+        <v>8.4</v>
       </c>
       <c r="D131" t="n">
-        <v>7.84</v>
+        <v>8.4</v>
       </c>
       <c r="E131" t="n">
-        <v>7.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>55000</v>
+        <v>25091.4292</v>
       </c>
       <c r="G131" t="n">
-        <v>15349497.32577045</v>
+        <v>17614911.52427045</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5553,7 +5885,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5563,46 +5895,50 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7.89</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>7.9</v>
+        <v>8.35</v>
       </c>
       <c r="D132" t="n">
-        <v>7.9</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>7.89</v>
+        <v>8.35</v>
       </c>
       <c r="F132" t="n">
-        <v>58597.7977</v>
+        <v>7128.9592</v>
       </c>
       <c r="G132" t="n">
-        <v>15408095.12347045</v>
+        <v>17607782.56507045</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>7.98</v>
+        <v>7.77</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>1.069646074646075</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1.006435006435006</v>
       </c>
     </row>
     <row r="133">
@@ -5610,473 +5946,418 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7.9</v>
+        <v>8.42</v>
       </c>
       <c r="C133" t="n">
-        <v>7.9</v>
+        <v>8.42</v>
       </c>
       <c r="D133" t="n">
-        <v>7.9</v>
+        <v>8.42</v>
       </c>
       <c r="E133" t="n">
-        <v>7.9</v>
+        <v>8.42</v>
       </c>
       <c r="F133" t="n">
-        <v>18213.4562</v>
+        <v>11</v>
       </c>
       <c r="G133" t="n">
-        <v>15408095.12347045</v>
+        <v>17607793.56507045</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7.9</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>7.9</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>7.9</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>7.9</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>182943.6007</v>
+        <v>6975.3277</v>
       </c>
       <c r="G134" t="n">
-        <v>15408095.12347045</v>
+        <v>17600818.23737045</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="C135" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="D135" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="E135" t="n">
-        <v>7.91</v>
+        <v>8.42</v>
       </c>
       <c r="F135" t="n">
-        <v>1784.8214</v>
+        <v>11</v>
       </c>
       <c r="G135" t="n">
-        <v>15409879.94487045</v>
+        <v>17600829.23737045</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7.91</v>
+        <v>8.35</v>
       </c>
       <c r="C136" t="n">
-        <v>7.91</v>
+        <v>8.35</v>
       </c>
       <c r="D136" t="n">
-        <v>7.91</v>
+        <v>8.35</v>
       </c>
       <c r="E136" t="n">
-        <v>7.91</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>40782.736</v>
+        <v>601</v>
       </c>
       <c r="G136" t="n">
-        <v>15409879.94487045</v>
+        <v>17600228.23737045</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7.91</v>
+        <v>8.34</v>
       </c>
       <c r="C137" t="n">
-        <v>7.92</v>
+        <v>8.34</v>
       </c>
       <c r="D137" t="n">
-        <v>7.92</v>
+        <v>8.34</v>
       </c>
       <c r="E137" t="n">
-        <v>7.91</v>
+        <v>8.34</v>
       </c>
       <c r="F137" t="n">
-        <v>558208.3501</v>
+        <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>15968088.29497045</v>
+        <v>17600217.23737045</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7.92</v>
+        <v>8.34</v>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>8.34</v>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>8.34</v>
       </c>
       <c r="E138" t="n">
-        <v>7.92</v>
+        <v>8.34</v>
       </c>
       <c r="F138" t="n">
-        <v>53285.4074</v>
+        <v>56500.1199</v>
       </c>
       <c r="G138" t="n">
-        <v>16021373.70237045</v>
+        <v>17600217.23737045</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>8.35</v>
       </c>
       <c r="C139" t="n">
-        <v>8.1</v>
+        <v>8.35</v>
       </c>
       <c r="D139" t="n">
-        <v>8.1</v>
+        <v>8.35</v>
       </c>
       <c r="E139" t="n">
-        <v>8</v>
+        <v>8.35</v>
       </c>
       <c r="F139" t="n">
-        <v>48668.65</v>
+        <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>16070042.35237045</v>
+        <v>17600228.23737045</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8.06</v>
+        <v>8.35</v>
       </c>
       <c r="C140" t="n">
-        <v>8.06</v>
+        <v>8.35</v>
       </c>
       <c r="D140" t="n">
-        <v>8.06</v>
+        <v>8.35</v>
       </c>
       <c r="E140" t="n">
-        <v>8.06</v>
+        <v>8.35</v>
       </c>
       <c r="F140" t="n">
-        <v>7457.813</v>
+        <v>8811.137699999999</v>
       </c>
       <c r="G140" t="n">
-        <v>16062584.53937045</v>
+        <v>17600228.23737045</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.08</v>
+        <v>8.25</v>
       </c>
       <c r="C141" t="n">
-        <v>8.1</v>
+        <v>8.23</v>
       </c>
       <c r="D141" t="n">
-        <v>8.1</v>
+        <v>8.25</v>
       </c>
       <c r="E141" t="n">
-        <v>8.08</v>
+        <v>8.23</v>
       </c>
       <c r="F141" t="n">
-        <v>370748.7468</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="n">
-        <v>16433333.28617045</v>
+        <v>17598228.23737045</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.1</v>
+        <v>8.23</v>
       </c>
       <c r="C142" t="n">
-        <v>8.1</v>
+        <v>8.23</v>
       </c>
       <c r="D142" t="n">
-        <v>8.1</v>
+        <v>8.23</v>
       </c>
       <c r="E142" t="n">
-        <v>8.1</v>
+        <v>8.23</v>
       </c>
       <c r="F142" t="n">
-        <v>64303.4505</v>
+        <v>94.48399999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>16433333.28617045</v>
+        <v>17598228.23737045</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.130000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="C143" t="n">
-        <v>8.130000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>8.130000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="E143" t="n">
-        <v>8.130000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>125.3241</v>
+        <v>472925.7168</v>
       </c>
       <c r="G143" t="n">
-        <v>16433458.61027045</v>
+        <v>17125302.52057045</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8.07</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>8.06</v>
+        <v>8.23</v>
       </c>
       <c r="D144" t="n">
-        <v>8.07</v>
+        <v>8.23</v>
       </c>
       <c r="E144" t="n">
-        <v>8.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>57103.3402</v>
+        <v>27622.588</v>
       </c>
       <c r="G144" t="n">
-        <v>16376355.27007045</v>
+        <v>17152925.10857045</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6085,39 +6366,34 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="C145" t="n">
-        <v>8.109999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="D145" t="n">
-        <v>8.109999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="E145" t="n">
-        <v>7.93</v>
+        <v>8.1</v>
       </c>
       <c r="F145" t="n">
-        <v>11120.8134</v>
+        <v>308</v>
       </c>
       <c r="G145" t="n">
-        <v>16387476.08347045</v>
+        <v>17152617.10857045</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6126,39 +6402,34 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.039999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C146" t="n">
         <v>8.1</v>
       </c>
       <c r="D146" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E146" t="n">
         <v>8.1</v>
       </c>
-      <c r="E146" t="n">
-        <v>8.039999999999999</v>
-      </c>
       <c r="F146" t="n">
-        <v>183287.6665</v>
+        <v>9537.7788</v>
       </c>
       <c r="G146" t="n">
-        <v>16204188.41697045</v>
+        <v>17152617.10857045</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6167,39 +6438,34 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.109999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>8.109999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>8.109999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>8.109999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>5255.324</v>
+        <v>9383.454900000001</v>
       </c>
       <c r="G147" t="n">
-        <v>16209443.74097045</v>
+        <v>17162000.56347045</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6208,39 +6474,34 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>645.4254</v>
       </c>
       <c r="G148" t="n">
-        <v>16210443.74097045</v>
+        <v>17161355.13807045</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6249,39 +6510,34 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.01</v>
+        <v>8.07</v>
       </c>
       <c r="C149" t="n">
-        <v>8</v>
+        <v>7.92</v>
       </c>
       <c r="D149" t="n">
-        <v>8.01</v>
+        <v>8.07</v>
       </c>
       <c r="E149" t="n">
-        <v>8</v>
+        <v>7.92</v>
       </c>
       <c r="F149" t="n">
-        <v>61409.9435</v>
+        <v>16035.5249</v>
       </c>
       <c r="G149" t="n">
-        <v>16149033.79747045</v>
+        <v>17145319.61317044</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6290,39 +6546,34 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.83</v>
+        <v>7.97</v>
       </c>
       <c r="C150" t="n">
-        <v>7.77</v>
+        <v>7.97</v>
       </c>
       <c r="D150" t="n">
-        <v>7.83</v>
+        <v>7.97</v>
       </c>
       <c r="E150" t="n">
-        <v>7.77</v>
+        <v>7.97</v>
       </c>
       <c r="F150" t="n">
-        <v>7000</v>
+        <v>2976.9661</v>
       </c>
       <c r="G150" t="n">
-        <v>16142033.79747045</v>
+        <v>17148296.57927044</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6331,39 +6582,34 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7.95</v>
+        <v>7.97</v>
       </c>
       <c r="C151" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="E151" t="n">
-        <v>7.95</v>
+        <v>7.97</v>
       </c>
       <c r="F151" t="n">
-        <v>3000</v>
+        <v>64621.0232</v>
       </c>
       <c r="G151" t="n">
-        <v>16145033.79747045</v>
+        <v>17148296.57927044</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6372,39 +6618,34 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8.029999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="C152" t="n">
-        <v>8.1</v>
+        <v>7.98</v>
       </c>
       <c r="D152" t="n">
-        <v>8.1</v>
+        <v>7.98</v>
       </c>
       <c r="E152" t="n">
-        <v>8.029999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="F152" t="n">
-        <v>307910.2543</v>
+        <v>7788.0331</v>
       </c>
       <c r="G152" t="n">
-        <v>16452944.05177045</v>
+        <v>17156084.61237045</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6413,1619 +6654,12 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>8</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6536.052</v>
-      </c>
-      <c r="G153" t="n">
-        <v>16446407.99977045</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C154" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D154" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E154" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G154" t="n">
-        <v>16444407.99977045</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C155" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D155" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E155" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1799.1358</v>
-      </c>
-      <c r="G155" t="n">
-        <v>16444407.99977045</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>53201.4039</v>
-      </c>
-      <c r="G156" t="n">
-        <v>16497609.40367045</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C157" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D157" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E157" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2736</v>
-      </c>
-      <c r="G157" t="n">
-        <v>16494873.40367045</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C158" t="n">
-        <v>8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>8</v>
-      </c>
-      <c r="E158" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F158" t="n">
-        <v>59375.0001</v>
-      </c>
-      <c r="G158" t="n">
-        <v>16554248.40377045</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>8</v>
-      </c>
-      <c r="E159" t="n">
-        <v>8</v>
-      </c>
-      <c r="F159" t="n">
-        <v>108167.465</v>
-      </c>
-      <c r="G159" t="n">
-        <v>16554248.40377045</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="C160" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="D160" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E160" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G160" t="n">
-        <v>16556248.40377045</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="C161" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="D161" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="E161" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F161" t="n">
-        <v>14962.5</v>
-      </c>
-      <c r="G161" t="n">
-        <v>16571210.90377045</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="C162" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="D162" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E162" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="F162" t="n">
-        <v>22925.6513</v>
-      </c>
-      <c r="G162" t="n">
-        <v>16594136.55507045</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C163" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D163" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E163" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="F163" t="n">
-        <v>37281.7876</v>
-      </c>
-      <c r="G163" t="n">
-        <v>16631418.34267045</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C164" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D164" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E164" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F164" t="n">
-        <v>488150</v>
-      </c>
-      <c r="G164" t="n">
-        <v>17119568.34267045</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="C165" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="D165" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F165" t="n">
-        <v>458879.2328</v>
-      </c>
-      <c r="G165" t="n">
-        <v>17578447.57547045</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="C166" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="D166" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="E166" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F166" t="n">
-        <v>9520</v>
-      </c>
-      <c r="G166" t="n">
-        <v>17587967.57547045</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C167" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="D167" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="E167" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3051.7598</v>
-      </c>
-      <c r="G167" t="n">
-        <v>17591019.33527045</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D168" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E168" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>99.2402</v>
-      </c>
-      <c r="G168" t="n">
-        <v>17590920.09507044</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="C169" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D169" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F169" t="n">
-        <v>16075.7142</v>
-      </c>
-      <c r="G169" t="n">
-        <v>17590920.09507044</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="C170" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D170" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E170" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4405.2178</v>
-      </c>
-      <c r="G170" t="n">
-        <v>17590920.09507044</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="C171" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D171" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="E171" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F171" t="n">
-        <v>11</v>
-      </c>
-      <c r="G171" t="n">
-        <v>17590931.09507044</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="C172" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="D172" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="E172" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1111</v>
-      </c>
-      <c r="G172" t="n">
-        <v>17589820.09507044</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="C173" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D173" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E173" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F173" t="n">
-        <v>25091.4292</v>
-      </c>
-      <c r="G173" t="n">
-        <v>17614911.52427045</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="C174" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="D174" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="E174" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="F174" t="n">
-        <v>7128.9592</v>
-      </c>
-      <c r="G174" t="n">
-        <v>17607782.56507045</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1.041365914786967</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="C175" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D175" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="E175" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F175" t="n">
-        <v>11</v>
-      </c>
-      <c r="G175" t="n">
-        <v>17607793.56507045</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="C176" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D176" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="E176" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F176" t="n">
-        <v>6975.3277</v>
-      </c>
-      <c r="G176" t="n">
-        <v>17600818.23737045</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="C177" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D177" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="E177" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F177" t="n">
-        <v>11</v>
-      </c>
-      <c r="G177" t="n">
-        <v>17600829.23737045</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="C178" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="D178" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E178" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F178" t="n">
-        <v>601</v>
-      </c>
-      <c r="G178" t="n">
-        <v>17600228.23737045</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="C179" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="D179" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E179" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F179" t="n">
-        <v>11</v>
-      </c>
-      <c r="G179" t="n">
-        <v>17600217.23737045</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="D180" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E180" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F180" t="n">
-        <v>56500.1199</v>
-      </c>
-      <c r="G180" t="n">
-        <v>17600217.23737045</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="D181" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E181" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11</v>
-      </c>
-      <c r="G181" t="n">
-        <v>17600228.23737045</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="C182" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="D182" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E182" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="F182" t="n">
-        <v>8811.137699999999</v>
-      </c>
-      <c r="G182" t="n">
-        <v>17600228.23737045</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C183" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D183" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="E183" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G183" t="n">
-        <v>17598228.23737045</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="C184" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D184" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E184" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="F184" t="n">
-        <v>94.48399999999999</v>
-      </c>
-      <c r="G184" t="n">
-        <v>17598228.23737045</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C185" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D185" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="E185" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F185" t="n">
-        <v>472925.7168</v>
-      </c>
-      <c r="G185" t="n">
-        <v>17125302.52057045</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C186" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D186" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E186" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>27622.588</v>
-      </c>
-      <c r="G186" t="n">
-        <v>17152925.10857045</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F187" t="n">
-        <v>308</v>
-      </c>
-      <c r="G187" t="n">
-        <v>17152617.10857045</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C188" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>9537.7788</v>
-      </c>
-      <c r="G188" t="n">
-        <v>17152617.10857045</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C189" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D189" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E189" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9383.454900000001</v>
-      </c>
-      <c r="G189" t="n">
-        <v>17162000.56347045</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C190" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="D190" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F190" t="n">
-        <v>645.4254</v>
-      </c>
-      <c r="G190" t="n">
-        <v>17161355.13807045</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D191" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E191" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F191" t="n">
-        <v>16035.5249</v>
-      </c>
-      <c r="G191" t="n">
-        <v>17145319.61317044</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C192" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D192" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E192" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2976.9661</v>
-      </c>
-      <c r="G192" t="n">
-        <v>17148296.57927044</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C193" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D193" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E193" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F193" t="n">
-        <v>64621.0232</v>
-      </c>
-      <c r="G193" t="n">
-        <v>17148296.57927044</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C194" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D194" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E194" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F194" t="n">
-        <v>7788.0331</v>
-      </c>
-      <c r="G194" t="n">
-        <v>17156084.61237045</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.77</v>
+        <v>7.88</v>
       </c>
       <c r="C2" t="n">
-        <v>7.77</v>
+        <v>7.91</v>
       </c>
       <c r="D2" t="n">
-        <v>7.77</v>
+        <v>7.91</v>
       </c>
       <c r="E2" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F2" t="n">
-        <v>5307.7436</v>
+        <v>435194</v>
       </c>
       <c r="G2" t="n">
-        <v>2153473.2183</v>
+        <v>1584361.877</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="C3" t="n">
-        <v>7.78</v>
+        <v>7.91</v>
       </c>
       <c r="D3" t="n">
-        <v>7.78</v>
+        <v>7.91</v>
       </c>
       <c r="E3" t="n">
         <v>7.78</v>
       </c>
       <c r="F3" t="n">
-        <v>2488.9328</v>
+        <v>277437</v>
       </c>
       <c r="G3" t="n">
-        <v>2155962.1511</v>
+        <v>1584361.877</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,12 +498,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>7.91</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -514,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.82</v>
+        <v>7.91</v>
       </c>
       <c r="C4" t="n">
-        <v>7.82</v>
+        <v>7.91</v>
       </c>
       <c r="D4" t="n">
-        <v>7.82</v>
+        <v>7.91</v>
       </c>
       <c r="E4" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="F4" t="n">
-        <v>1012.2762</v>
+        <v>239993</v>
       </c>
       <c r="G4" t="n">
-        <v>2156974.427300001</v>
+        <v>1584361.877</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +540,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.77</v>
-      </c>
+        <v>7.91</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.75</v>
+        <v>7.85</v>
       </c>
       <c r="C5" t="n">
-        <v>7.73</v>
+        <v>7.89</v>
       </c>
       <c r="D5" t="n">
-        <v>7.75</v>
+        <v>7.91</v>
       </c>
       <c r="E5" t="n">
-        <v>7.73</v>
+        <v>7.79</v>
       </c>
       <c r="F5" t="n">
-        <v>95300.7549</v>
+        <v>211703</v>
       </c>
       <c r="G5" t="n">
-        <v>2061673.672400001</v>
+        <v>1372658.877</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.77</v>
-      </c>
+        <v>7.91</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.83</v>
+        <v>7.85</v>
       </c>
       <c r="C6" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="D6" t="n">
-        <v>7.83</v>
+        <v>7.92</v>
       </c>
       <c r="E6" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="F6" t="n">
-        <v>88798.89539999999</v>
+        <v>222402</v>
       </c>
       <c r="G6" t="n">
-        <v>2150472.5678</v>
+        <v>1150256.877</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,11 +624,9 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.77</v>
-      </c>
+        <v>7.89</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -646,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.82</v>
+        <v>7.91</v>
       </c>
       <c r="C7" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="D7" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="E7" t="n">
-        <v>7.82</v>
+        <v>7.81</v>
       </c>
       <c r="F7" t="n">
-        <v>4052.6122</v>
+        <v>107074.0653</v>
       </c>
       <c r="G7" t="n">
-        <v>2146419.9556</v>
+        <v>1257330.9423</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,11 +666,9 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.77</v>
-      </c>
+        <v>7.8</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -690,35 +684,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.83</v>
+        <v>7.91</v>
       </c>
       <c r="C8" t="n">
-        <v>7.83</v>
+        <v>7.91</v>
       </c>
       <c r="D8" t="n">
-        <v>7.83</v>
+        <v>7.91</v>
       </c>
       <c r="E8" t="n">
-        <v>7.83</v>
+        <v>7.91</v>
       </c>
       <c r="F8" t="n">
-        <v>14020577.6476</v>
+        <v>134</v>
       </c>
       <c r="G8" t="n">
-        <v>16166997.6032</v>
+        <v>1257196.9423</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -734,35 +724,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.83</v>
+        <v>7.9</v>
       </c>
       <c r="C9" t="n">
-        <v>7.83</v>
+        <v>7.9</v>
       </c>
       <c r="D9" t="n">
-        <v>7.83</v>
+        <v>7.9</v>
       </c>
       <c r="E9" t="n">
-        <v>7.83</v>
+        <v>7.9</v>
       </c>
       <c r="F9" t="n">
-        <v>24512798.0064</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>16166997.6032</v>
+        <v>1257186.9423</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -778,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.83</v>
+        <v>7.89</v>
       </c>
       <c r="C10" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="D10" t="n">
-        <v>7.83</v>
+        <v>7.89</v>
       </c>
       <c r="E10" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="F10" t="n">
-        <v>24141391.976</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>16166997.6032</v>
+        <v>1257156.9423</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -802,9 +788,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -820,22 +804,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="C11" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="D11" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="E11" t="n">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="F11" t="n">
-        <v>21077292.2252</v>
+        <v>17777.2645</v>
       </c>
       <c r="G11" t="n">
-        <v>16166997.6032</v>
+        <v>1257156.9423</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -844,9 +828,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -862,22 +844,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.96</v>
+        <v>7.86</v>
       </c>
       <c r="C12" t="n">
-        <v>7.97</v>
+        <v>7.86</v>
       </c>
       <c r="D12" t="n">
-        <v>7.97</v>
+        <v>7.87</v>
       </c>
       <c r="E12" t="n">
-        <v>7.96</v>
+        <v>7.86</v>
       </c>
       <c r="F12" t="n">
-        <v>117321.5809</v>
+        <v>60998.6259</v>
       </c>
       <c r="G12" t="n">
-        <v>16284319.1841</v>
+        <v>1196158.3164</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -886,9 +868,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -904,33 +884,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.97</v>
+        <v>7.85</v>
       </c>
       <c r="C13" t="n">
-        <v>7.79</v>
+        <v>7.68</v>
       </c>
       <c r="D13" t="n">
-        <v>7.97</v>
+        <v>7.85</v>
       </c>
       <c r="E13" t="n">
-        <v>7.79</v>
+        <v>7.68</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>100012.2186</v>
       </c>
       <c r="G13" t="n">
-        <v>16284299.1841</v>
+        <v>1096146.0978</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J13" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -946,33 +926,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="C14" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="D14" t="n">
-        <v>7.97</v>
+        <v>7.88</v>
       </c>
       <c r="E14" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="F14" t="n">
-        <v>31536.6687</v>
+        <v>18998</v>
       </c>
       <c r="G14" t="n">
-        <v>16315835.8528</v>
+        <v>1115144.0978</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J14" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -988,33 +968,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="C15" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="D15" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="E15" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="F15" t="n">
-        <v>32875.9096</v>
+        <v>7807</v>
       </c>
       <c r="G15" t="n">
-        <v>16315835.8528</v>
+        <v>1115144.0978</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J15" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1030,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="C16" t="n">
         <v>7.88</v>
@@ -1039,24 +1019,24 @@
         <v>7.88</v>
       </c>
       <c r="E16" t="n">
-        <v>7.88</v>
+        <v>7.77</v>
       </c>
       <c r="F16" t="n">
-        <v>117321.5809</v>
+        <v>14165.0525</v>
       </c>
       <c r="G16" t="n">
-        <v>16198514.2719</v>
+        <v>1129309.1503</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J16" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1072,33 +1052,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.95</v>
+        <v>7.82</v>
       </c>
       <c r="C17" t="n">
-        <v>7.95</v>
+        <v>7.83</v>
       </c>
       <c r="D17" t="n">
-        <v>7.95</v>
+        <v>7.83</v>
       </c>
       <c r="E17" t="n">
-        <v>7.95</v>
+        <v>7.82</v>
       </c>
       <c r="F17" t="n">
-        <v>2515.723270440252</v>
+        <v>41568.9655</v>
       </c>
       <c r="G17" t="n">
-        <v>16201029.99517044</v>
+        <v>1087740.1848</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J17" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1114,33 +1094,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="C18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="D18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="E18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="F18" t="n">
-        <v>29625.2516</v>
+        <v>70309.4184</v>
       </c>
       <c r="G18" t="n">
-        <v>16171404.74357044</v>
+        <v>1017430.7664</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J18" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1156,33 +1136,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.91</v>
+        <v>7.8</v>
       </c>
       <c r="C19" t="n">
-        <v>7.91</v>
+        <v>7.8</v>
       </c>
       <c r="D19" t="n">
-        <v>7.91</v>
+        <v>7.8</v>
       </c>
       <c r="E19" t="n">
-        <v>7.91</v>
+        <v>7.8</v>
       </c>
       <c r="F19" t="n">
-        <v>5724.3427</v>
+        <v>7060.641</v>
       </c>
       <c r="G19" t="n">
-        <v>16177129.08627044</v>
+        <v>1017430.7664</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1198,33 +1178,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="C20" t="n">
-        <v>7.9</v>
+        <v>7.85</v>
       </c>
       <c r="D20" t="n">
-        <v>7.9</v>
+        <v>7.85</v>
       </c>
       <c r="E20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="F20" t="n">
-        <v>142768.5458</v>
+        <v>14319.1532</v>
       </c>
       <c r="G20" t="n">
-        <v>16034360.54047044</v>
+        <v>1031749.9196</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,33 +1220,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="C21" t="n">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="D21" t="n">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="E21" t="n">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="F21" t="n">
-        <v>11409.3552</v>
+        <v>89403.11199999999</v>
       </c>
       <c r="G21" t="n">
-        <v>16045769.89567044</v>
+        <v>1031749.9196</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J21" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1282,33 +1262,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.84</v>
+        <v>7.87</v>
       </c>
       <c r="C22" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
       <c r="D22" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
       <c r="E22" t="n">
-        <v>7.84</v>
+        <v>7.87</v>
       </c>
       <c r="F22" t="n">
-        <v>189318.8775</v>
+        <v>263066.872</v>
       </c>
       <c r="G22" t="n">
-        <v>15856451.01817044</v>
+        <v>1294816.7916</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J22" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1324,33 +1304,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
       <c r="C23" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
       <c r="F23" t="n">
-        <v>65920.1201</v>
+        <v>116330.0349</v>
       </c>
       <c r="G23" t="n">
-        <v>15856451.01817044</v>
+        <v>1411146.8265</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J23" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1366,33 +1346,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>4190.1572</v>
+        <v>31267.125</v>
       </c>
       <c r="G24" t="n">
-        <v>15856451.01817044</v>
+        <v>1411146.8265</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1408,22 +1388,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.85</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>7.84</v>
+        <v>8.07</v>
       </c>
       <c r="D25" t="n">
-        <v>7.85</v>
+        <v>8.07</v>
       </c>
       <c r="E25" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>7393.9784</v>
+        <v>86739.0552</v>
       </c>
       <c r="G25" t="n">
-        <v>15856451.01817044</v>
+        <v>1497885.8817</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1432,9 +1412,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1450,22 +1428,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.73</v>
+        <v>8.1</v>
       </c>
       <c r="C26" t="n">
-        <v>7.71</v>
+        <v>8.09</v>
       </c>
       <c r="D26" t="n">
-        <v>7.73</v>
+        <v>8.1</v>
       </c>
       <c r="E26" t="n">
-        <v>7.71</v>
+        <v>8.09</v>
       </c>
       <c r="F26" t="n">
-        <v>20578.6106</v>
+        <v>38013.4691</v>
       </c>
       <c r="G26" t="n">
-        <v>15835872.40757044</v>
+        <v>1535899.3508</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1474,9 +1452,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1492,22 +1468,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.72</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>7.72</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>7.72</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>7.72</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>2728.5995</v>
+        <v>17461.2958</v>
       </c>
       <c r="G27" t="n">
-        <v>15838601.00707044</v>
+        <v>1518438.055</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1516,9 +1492,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1534,22 +1508,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.71</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>7.71</v>
+        <v>8.09</v>
       </c>
       <c r="D28" t="n">
-        <v>7.71</v>
+        <v>8.09</v>
       </c>
       <c r="E28" t="n">
-        <v>7.71</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.5995</v>
+        <v>70065.1421</v>
       </c>
       <c r="G28" t="n">
-        <v>15835872.40757044</v>
+        <v>1588503.1971</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1558,9 +1532,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,22 +1548,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.71</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>7.69</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>7.71</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>7.69</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>171899.8623</v>
+        <v>20293.2835</v>
       </c>
       <c r="G29" t="n">
-        <v>15663972.54527044</v>
+        <v>1568209.9136</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1600,9 +1572,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1618,22 +1588,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C30" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="D30" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="E30" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="F30" t="n">
-        <v>73334.2856</v>
+        <v>68696.8826</v>
       </c>
       <c r="G30" t="n">
-        <v>15737306.83087044</v>
+        <v>1499513.031</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1642,9 +1612,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1660,33 +1628,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.69</v>
+        <v>7.96</v>
       </c>
       <c r="C31" t="n">
-        <v>7.69</v>
+        <v>7.96</v>
       </c>
       <c r="D31" t="n">
-        <v>7.69</v>
+        <v>7.98</v>
       </c>
       <c r="E31" t="n">
-        <v>7.69</v>
+        <v>7.96</v>
       </c>
       <c r="F31" t="n">
-        <v>35898.2272</v>
+        <v>65988.2985</v>
       </c>
       <c r="G31" t="n">
-        <v>15701408.60367044</v>
+        <v>1565501.3295</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,33 +1670,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.65</v>
+        <v>7.96</v>
       </c>
       <c r="C32" t="n">
-        <v>7.64</v>
+        <v>7.96</v>
       </c>
       <c r="D32" t="n">
-        <v>7.65</v>
+        <v>7.96</v>
       </c>
       <c r="E32" t="n">
-        <v>7.64</v>
+        <v>7.96</v>
       </c>
       <c r="F32" t="n">
-        <v>163184.8129</v>
+        <v>22561.0884</v>
       </c>
       <c r="G32" t="n">
-        <v>15538223.79077045</v>
+        <v>1565501.3295</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J32" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1744,33 +1712,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.65</v>
+        <v>7.88</v>
       </c>
       <c r="C33" t="n">
-        <v>7.65</v>
+        <v>7.88</v>
       </c>
       <c r="D33" t="n">
-        <v>7.65</v>
+        <v>7.88</v>
       </c>
       <c r="E33" t="n">
-        <v>7.65</v>
+        <v>7.88</v>
       </c>
       <c r="F33" t="n">
-        <v>28916.5262</v>
+        <v>5974.8096</v>
       </c>
       <c r="G33" t="n">
-        <v>15567140.31697045</v>
+        <v>1559526.5199</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J33" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1786,33 +1754,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.65</v>
+        <v>7.88</v>
       </c>
       <c r="C34" t="n">
-        <v>7.64</v>
+        <v>7.88</v>
       </c>
       <c r="D34" t="n">
-        <v>7.65</v>
+        <v>7.89</v>
       </c>
       <c r="E34" t="n">
-        <v>7.64</v>
+        <v>7.88</v>
       </c>
       <c r="F34" t="n">
-        <v>16809.811</v>
+        <v>750441.8758</v>
       </c>
       <c r="G34" t="n">
-        <v>15550330.50597044</v>
+        <v>1559526.5199</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J34" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1828,33 +1796,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.65</v>
+        <v>7.9</v>
       </c>
       <c r="C35" t="n">
-        <v>7.65</v>
+        <v>7.99</v>
       </c>
       <c r="D35" t="n">
-        <v>7.66</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>7.65</v>
+        <v>7.89</v>
       </c>
       <c r="F35" t="n">
-        <v>411306.6717</v>
+        <v>79878.77860000001</v>
       </c>
       <c r="G35" t="n">
-        <v>15961637.17767045</v>
+        <v>1639405.2985</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J35" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1870,22 +1838,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.66</v>
+        <v>7.99</v>
       </c>
       <c r="C36" t="n">
-        <v>7.65</v>
+        <v>8.09</v>
       </c>
       <c r="D36" t="n">
-        <v>7.66</v>
+        <v>8.1</v>
       </c>
       <c r="E36" t="n">
-        <v>7.65</v>
+        <v>7.99</v>
       </c>
       <c r="F36" t="n">
-        <v>58624.5401</v>
+        <v>275630.969</v>
       </c>
       <c r="G36" t="n">
-        <v>15961637.17767045</v>
+        <v>1915036.267500001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1894,9 +1862,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1912,22 +1878,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.67</v>
+        <v>8.09</v>
       </c>
       <c r="C37" t="n">
-        <v>7.67</v>
+        <v>7.94</v>
       </c>
       <c r="D37" t="n">
-        <v>7.67</v>
+        <v>8.09</v>
       </c>
       <c r="E37" t="n">
-        <v>7.67</v>
+        <v>7.94</v>
       </c>
       <c r="F37" t="n">
-        <v>8857.8878</v>
+        <v>54939.443</v>
       </c>
       <c r="G37" t="n">
-        <v>15970495.06547045</v>
+        <v>1860096.824500001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1936,9 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,22 +1918,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.67</v>
+        <v>8.06</v>
       </c>
       <c r="C38" t="n">
-        <v>7.7</v>
+        <v>8.07</v>
       </c>
       <c r="D38" t="n">
-        <v>7.7</v>
+        <v>8.07</v>
       </c>
       <c r="E38" t="n">
-        <v>7.67</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>275858.5796</v>
+        <v>155785.0068</v>
       </c>
       <c r="G38" t="n">
-        <v>16246353.64507045</v>
+        <v>2015881.831300001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1978,9 +1942,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,22 +1958,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.66</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>7.66</v>
+        <v>7.87</v>
       </c>
       <c r="D39" t="n">
-        <v>7.66</v>
+        <v>8.07</v>
       </c>
       <c r="E39" t="n">
-        <v>7.66</v>
+        <v>7.87</v>
       </c>
       <c r="F39" t="n">
-        <v>10.012</v>
+        <v>62.0001</v>
       </c>
       <c r="G39" t="n">
-        <v>16246343.63307045</v>
+        <v>2015819.831200001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2020,9 +1982,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,22 +1998,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.73</v>
+        <v>7.89</v>
       </c>
       <c r="C40" t="n">
-        <v>7.73</v>
+        <v>8.08</v>
       </c>
       <c r="D40" t="n">
-        <v>7.73</v>
+        <v>8.08</v>
       </c>
       <c r="E40" t="n">
-        <v>7.73</v>
+        <v>7.89</v>
       </c>
       <c r="F40" t="n">
-        <v>45</v>
+        <v>28294.1396</v>
       </c>
       <c r="G40" t="n">
-        <v>16246388.63307045</v>
+        <v>2044113.970800001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2062,9 +2022,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,22 +2038,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.73</v>
+        <v>8.08</v>
       </c>
       <c r="C41" t="n">
-        <v>7.73</v>
+        <v>8.08</v>
       </c>
       <c r="D41" t="n">
-        <v>7.73</v>
+        <v>8.08</v>
       </c>
       <c r="E41" t="n">
-        <v>7.73</v>
+        <v>8.08</v>
       </c>
       <c r="F41" t="n">
-        <v>52764.6287</v>
+        <v>21207.4566</v>
       </c>
       <c r="G41" t="n">
-        <v>16246388.63307045</v>
+        <v>2044113.970800001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2104,9 +2062,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,22 +2078,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.7</v>
+        <v>8.07</v>
       </c>
       <c r="C42" t="n">
-        <v>7.7</v>
+        <v>8.07</v>
       </c>
       <c r="D42" t="n">
-        <v>7.7</v>
+        <v>8.07</v>
       </c>
       <c r="E42" t="n">
-        <v>7.7</v>
+        <v>8.07</v>
       </c>
       <c r="F42" t="n">
-        <v>61497.0361</v>
+        <v>15925.3097</v>
       </c>
       <c r="G42" t="n">
-        <v>16184891.59697045</v>
+        <v>2028188.661100001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2146,9 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,22 +2118,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.72</v>
+        <v>8.07</v>
       </c>
       <c r="C43" t="n">
-        <v>7.71</v>
+        <v>8.08</v>
       </c>
       <c r="D43" t="n">
-        <v>7.72</v>
+        <v>8.08</v>
       </c>
       <c r="E43" t="n">
-        <v>7.71</v>
+        <v>8.07</v>
       </c>
       <c r="F43" t="n">
-        <v>23929.0047</v>
+        <v>261637.8712</v>
       </c>
       <c r="G43" t="n">
-        <v>16208820.60167045</v>
+        <v>2289826.532300001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2188,9 +2142,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2206,22 +2158,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.71</v>
+        <v>8.06</v>
       </c>
       <c r="C44" t="n">
-        <v>7.71</v>
+        <v>7.9</v>
       </c>
       <c r="D44" t="n">
-        <v>7.71</v>
+        <v>8.06</v>
       </c>
       <c r="E44" t="n">
-        <v>7.71</v>
+        <v>7.9</v>
       </c>
       <c r="F44" t="n">
-        <v>37550.9951</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>16208820.60167045</v>
+        <v>2289806.532300001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2230,9 +2182,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2248,22 +2198,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.76</v>
+        <v>8.06</v>
       </c>
       <c r="C45" t="n">
-        <v>7.76</v>
+        <v>8.06</v>
       </c>
       <c r="D45" t="n">
-        <v>7.76</v>
+        <v>8.06</v>
       </c>
       <c r="E45" t="n">
-        <v>7.76</v>
+        <v>8.06</v>
       </c>
       <c r="F45" t="n">
-        <v>1100</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>16209920.60167045</v>
+        <v>2289816.532300001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2272,9 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,22 +2238,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.76</v>
+        <v>8.06</v>
       </c>
       <c r="C46" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="D46" t="n">
-        <v>7.76</v>
+        <v>8.06</v>
       </c>
       <c r="E46" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="F46" t="n">
-        <v>1619.5533</v>
+        <v>20</v>
       </c>
       <c r="G46" t="n">
-        <v>16209920.60167045</v>
+        <v>2289796.532300001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2314,9 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,22 +2278,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="C47" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="D47" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="E47" t="n">
-        <v>7.76</v>
+        <v>7.9</v>
       </c>
       <c r="F47" t="n">
-        <v>18380.4467</v>
+        <v>12629.3439</v>
       </c>
       <c r="G47" t="n">
-        <v>16209920.60167045</v>
+        <v>2289796.532300001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2356,9 +2302,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2374,22 +2318,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.74</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>7.74</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>7.74</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>7.74</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>40712.375</v>
+        <v>10420.9316</v>
       </c>
       <c r="G48" t="n">
-        <v>16169208.22667045</v>
+        <v>2300217.4639</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2398,9 +2342,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2416,22 +2358,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.74</v>
+        <v>7.87</v>
       </c>
       <c r="C49" t="n">
-        <v>7.73</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>7.74</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>7.73</v>
+        <v>7.87</v>
       </c>
       <c r="F49" t="n">
-        <v>90615.1271</v>
+        <v>10745.9499</v>
       </c>
       <c r="G49" t="n">
-        <v>16078593.09957045</v>
+        <v>2300217.4639</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2440,9 +2382,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,22 +2398,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.71</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>7.71</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>7.71</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>7.71</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>1050</v>
+        <v>4454.944</v>
       </c>
       <c r="G50" t="n">
-        <v>16077543.09957045</v>
+        <v>2300217.4639</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2482,9 +2422,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,22 +2438,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.67</v>
+        <v>7.88</v>
       </c>
       <c r="C51" t="n">
-        <v>7.64</v>
+        <v>7.87</v>
       </c>
       <c r="D51" t="n">
-        <v>7.67</v>
+        <v>7.88</v>
       </c>
       <c r="E51" t="n">
-        <v>7.64</v>
+        <v>7.87</v>
       </c>
       <c r="F51" t="n">
-        <v>60828.7663</v>
+        <v>42816.0901</v>
       </c>
       <c r="G51" t="n">
-        <v>16016714.33327045</v>
+        <v>2257401.3738</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2524,9 +2462,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,22 +2478,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="C52" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="D52" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="E52" t="n">
-        <v>7.71</v>
+        <v>7.91</v>
       </c>
       <c r="F52" t="n">
-        <v>5476.9724</v>
+        <v>59803.6869</v>
       </c>
       <c r="G52" t="n">
-        <v>16022191.30567045</v>
+        <v>2317205.0607</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2566,9 +2502,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2584,22 +2518,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.72</v>
+        <v>7.91</v>
       </c>
       <c r="C53" t="n">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="D53" t="n">
-        <v>7.72</v>
+        <v>7.91</v>
       </c>
       <c r="E53" t="n">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="F53" t="n">
-        <v>1931.0586</v>
+        <v>20242.5503</v>
       </c>
       <c r="G53" t="n">
-        <v>16022191.30567045</v>
+        <v>2296962.5104</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2608,9 +2542,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2626,22 +2558,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="C54" t="n">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="D54" t="n">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="E54" t="n">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="F54" t="n">
-        <v>261.6083</v>
+        <v>10197.8371</v>
       </c>
       <c r="G54" t="n">
-        <v>16022191.30567045</v>
+        <v>2296962.5104</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2650,9 +2582,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,22 +2598,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.67</v>
+        <v>7.88</v>
       </c>
       <c r="C55" t="n">
-        <v>7.67</v>
+        <v>7.88</v>
       </c>
       <c r="D55" t="n">
-        <v>7.67</v>
+        <v>7.88</v>
       </c>
       <c r="E55" t="n">
-        <v>7.67</v>
+        <v>7.88</v>
       </c>
       <c r="F55" t="n">
-        <v>55000</v>
+        <v>1468.9672</v>
       </c>
       <c r="G55" t="n">
-        <v>15967191.30567045</v>
+        <v>2296962.5104</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2692,9 +2622,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,22 +2638,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.69</v>
+        <v>7.99</v>
       </c>
       <c r="C56" t="n">
-        <v>7.68</v>
+        <v>7.99</v>
       </c>
       <c r="D56" t="n">
-        <v>7.69</v>
+        <v>7.99</v>
       </c>
       <c r="E56" t="n">
-        <v>7.68</v>
+        <v>7.99</v>
       </c>
       <c r="F56" t="n">
-        <v>44047.7513</v>
+        <v>9393.3477</v>
       </c>
       <c r="G56" t="n">
-        <v>16011239.05697045</v>
+        <v>2306355.8581</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2734,9 +2662,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,22 +2678,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.67</v>
+        <v>7.99</v>
       </c>
       <c r="C57" t="n">
-        <v>7.67</v>
+        <v>7.99</v>
       </c>
       <c r="D57" t="n">
-        <v>7.67</v>
+        <v>7.99</v>
       </c>
       <c r="E57" t="n">
-        <v>7.67</v>
+        <v>7.99</v>
       </c>
       <c r="F57" t="n">
-        <v>23752.8411</v>
+        <v>974.1426</v>
       </c>
       <c r="G57" t="n">
-        <v>15987486.21587045</v>
+        <v>2306355.8581</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2776,9 +2702,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,22 +2718,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="C58" t="n">
-        <v>7.66</v>
+        <v>7.98</v>
       </c>
       <c r="D58" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="E58" t="n">
-        <v>7.66</v>
+        <v>7.98</v>
       </c>
       <c r="F58" t="n">
-        <v>75336.63619999999</v>
+        <v>2852.9259</v>
       </c>
       <c r="G58" t="n">
-        <v>15912149.57967045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2818,9 +2742,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2836,22 +2758,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.65</v>
+        <v>7.98</v>
       </c>
       <c r="C59" t="n">
-        <v>7.65</v>
+        <v>7.98</v>
       </c>
       <c r="D59" t="n">
-        <v>7.65</v>
+        <v>7.98</v>
       </c>
       <c r="E59" t="n">
-        <v>7.64</v>
+        <v>7.98</v>
       </c>
       <c r="F59" t="n">
-        <v>99111.2558</v>
+        <v>786.817</v>
       </c>
       <c r="G59" t="n">
-        <v>15813038.32387045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2860,9 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2878,22 +2798,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.64</v>
+        <v>7.98</v>
       </c>
       <c r="C60" t="n">
-        <v>7.64</v>
+        <v>7.98</v>
       </c>
       <c r="D60" t="n">
-        <v>7.64</v>
+        <v>7.98</v>
       </c>
       <c r="E60" t="n">
-        <v>7.64</v>
+        <v>7.98</v>
       </c>
       <c r="F60" t="n">
-        <v>504471.9858</v>
+        <v>40861.2907</v>
       </c>
       <c r="G60" t="n">
-        <v>15308566.33807045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2902,9 +2822,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,22 +2838,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.6</v>
+        <v>7.97</v>
       </c>
       <c r="C61" t="n">
-        <v>7.59</v>
+        <v>7.98</v>
       </c>
       <c r="D61" t="n">
-        <v>7.6</v>
+        <v>7.98</v>
       </c>
       <c r="E61" t="n">
-        <v>7.59</v>
+        <v>7.97</v>
       </c>
       <c r="F61" t="n">
-        <v>73873.6067</v>
+        <v>2605.9088</v>
       </c>
       <c r="G61" t="n">
-        <v>15234692.73137045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2944,9 +2862,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,22 +2878,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="C62" t="n">
-        <v>7.71</v>
+        <v>7.98</v>
       </c>
       <c r="D62" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="E62" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="F62" t="n">
-        <v>15000</v>
+        <v>2543.8596</v>
       </c>
       <c r="G62" t="n">
-        <v>15249692.73137045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2986,9 +2902,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,22 +2918,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="C63" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="D63" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="E63" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="F63" t="n">
-        <v>7807.552</v>
+        <v>3391.2906</v>
       </c>
       <c r="G63" t="n">
-        <v>15241885.17937045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3028,9 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,22 +2958,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="C64" t="n">
-        <v>7.7</v>
+        <v>7.98</v>
       </c>
       <c r="D64" t="n">
-        <v>7.7</v>
+        <v>7.98</v>
       </c>
       <c r="E64" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="F64" t="n">
-        <v>57485.2396</v>
+        <v>279.1353</v>
       </c>
       <c r="G64" t="n">
-        <v>15299370.41897045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3070,9 +2982,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,22 +2998,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="C65" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="D65" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="E65" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="F65" t="n">
-        <v>2186.0103</v>
+        <v>1481.3283</v>
       </c>
       <c r="G65" t="n">
-        <v>15301556.42927045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3112,9 +3022,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,22 +3038,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="C66" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="D66" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="E66" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="F66" t="n">
-        <v>491.8523</v>
+        <v>1713.1641</v>
       </c>
       <c r="G66" t="n">
-        <v>15301556.42927045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3154,9 +3062,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,22 +3078,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="C67" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="D67" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="E67" t="n">
-        <v>7.68</v>
+        <v>7.98</v>
       </c>
       <c r="F67" t="n">
-        <v>5000</v>
+        <v>790.6891000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>15296556.42927045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3196,9 +3102,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3214,22 +3118,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="C68" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="D68" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="E68" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="F68" t="n">
-        <v>25</v>
+        <v>749.9373000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>15296581.42927045</v>
+        <v>2303502.9322</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3238,9 +3142,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3256,22 +3158,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.7</v>
+        <v>7.86</v>
       </c>
       <c r="C69" t="n">
-        <v>7.7</v>
+        <v>7.85</v>
       </c>
       <c r="D69" t="n">
-        <v>7.7</v>
+        <v>7.86</v>
       </c>
       <c r="E69" t="n">
-        <v>7.7</v>
+        <v>7.85</v>
       </c>
       <c r="F69" t="n">
-        <v>10290</v>
+        <v>9102.0537</v>
       </c>
       <c r="G69" t="n">
-        <v>15286291.42927045</v>
+        <v>2294400.8785</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3280,9 +3182,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,22 +3198,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.7</v>
+        <v>7.85</v>
       </c>
       <c r="C70" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D70" t="n">
-        <v>7.7</v>
+        <v>7.85</v>
       </c>
       <c r="E70" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F70" t="n">
-        <v>10300</v>
+        <v>2551.2541</v>
       </c>
       <c r="G70" t="n">
-        <v>15286291.42927045</v>
+        <v>2291849.6244</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3322,9 +3222,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,22 +3238,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.72</v>
+        <v>7.76</v>
       </c>
       <c r="C71" t="n">
-        <v>7.72</v>
+        <v>7.77</v>
       </c>
       <c r="D71" t="n">
-        <v>7.72</v>
+        <v>7.77</v>
       </c>
       <c r="E71" t="n">
-        <v>7.72</v>
+        <v>7.76</v>
       </c>
       <c r="F71" t="n">
-        <v>32455.3785</v>
+        <v>136357.8041</v>
       </c>
       <c r="G71" t="n">
-        <v>15318746.80777045</v>
+        <v>2155491.8203</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3364,9 +3262,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3382,33 +3278,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="C72" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="D72" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="E72" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="F72" t="n">
-        <v>5000</v>
+        <v>3289.1416</v>
       </c>
       <c r="G72" t="n">
-        <v>15323746.80777045</v>
+        <v>2158780.9619</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
+      <c r="J72" t="n">
         <v>7.77</v>
       </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,33 +3320,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
       <c r="C73" t="n">
-        <v>7.69</v>
+        <v>7.77</v>
       </c>
       <c r="D73" t="n">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
       <c r="E73" t="n">
-        <v>7.69</v>
+        <v>7.77</v>
       </c>
       <c r="F73" t="n">
-        <v>74999.9999</v>
+        <v>5307.7436</v>
       </c>
       <c r="G73" t="n">
-        <v>15248746.80787045</v>
+        <v>2153473.2183</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J73" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,33 +3362,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.6</v>
+        <v>7.78</v>
       </c>
       <c r="C74" t="n">
-        <v>7.6</v>
+        <v>7.78</v>
       </c>
       <c r="D74" t="n">
-        <v>7.6</v>
+        <v>7.78</v>
       </c>
       <c r="E74" t="n">
-        <v>7.6</v>
+        <v>7.78</v>
       </c>
       <c r="F74" t="n">
-        <v>27.8507</v>
+        <v>2488.9328</v>
       </c>
       <c r="G74" t="n">
-        <v>15248718.95717045</v>
+        <v>2155962.1511</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="J74" t="n">
         <v>7.77</v>
       </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,33 +3404,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.6</v>
+        <v>7.82</v>
       </c>
       <c r="C75" t="n">
-        <v>7.6</v>
+        <v>7.82</v>
       </c>
       <c r="D75" t="n">
-        <v>7.6</v>
+        <v>7.82</v>
       </c>
       <c r="E75" t="n">
-        <v>7.6</v>
+        <v>7.82</v>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>1012.2762</v>
       </c>
       <c r="G75" t="n">
-        <v>15248718.95717045</v>
+        <v>2156974.427300001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J75" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,22 +3446,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="C76" t="n">
         <v>7.73</v>
       </c>
       <c r="D76" t="n">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="E76" t="n">
         <v>7.73</v>
       </c>
       <c r="F76" t="n">
-        <v>1255.6375</v>
+        <v>95300.7549</v>
       </c>
       <c r="G76" t="n">
-        <v>15249974.59467045</v>
+        <v>2061673.672400001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3574,9 +3470,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,22 +3486,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.73</v>
+        <v>7.83</v>
       </c>
       <c r="C77" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="D77" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="E77" t="n">
-        <v>7.73</v>
+        <v>7.83</v>
       </c>
       <c r="F77" t="n">
-        <v>102418.8381</v>
+        <v>88798.89539999999</v>
       </c>
       <c r="G77" t="n">
-        <v>15352393.43277045</v>
+        <v>2150472.5678</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3616,9 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3634,22 +3526,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="C78" t="n">
-        <v>7.81</v>
+        <v>7.82</v>
       </c>
       <c r="D78" t="n">
-        <v>7.84</v>
+        <v>7.82</v>
       </c>
       <c r="E78" t="n">
-        <v>7.81</v>
+        <v>7.82</v>
       </c>
       <c r="F78" t="n">
-        <v>73547.3014</v>
+        <v>4052.6122</v>
       </c>
       <c r="G78" t="n">
-        <v>15278846.13137045</v>
+        <v>2146419.9556</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3658,9 +3550,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3676,22 +3566,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="C79" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="D79" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="E79" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="F79" t="n">
-        <v>55011.3103</v>
+        <v>14020577.6476</v>
       </c>
       <c r="G79" t="n">
-        <v>15223834.82107045</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3700,9 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,7 +3606,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="C80" t="n">
         <v>7.83</v>
@@ -3727,13 +3615,13 @@
         <v>7.83</v>
       </c>
       <c r="E80" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="F80" t="n">
-        <v>3000</v>
+        <v>24512798.0064</v>
       </c>
       <c r="G80" t="n">
-        <v>15226834.82107045</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3742,9 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,19 +3649,19 @@
         <v>7.83</v>
       </c>
       <c r="C81" t="n">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="D81" t="n">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="E81" t="n">
         <v>7.83</v>
       </c>
       <c r="F81" t="n">
-        <v>125643.2072</v>
+        <v>24141391.976</v>
       </c>
       <c r="G81" t="n">
-        <v>15352478.02827045</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3784,9 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3802,22 +3686,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.88</v>
+        <v>7.83</v>
       </c>
       <c r="C82" t="n">
-        <v>7.92</v>
+        <v>7.83</v>
       </c>
       <c r="D82" t="n">
-        <v>7.92</v>
+        <v>7.83</v>
       </c>
       <c r="E82" t="n">
-        <v>7.88</v>
+        <v>7.83</v>
       </c>
       <c r="F82" t="n">
-        <v>55055</v>
+        <v>21077292.2252</v>
       </c>
       <c r="G82" t="n">
-        <v>15407533.02827045</v>
+        <v>16166997.6032</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3826,9 +3710,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,22 +3726,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.82</v>
+        <v>7.96</v>
       </c>
       <c r="C83" t="n">
-        <v>7.82</v>
+        <v>7.97</v>
       </c>
       <c r="D83" t="n">
-        <v>7.82</v>
+        <v>7.97</v>
       </c>
       <c r="E83" t="n">
-        <v>7.82</v>
+        <v>7.96</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>117321.5809</v>
       </c>
       <c r="G83" t="n">
-        <v>15407483.02827045</v>
+        <v>16284319.1841</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3868,9 +3750,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,22 +3766,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.82</v>
+        <v>7.97</v>
       </c>
       <c r="C84" t="n">
-        <v>7.91</v>
+        <v>7.79</v>
       </c>
       <c r="D84" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="E84" t="n">
-        <v>7.82</v>
+        <v>7.79</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>15407983.02827045</v>
+        <v>16284299.1841</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3910,9 +3790,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3928,22 +3806,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="C85" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="D85" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="E85" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="F85" t="n">
-        <v>8457.0733</v>
+        <v>31536.6687</v>
       </c>
       <c r="G85" t="n">
-        <v>15407983.02827045</v>
+        <v>16315835.8528</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3952,9 +3830,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3970,22 +3846,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="C86" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="D86" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="E86" t="n">
-        <v>7.91</v>
+        <v>7.97</v>
       </c>
       <c r="F86" t="n">
-        <v>14461.5929</v>
+        <v>32875.9096</v>
       </c>
       <c r="G86" t="n">
-        <v>15407983.02827045</v>
+        <v>16315835.8528</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3994,9 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,22 +3886,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="C87" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="D87" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="E87" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="F87" t="n">
-        <v>7768.1415</v>
+        <v>117321.5809</v>
       </c>
       <c r="G87" t="n">
-        <v>15407983.02827045</v>
+        <v>16198514.2719</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4036,9 +3910,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4054,22 +3926,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="C88" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="D88" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="E88" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="F88" t="n">
-        <v>3485.7025</v>
+        <v>2515.723270440252</v>
       </c>
       <c r="G88" t="n">
-        <v>15404497.32577045</v>
+        <v>16201029.99517044</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4078,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,22 +3966,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="C89" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="D89" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="E89" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="F89" t="n">
-        <v>55000</v>
+        <v>29625.2516</v>
       </c>
       <c r="G89" t="n">
-        <v>15349497.32577045</v>
+        <v>16171404.74357044</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4120,9 +3990,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,22 +4006,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="C90" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D90" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E90" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="F90" t="n">
-        <v>58597.7977</v>
+        <v>5724.3427</v>
       </c>
       <c r="G90" t="n">
-        <v>15408095.12347045</v>
+        <v>16177129.08627044</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4162,9 +4030,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,10 +4058,10 @@
         <v>7.9</v>
       </c>
       <c r="F91" t="n">
-        <v>18213.4562</v>
+        <v>142768.5458</v>
       </c>
       <c r="G91" t="n">
-        <v>15408095.12347045</v>
+        <v>16034360.54047044</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4204,9 +4070,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,22 +4086,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C92" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D92" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E92" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F92" t="n">
-        <v>182943.6007</v>
+        <v>11409.3552</v>
       </c>
       <c r="G92" t="n">
-        <v>15408095.12347045</v>
+        <v>16045769.89567044</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4246,9 +4110,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,22 +4126,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="C93" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="D93" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="E93" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="F93" t="n">
-        <v>1784.8214</v>
+        <v>189318.8775</v>
       </c>
       <c r="G93" t="n">
-        <v>15409879.94487045</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4288,9 +4150,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,22 +4166,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="C94" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="D94" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="E94" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="F94" t="n">
-        <v>40782.736</v>
+        <v>65920.1201</v>
       </c>
       <c r="G94" t="n">
-        <v>15409879.94487045</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4330,9 +4190,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4348,22 +4206,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="C95" t="n">
-        <v>7.92</v>
+        <v>7.84</v>
       </c>
       <c r="D95" t="n">
-        <v>7.92</v>
+        <v>7.84</v>
       </c>
       <c r="E95" t="n">
-        <v>7.91</v>
+        <v>7.84</v>
       </c>
       <c r="F95" t="n">
-        <v>558208.3501</v>
+        <v>4190.1572</v>
       </c>
       <c r="G95" t="n">
-        <v>15968088.29497045</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4372,9 +4230,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,22 +4246,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>7.84</v>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>7.85</v>
       </c>
       <c r="E96" t="n">
-        <v>7.92</v>
+        <v>7.84</v>
       </c>
       <c r="F96" t="n">
-        <v>53285.4074</v>
+        <v>7393.9784</v>
       </c>
       <c r="G96" t="n">
-        <v>16021373.70237045</v>
+        <v>15856451.01817044</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4414,9 +4270,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,22 +4286,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8</v>
+        <v>7.73</v>
       </c>
       <c r="C97" t="n">
-        <v>8.1</v>
+        <v>7.71</v>
       </c>
       <c r="D97" t="n">
-        <v>8.1</v>
+        <v>7.73</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>7.71</v>
       </c>
       <c r="F97" t="n">
-        <v>48668.65</v>
+        <v>20578.6106</v>
       </c>
       <c r="G97" t="n">
-        <v>16070042.35237045</v>
+        <v>15835872.40757044</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4456,9 +4310,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4474,22 +4326,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8.06</v>
+        <v>7.72</v>
       </c>
       <c r="C98" t="n">
-        <v>8.06</v>
+        <v>7.72</v>
       </c>
       <c r="D98" t="n">
-        <v>8.06</v>
+        <v>7.72</v>
       </c>
       <c r="E98" t="n">
-        <v>8.06</v>
+        <v>7.72</v>
       </c>
       <c r="F98" t="n">
-        <v>7457.813</v>
+        <v>2728.5995</v>
       </c>
       <c r="G98" t="n">
-        <v>16062584.53937045</v>
+        <v>15838601.00707044</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4498,9 +4350,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4516,22 +4366,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.08</v>
+        <v>7.71</v>
       </c>
       <c r="C99" t="n">
-        <v>8.1</v>
+        <v>7.71</v>
       </c>
       <c r="D99" t="n">
-        <v>8.1</v>
+        <v>7.71</v>
       </c>
       <c r="E99" t="n">
-        <v>8.08</v>
+        <v>7.71</v>
       </c>
       <c r="F99" t="n">
-        <v>370748.7468</v>
+        <v>2728.5995</v>
       </c>
       <c r="G99" t="n">
-        <v>16433333.28617045</v>
+        <v>15835872.40757044</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4540,9 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,22 +4406,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.1</v>
+        <v>7.71</v>
       </c>
       <c r="C100" t="n">
-        <v>8.1</v>
+        <v>7.69</v>
       </c>
       <c r="D100" t="n">
-        <v>8.1</v>
+        <v>7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>8.1</v>
+        <v>7.69</v>
       </c>
       <c r="F100" t="n">
-        <v>64303.4505</v>
+        <v>171899.8623</v>
       </c>
       <c r="G100" t="n">
-        <v>16433333.28617045</v>
+        <v>15663972.54527044</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4582,9 +4430,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4600,22 +4446,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.130000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C101" t="n">
-        <v>8.130000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="D101" t="n">
-        <v>8.130000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="E101" t="n">
-        <v>8.130000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F101" t="n">
-        <v>125.3241</v>
+        <v>73334.2856</v>
       </c>
       <c r="G101" t="n">
-        <v>16433458.61027045</v>
+        <v>15737306.83087044</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4624,9 +4470,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,22 +4486,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8.07</v>
+        <v>7.69</v>
       </c>
       <c r="C102" t="n">
-        <v>8.06</v>
+        <v>7.69</v>
       </c>
       <c r="D102" t="n">
-        <v>8.07</v>
+        <v>7.69</v>
       </c>
       <c r="E102" t="n">
-        <v>8.06</v>
+        <v>7.69</v>
       </c>
       <c r="F102" t="n">
-        <v>57103.3402</v>
+        <v>35898.2272</v>
       </c>
       <c r="G102" t="n">
-        <v>16376355.27007045</v>
+        <v>15701408.60367044</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4666,9 +4510,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,22 +4526,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8.06</v>
+        <v>7.65</v>
       </c>
       <c r="C103" t="n">
-        <v>8.109999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="D103" t="n">
-        <v>8.109999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="E103" t="n">
-        <v>7.93</v>
+        <v>7.64</v>
       </c>
       <c r="F103" t="n">
-        <v>11120.8134</v>
+        <v>163184.8129</v>
       </c>
       <c r="G103" t="n">
-        <v>16387476.08347045</v>
+        <v>15538223.79077045</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4708,9 +4550,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4726,22 +4566,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8.039999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="C104" t="n">
-        <v>8.1</v>
+        <v>7.65</v>
       </c>
       <c r="D104" t="n">
-        <v>8.1</v>
+        <v>7.65</v>
       </c>
       <c r="E104" t="n">
-        <v>8.039999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="F104" t="n">
-        <v>183287.6665</v>
+        <v>28916.5262</v>
       </c>
       <c r="G104" t="n">
-        <v>16204188.41697045</v>
+        <v>15567140.31697045</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4750,9 +4590,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4768,33 +4606,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8.109999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="C105" t="n">
-        <v>8.109999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="D105" t="n">
-        <v>8.109999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="E105" t="n">
-        <v>8.109999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="F105" t="n">
-        <v>5255.324</v>
+        <v>16809.811</v>
       </c>
       <c r="G105" t="n">
-        <v>16209443.74097045</v>
+        <v>15550330.50597044</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J105" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,33 +4648,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.140000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="C106" t="n">
-        <v>8.140000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="D106" t="n">
-        <v>8.140000000000001</v>
+        <v>7.66</v>
       </c>
       <c r="E106" t="n">
-        <v>8.140000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>411306.6717</v>
       </c>
       <c r="G106" t="n">
-        <v>16210443.74097045</v>
+        <v>15961637.17767045</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J106" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,22 +4690,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8.01</v>
+        <v>7.66</v>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>7.65</v>
       </c>
       <c r="D107" t="n">
-        <v>8.01</v>
+        <v>7.66</v>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>7.65</v>
       </c>
       <c r="F107" t="n">
-        <v>61409.9435</v>
+        <v>58624.5401</v>
       </c>
       <c r="G107" t="n">
-        <v>16149033.79747045</v>
+        <v>15961637.17767045</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4876,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,33 +4730,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.83</v>
+        <v>7.67</v>
       </c>
       <c r="C108" t="n">
-        <v>7.77</v>
+        <v>7.67</v>
       </c>
       <c r="D108" t="n">
-        <v>7.83</v>
+        <v>7.67</v>
       </c>
       <c r="E108" t="n">
-        <v>7.77</v>
+        <v>7.67</v>
       </c>
       <c r="F108" t="n">
-        <v>7000</v>
+        <v>8857.8878</v>
       </c>
       <c r="G108" t="n">
-        <v>16142033.79747045</v>
+        <v>15970495.06547045</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J108" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,33 +4772,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.95</v>
+        <v>7.67</v>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="E109" t="n">
-        <v>7.95</v>
+        <v>7.67</v>
       </c>
       <c r="F109" t="n">
-        <v>3000</v>
+        <v>275858.5796</v>
       </c>
       <c r="G109" t="n">
-        <v>16145033.79747045</v>
+        <v>16246353.64507045</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J109" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,33 +4814,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.029999999999999</v>
+        <v>7.66</v>
       </c>
       <c r="C110" t="n">
-        <v>8.1</v>
+        <v>7.66</v>
       </c>
       <c r="D110" t="n">
-        <v>8.1</v>
+        <v>7.66</v>
       </c>
       <c r="E110" t="n">
-        <v>8.029999999999999</v>
+        <v>7.66</v>
       </c>
       <c r="F110" t="n">
-        <v>307910.2543</v>
+        <v>10.012</v>
       </c>
       <c r="G110" t="n">
-        <v>16452944.05177045</v>
+        <v>16246343.63307045</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J110" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,22 +4856,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8</v>
+        <v>7.73</v>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>7.73</v>
       </c>
       <c r="D111" t="n">
-        <v>8</v>
+        <v>7.73</v>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>7.73</v>
       </c>
       <c r="F111" t="n">
-        <v>6536.052</v>
+        <v>45</v>
       </c>
       <c r="G111" t="n">
-        <v>16446407.99977045</v>
+        <v>16246388.63307045</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5044,9 +4880,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,22 +4896,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="C112" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="D112" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="E112" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>52764.6287</v>
       </c>
       <c r="G112" t="n">
-        <v>16444407.99977045</v>
+        <v>16246388.63307045</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5086,9 +4920,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5104,22 +4936,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.99</v>
+        <v>7.7</v>
       </c>
       <c r="C113" t="n">
-        <v>7.99</v>
+        <v>7.7</v>
       </c>
       <c r="D113" t="n">
-        <v>7.99</v>
+        <v>7.7</v>
       </c>
       <c r="E113" t="n">
-        <v>7.99</v>
+        <v>7.7</v>
       </c>
       <c r="F113" t="n">
-        <v>1799.1358</v>
+        <v>61497.0361</v>
       </c>
       <c r="G113" t="n">
-        <v>16444407.99977045</v>
+        <v>16184891.59697045</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5128,9 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,22 +4976,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8</v>
+        <v>7.72</v>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>7.71</v>
       </c>
       <c r="D114" t="n">
-        <v>8</v>
+        <v>7.72</v>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>7.71</v>
       </c>
       <c r="F114" t="n">
-        <v>53201.4039</v>
+        <v>23929.0047</v>
       </c>
       <c r="G114" t="n">
-        <v>16497609.40367045</v>
+        <v>16208820.60167045</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5170,9 +5000,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,22 +5016,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="C115" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="D115" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="E115" t="n">
-        <v>7.99</v>
+        <v>7.71</v>
       </c>
       <c r="F115" t="n">
-        <v>2736</v>
+        <v>37550.9951</v>
       </c>
       <c r="G115" t="n">
-        <v>16494873.40367045</v>
+        <v>16208820.60167045</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5212,9 +5040,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,22 +5056,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.99</v>
+        <v>7.76</v>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>7.76</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>7.76</v>
       </c>
       <c r="E116" t="n">
-        <v>7.99</v>
+        <v>7.76</v>
       </c>
       <c r="F116" t="n">
-        <v>59375.0001</v>
+        <v>1100</v>
       </c>
       <c r="G116" t="n">
-        <v>16554248.40377045</v>
+        <v>16209920.60167045</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5254,9 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5272,22 +5096,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>7.76</v>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>7.76</v>
       </c>
       <c r="D117" t="n">
-        <v>8</v>
+        <v>7.76</v>
       </c>
       <c r="E117" t="n">
-        <v>8</v>
+        <v>7.76</v>
       </c>
       <c r="F117" t="n">
-        <v>108167.465</v>
+        <v>1619.5533</v>
       </c>
       <c r="G117" t="n">
-        <v>16554248.40377045</v>
+        <v>16209920.60167045</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5296,9 +5120,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5314,22 +5136,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.07</v>
+        <v>7.76</v>
       </c>
       <c r="C118" t="n">
-        <v>8.07</v>
+        <v>7.76</v>
       </c>
       <c r="D118" t="n">
-        <v>8.07</v>
+        <v>7.76</v>
       </c>
       <c r="E118" t="n">
-        <v>8.07</v>
+        <v>7.76</v>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>18380.4467</v>
       </c>
       <c r="G118" t="n">
-        <v>16556248.40377045</v>
+        <v>16209920.60167045</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5338,9 +5160,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,22 +5176,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.140000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="C119" t="n">
-        <v>8.140000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="D119" t="n">
-        <v>8.140000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="E119" t="n">
-        <v>8.140000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="F119" t="n">
-        <v>14962.5</v>
+        <v>40712.375</v>
       </c>
       <c r="G119" t="n">
-        <v>16571210.90377045</v>
+        <v>16169208.22667045</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5380,9 +5200,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5398,22 +5216,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8.15</v>
+        <v>7.74</v>
       </c>
       <c r="C120" t="n">
-        <v>8.15</v>
+        <v>7.73</v>
       </c>
       <c r="D120" t="n">
-        <v>8.15</v>
+        <v>7.74</v>
       </c>
       <c r="E120" t="n">
-        <v>8.15</v>
+        <v>7.73</v>
       </c>
       <c r="F120" t="n">
-        <v>22925.6513</v>
+        <v>90615.1271</v>
       </c>
       <c r="G120" t="n">
-        <v>16594136.55507045</v>
+        <v>16078593.09957045</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5422,9 +5240,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5440,22 +5256,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>8.17</v>
+        <v>7.71</v>
       </c>
       <c r="C121" t="n">
-        <v>8.18</v>
+        <v>7.71</v>
       </c>
       <c r="D121" t="n">
-        <v>8.18</v>
+        <v>7.71</v>
       </c>
       <c r="E121" t="n">
-        <v>8.17</v>
+        <v>7.71</v>
       </c>
       <c r="F121" t="n">
-        <v>37281.7876</v>
+        <v>1050</v>
       </c>
       <c r="G121" t="n">
-        <v>16631418.34267045</v>
+        <v>16077543.09957045</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5464,9 +5280,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,22 +5296,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.18</v>
+        <v>7.67</v>
       </c>
       <c r="C122" t="n">
-        <v>8.199999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="D122" t="n">
-        <v>8.199999999999999</v>
+        <v>7.67</v>
       </c>
       <c r="E122" t="n">
-        <v>8.18</v>
+        <v>7.64</v>
       </c>
       <c r="F122" t="n">
-        <v>488150</v>
+        <v>60828.7663</v>
       </c>
       <c r="G122" t="n">
-        <v>17119568.34267045</v>
+        <v>16016714.33327045</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5506,9 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,22 +5336,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.140000000000001</v>
+        <v>7.71</v>
       </c>
       <c r="C123" t="n">
-        <v>8.279999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="D123" t="n">
-        <v>8.279999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="E123" t="n">
-        <v>8.140000000000001</v>
+        <v>7.71</v>
       </c>
       <c r="F123" t="n">
-        <v>458879.2328</v>
+        <v>5476.9724</v>
       </c>
       <c r="G123" t="n">
-        <v>17578447.57547045</v>
+        <v>16022191.30567045</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5548,9 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5566,22 +5376,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.279999999999999</v>
+        <v>7.72</v>
       </c>
       <c r="C124" t="n">
-        <v>8.31</v>
+        <v>7.71</v>
       </c>
       <c r="D124" t="n">
-        <v>8.31</v>
+        <v>7.72</v>
       </c>
       <c r="E124" t="n">
-        <v>8.279999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="F124" t="n">
-        <v>9520</v>
+        <v>1931.0586</v>
       </c>
       <c r="G124" t="n">
-        <v>17587967.57547045</v>
+        <v>16022191.30567045</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5590,9 +5400,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5608,22 +5416,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8.31</v>
+        <v>7.71</v>
       </c>
       <c r="C125" t="n">
-        <v>8.43</v>
+        <v>7.71</v>
       </c>
       <c r="D125" t="n">
-        <v>8.43</v>
+        <v>7.71</v>
       </c>
       <c r="E125" t="n">
-        <v>8.31</v>
+        <v>7.71</v>
       </c>
       <c r="F125" t="n">
-        <v>3051.7598</v>
+        <v>261.6083</v>
       </c>
       <c r="G125" t="n">
-        <v>17591019.33527045</v>
+        <v>16022191.30567045</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5632,9 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,22 +5456,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="C126" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="D126" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="E126" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="F126" t="n">
-        <v>99.2402</v>
+        <v>55000</v>
       </c>
       <c r="G126" t="n">
-        <v>17590920.09507044</v>
+        <v>15967191.30567045</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5674,9 +5480,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5692,22 +5496,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.4</v>
+        <v>7.69</v>
       </c>
       <c r="C127" t="n">
-        <v>8.4</v>
+        <v>7.68</v>
       </c>
       <c r="D127" t="n">
-        <v>8.4</v>
+        <v>7.69</v>
       </c>
       <c r="E127" t="n">
-        <v>8.4</v>
+        <v>7.68</v>
       </c>
       <c r="F127" t="n">
-        <v>16075.7142</v>
+        <v>44047.7513</v>
       </c>
       <c r="G127" t="n">
-        <v>17590920.09507044</v>
+        <v>16011239.05697045</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5716,9 +5520,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,22 +5536,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="C128" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="D128" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="E128" t="n">
-        <v>8.4</v>
+        <v>7.67</v>
       </c>
       <c r="F128" t="n">
-        <v>4405.2178</v>
+        <v>23752.8411</v>
       </c>
       <c r="G128" t="n">
-        <v>17590920.09507044</v>
+        <v>15987486.21587045</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5758,9 +5560,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,22 +5576,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8.42</v>
+        <v>7.67</v>
       </c>
       <c r="C129" t="n">
-        <v>8.42</v>
+        <v>7.66</v>
       </c>
       <c r="D129" t="n">
-        <v>8.42</v>
+        <v>7.67</v>
       </c>
       <c r="E129" t="n">
-        <v>8.42</v>
+        <v>7.66</v>
       </c>
       <c r="F129" t="n">
-        <v>11</v>
+        <v>75336.63619999999</v>
       </c>
       <c r="G129" t="n">
-        <v>17590931.09507044</v>
+        <v>15912149.57967045</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5800,9 +5600,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5818,22 +5616,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.380000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="C130" t="n">
-        <v>8.380000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="D130" t="n">
-        <v>8.380000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="E130" t="n">
-        <v>8.380000000000001</v>
+        <v>7.64</v>
       </c>
       <c r="F130" t="n">
-        <v>1111</v>
+        <v>99111.2558</v>
       </c>
       <c r="G130" t="n">
-        <v>17589820.09507044</v>
+        <v>15813038.32387045</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5842,9 +5640,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,22 +5656,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.359999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="C131" t="n">
-        <v>8.4</v>
+        <v>7.64</v>
       </c>
       <c r="D131" t="n">
-        <v>8.4</v>
+        <v>7.64</v>
       </c>
       <c r="E131" t="n">
-        <v>8.359999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="F131" t="n">
-        <v>25091.4292</v>
+        <v>504471.9858</v>
       </c>
       <c r="G131" t="n">
-        <v>17614911.52427045</v>
+        <v>15308566.33807045</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5884,9 +5680,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,76 +5696,76 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.359999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="C132" t="n">
-        <v>8.35</v>
+        <v>7.59</v>
       </c>
       <c r="D132" t="n">
-        <v>8.359999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E132" t="n">
-        <v>8.35</v>
+        <v>7.59</v>
       </c>
       <c r="F132" t="n">
-        <v>7128.9592</v>
+        <v>73873.6067</v>
       </c>
       <c r="G132" t="n">
-        <v>17607782.56507045</v>
+        <v>15234692.73137045</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>1.069646074646075</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1.006435006435006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.42</v>
+        <v>7.67</v>
       </c>
       <c r="C133" t="n">
-        <v>8.42</v>
+        <v>7.71</v>
       </c>
       <c r="D133" t="n">
-        <v>8.42</v>
+        <v>7.72</v>
       </c>
       <c r="E133" t="n">
-        <v>8.42</v>
+        <v>7.67</v>
       </c>
       <c r="F133" t="n">
-        <v>11</v>
+        <v>15000</v>
       </c>
       <c r="G133" t="n">
-        <v>17607793.56507045</v>
+        <v>15249692.73137045</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5982,32 +5776,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8.390000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="C134" t="n">
-        <v>8.390000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="D134" t="n">
-        <v>8.390000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="E134" t="n">
-        <v>8.390000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="F134" t="n">
-        <v>6975.3277</v>
+        <v>7807.552</v>
       </c>
       <c r="G134" t="n">
-        <v>17600818.23737045</v>
+        <v>15241885.17937045</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6018,32 +5816,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8.42</v>
+        <v>7.68</v>
       </c>
       <c r="C135" t="n">
-        <v>8.42</v>
+        <v>7.7</v>
       </c>
       <c r="D135" t="n">
-        <v>8.42</v>
+        <v>7.7</v>
       </c>
       <c r="E135" t="n">
-        <v>8.42</v>
+        <v>7.68</v>
       </c>
       <c r="F135" t="n">
-        <v>11</v>
+        <v>57485.2396</v>
       </c>
       <c r="G135" t="n">
-        <v>17600829.23737045</v>
+        <v>15299370.41897045</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6054,32 +5856,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8.35</v>
+        <v>7.72</v>
       </c>
       <c r="C136" t="n">
-        <v>8.35</v>
+        <v>7.72</v>
       </c>
       <c r="D136" t="n">
-        <v>8.35</v>
+        <v>7.72</v>
       </c>
       <c r="E136" t="n">
-        <v>8.300000000000001</v>
+        <v>7.72</v>
       </c>
       <c r="F136" t="n">
-        <v>601</v>
+        <v>2186.0103</v>
       </c>
       <c r="G136" t="n">
-        <v>17600228.23737045</v>
+        <v>15301556.42927045</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6090,32 +5896,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8.34</v>
+        <v>7.72</v>
       </c>
       <c r="C137" t="n">
-        <v>8.34</v>
+        <v>7.72</v>
       </c>
       <c r="D137" t="n">
-        <v>8.34</v>
+        <v>7.72</v>
       </c>
       <c r="E137" t="n">
-        <v>8.34</v>
+        <v>7.72</v>
       </c>
       <c r="F137" t="n">
-        <v>11</v>
+        <v>491.8523</v>
       </c>
       <c r="G137" t="n">
-        <v>17600217.23737045</v>
+        <v>15301556.42927045</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6126,32 +5936,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.34</v>
+        <v>7.68</v>
       </c>
       <c r="C138" t="n">
-        <v>8.34</v>
+        <v>7.68</v>
       </c>
       <c r="D138" t="n">
-        <v>8.34</v>
+        <v>7.68</v>
       </c>
       <c r="E138" t="n">
-        <v>8.34</v>
+        <v>7.68</v>
       </c>
       <c r="F138" t="n">
-        <v>56500.1199</v>
+        <v>5000</v>
       </c>
       <c r="G138" t="n">
-        <v>17600217.23737045</v>
+        <v>15296556.42927045</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6162,32 +5976,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8.35</v>
+        <v>7.72</v>
       </c>
       <c r="C139" t="n">
-        <v>8.35</v>
+        <v>7.72</v>
       </c>
       <c r="D139" t="n">
-        <v>8.35</v>
+        <v>7.72</v>
       </c>
       <c r="E139" t="n">
-        <v>8.35</v>
+        <v>7.72</v>
       </c>
       <c r="F139" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G139" t="n">
-        <v>17600228.23737045</v>
+        <v>15296581.42927045</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6198,32 +6016,36 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8.35</v>
+        <v>7.7</v>
       </c>
       <c r="C140" t="n">
-        <v>8.35</v>
+        <v>7.7</v>
       </c>
       <c r="D140" t="n">
-        <v>8.35</v>
+        <v>7.7</v>
       </c>
       <c r="E140" t="n">
-        <v>8.35</v>
+        <v>7.7</v>
       </c>
       <c r="F140" t="n">
-        <v>8811.137699999999</v>
+        <v>10290</v>
       </c>
       <c r="G140" t="n">
-        <v>17600228.23737045</v>
+        <v>15286291.42927045</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6234,32 +6056,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="C141" t="n">
-        <v>8.23</v>
+        <v>7.7</v>
       </c>
       <c r="D141" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="E141" t="n">
-        <v>8.23</v>
+        <v>7.7</v>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>10300</v>
       </c>
       <c r="G141" t="n">
-        <v>17598228.23737045</v>
+        <v>15286291.42927045</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6270,32 +6096,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.23</v>
+        <v>7.72</v>
       </c>
       <c r="C142" t="n">
-        <v>8.23</v>
+        <v>7.72</v>
       </c>
       <c r="D142" t="n">
-        <v>8.23</v>
+        <v>7.72</v>
       </c>
       <c r="E142" t="n">
-        <v>8.23</v>
+        <v>7.72</v>
       </c>
       <c r="F142" t="n">
-        <v>94.48399999999999</v>
+        <v>32455.3785</v>
       </c>
       <c r="G142" t="n">
-        <v>17598228.23737045</v>
+        <v>15318746.80777045</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6306,32 +6136,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.17</v>
+        <v>7.73</v>
       </c>
       <c r="C143" t="n">
-        <v>8.029999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="D143" t="n">
-        <v>8.17</v>
+        <v>7.73</v>
       </c>
       <c r="E143" t="n">
-        <v>8.029999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="F143" t="n">
-        <v>472925.7168</v>
+        <v>5000</v>
       </c>
       <c r="G143" t="n">
-        <v>17125302.52057045</v>
+        <v>15323746.80777045</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6342,22 +6176,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8.109999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="C144" t="n">
-        <v>8.23</v>
+        <v>7.69</v>
       </c>
       <c r="D144" t="n">
-        <v>8.23</v>
+        <v>7.7</v>
       </c>
       <c r="E144" t="n">
-        <v>8.109999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="F144" t="n">
-        <v>27622.588</v>
+        <v>74999.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>17152925.10857045</v>
+        <v>15248746.80787045</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6367,7 +6201,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6378,22 +6216,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="C145" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="D145" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="E145" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="F145" t="n">
-        <v>308</v>
+        <v>27.8507</v>
       </c>
       <c r="G145" t="n">
-        <v>17152617.10857045</v>
+        <v>15248718.95717045</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6403,7 +6241,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6414,32 +6256,38 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.109999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="C146" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="D146" t="n">
-        <v>8.109999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E146" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="F146" t="n">
-        <v>9537.7788</v>
+        <v>30</v>
       </c>
       <c r="G146" t="n">
-        <v>17152617.10857045</v>
+        <v>15248718.95717045</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>7.6</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6450,32 +6298,38 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.220000000000001</v>
+        <v>7.73</v>
       </c>
       <c r="C147" t="n">
-        <v>8.220000000000001</v>
+        <v>7.73</v>
       </c>
       <c r="D147" t="n">
-        <v>8.220000000000001</v>
+        <v>7.73</v>
       </c>
       <c r="E147" t="n">
-        <v>8.220000000000001</v>
+        <v>7.73</v>
       </c>
       <c r="F147" t="n">
-        <v>9383.454900000001</v>
+        <v>1255.6375</v>
       </c>
       <c r="G147" t="n">
-        <v>17162000.56347045</v>
+        <v>15249974.59467045</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>7.6</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6486,32 +6340,38 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.109999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="C148" t="n">
-        <v>8.109999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="D148" t="n">
-        <v>8.109999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="E148" t="n">
-        <v>8.109999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="F148" t="n">
-        <v>645.4254</v>
+        <v>102418.8381</v>
       </c>
       <c r="G148" t="n">
-        <v>17161355.13807045</v>
+        <v>15352393.43277045</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>7.73</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6522,32 +6382,38 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.07</v>
+        <v>7.83</v>
       </c>
       <c r="C149" t="n">
-        <v>7.92</v>
+        <v>7.81</v>
       </c>
       <c r="D149" t="n">
-        <v>8.07</v>
+        <v>7.84</v>
       </c>
       <c r="E149" t="n">
-        <v>7.92</v>
+        <v>7.81</v>
       </c>
       <c r="F149" t="n">
-        <v>16035.5249</v>
+        <v>73547.3014</v>
       </c>
       <c r="G149" t="n">
-        <v>17145319.61317044</v>
+        <v>15278846.13137045</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>7.82</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6558,32 +6424,38 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="C150" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="D150" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="E150" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="F150" t="n">
-        <v>2976.9661</v>
+        <v>55011.3103</v>
       </c>
       <c r="G150" t="n">
-        <v>17148296.57927044</v>
+        <v>15223834.82107045</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>7.81</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6594,32 +6466,38 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7.97</v>
+        <v>7.82</v>
       </c>
       <c r="C151" t="n">
-        <v>7.97</v>
+        <v>7.83</v>
       </c>
       <c r="D151" t="n">
-        <v>7.97</v>
+        <v>7.83</v>
       </c>
       <c r="E151" t="n">
-        <v>7.97</v>
+        <v>7.82</v>
       </c>
       <c r="F151" t="n">
-        <v>64621.0232</v>
+        <v>3000</v>
       </c>
       <c r="G151" t="n">
-        <v>17148296.57927044</v>
+        <v>15226834.82107045</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>7.8</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6630,36 +6508,2796 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F152" t="n">
+        <v>125643.2072</v>
+      </c>
+      <c r="G152" t="n">
+        <v>15352478.02827045</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="F153" t="n">
+        <v>55055</v>
+      </c>
+      <c r="G153" t="n">
+        <v>15407533.02827045</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="F154" t="n">
+        <v>50</v>
+      </c>
+      <c r="G154" t="n">
+        <v>15407483.02827045</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="F155" t="n">
+        <v>500</v>
+      </c>
+      <c r="G155" t="n">
+        <v>15407983.02827045</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D156" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8457.0733</v>
+      </c>
+      <c r="G156" t="n">
+        <v>15407983.02827045</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D157" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14461.5929</v>
+      </c>
+      <c r="G157" t="n">
+        <v>15407983.02827045</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7768.1415</v>
+      </c>
+      <c r="G158" t="n">
+        <v>15407983.02827045</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3485.7025</v>
+      </c>
+      <c r="G159" t="n">
+        <v>15404497.32577045</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E160" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F160" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>15349497.32577045</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C161" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F161" t="n">
+        <v>58597.7977</v>
+      </c>
+      <c r="G161" t="n">
+        <v>15408095.12347045</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18213.4562</v>
+      </c>
+      <c r="G162" t="n">
+        <v>15408095.12347045</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D163" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F163" t="n">
+        <v>182943.6007</v>
+      </c>
+      <c r="G163" t="n">
+        <v>15408095.12347045</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1784.8214</v>
+      </c>
+      <c r="G164" t="n">
+        <v>15409879.94487045</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C165" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D165" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E165" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F165" t="n">
+        <v>40782.736</v>
+      </c>
+      <c r="G165" t="n">
+        <v>15409879.94487045</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E166" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F166" t="n">
+        <v>558208.3501</v>
+      </c>
+      <c r="G166" t="n">
+        <v>15968088.29497045</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C167" t="n">
+        <v>8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F167" t="n">
+        <v>53285.4074</v>
+      </c>
+      <c r="G167" t="n">
+        <v>16021373.70237045</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>48668.65</v>
+      </c>
+      <c r="G168" t="n">
+        <v>16070042.35237045</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C169" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D169" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7457.813</v>
+      </c>
+      <c r="G169" t="n">
+        <v>16062584.53937045</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C170" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F170" t="n">
+        <v>370748.7468</v>
+      </c>
+      <c r="G170" t="n">
+        <v>16433333.28617045</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>64303.4505</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16433333.28617045</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>125.3241</v>
+      </c>
+      <c r="G172" t="n">
+        <v>16433458.61027045</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>57103.3402</v>
+      </c>
+      <c r="G173" t="n">
+        <v>16376355.27007045</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11120.8134</v>
+      </c>
+      <c r="G174" t="n">
+        <v>16387476.08347045</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>183287.6665</v>
+      </c>
+      <c r="G175" t="n">
+        <v>16204188.41697045</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5255.324</v>
+      </c>
+      <c r="G176" t="n">
+        <v>16209443.74097045</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C177" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D177" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>16210443.74097045</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C178" t="n">
+        <v>8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E178" t="n">
+        <v>8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>61409.9435</v>
+      </c>
+      <c r="G178" t="n">
+        <v>16149033.79747045</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D179" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E179" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>16142033.79747045</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>16145033.79747045</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>307910.2543</v>
+      </c>
+      <c r="G181" t="n">
+        <v>16452944.05177045</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6536.052</v>
+      </c>
+      <c r="G182" t="n">
+        <v>16446407.99977045</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D183" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E183" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>16444407.99977045</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D184" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E184" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1799.1358</v>
+      </c>
+      <c r="G184" t="n">
+        <v>16444407.99977045</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>53201.4039</v>
+      </c>
+      <c r="G185" t="n">
+        <v>16497609.40367045</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C186" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D186" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E186" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2736</v>
+      </c>
+      <c r="G186" t="n">
+        <v>16494873.40367045</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>8</v>
+      </c>
+      <c r="E187" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F187" t="n">
+        <v>59375.0001</v>
+      </c>
+      <c r="G187" t="n">
+        <v>16554248.40377045</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>108167.465</v>
+      </c>
+      <c r="G188" t="n">
+        <v>16554248.40377045</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D189" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="E189" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>16556248.40377045</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E190" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F190" t="n">
+        <v>14962.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>16571210.90377045</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E191" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F191" t="n">
+        <v>22925.6513</v>
+      </c>
+      <c r="G191" t="n">
+        <v>16594136.55507045</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E192" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="F192" t="n">
+        <v>37281.7876</v>
+      </c>
+      <c r="G192" t="n">
+        <v>16631418.34267045</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F193" t="n">
+        <v>488150</v>
+      </c>
+      <c r="G193" t="n">
+        <v>17119568.34267045</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C194" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D194" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F194" t="n">
+        <v>458879.2328</v>
+      </c>
+      <c r="G194" t="n">
+        <v>17578447.57547045</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F195" t="n">
+        <v>9520</v>
+      </c>
+      <c r="G195" t="n">
+        <v>17587967.57547045</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="D196" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E196" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3051.7598</v>
+      </c>
+      <c r="G196" t="n">
+        <v>17591019.33527045</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>99.2402</v>
+      </c>
+      <c r="G197" t="n">
+        <v>17590920.09507044</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C198" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F198" t="n">
+        <v>16075.7142</v>
+      </c>
+      <c r="G198" t="n">
+        <v>17590920.09507044</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D199" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E199" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4405.2178</v>
+      </c>
+      <c r="G199" t="n">
+        <v>17590920.09507044</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="C200" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D200" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="E200" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11</v>
+      </c>
+      <c r="G200" t="n">
+        <v>17590931.09507044</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="C201" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G201" t="n">
+        <v>17589820.09507044</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E202" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>25091.4292</v>
+      </c>
+      <c r="G202" t="n">
+        <v>17614911.52427045</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D203" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7128.9592</v>
+      </c>
+      <c r="G203" t="n">
+        <v>17607782.56507045</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D204" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="E204" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F204" t="n">
+        <v>11</v>
+      </c>
+      <c r="G204" t="n">
+        <v>17607793.56507045</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="E205" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6975.3277</v>
+      </c>
+      <c r="G205" t="n">
+        <v>17600818.23737045</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="C206" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D206" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="E206" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11</v>
+      </c>
+      <c r="G206" t="n">
+        <v>17600829.23737045</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D207" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="E207" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F207" t="n">
+        <v>601</v>
+      </c>
+      <c r="G207" t="n">
+        <v>17600228.23737045</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="D208" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E208" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F208" t="n">
+        <v>11</v>
+      </c>
+      <c r="G208" t="n">
+        <v>17600217.23737045</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="D209" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E209" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F209" t="n">
+        <v>56500.1199</v>
+      </c>
+      <c r="G209" t="n">
+        <v>17600217.23737045</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C210" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D210" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="E210" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11</v>
+      </c>
+      <c r="G210" t="n">
+        <v>17600228.23737045</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C211" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D211" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="E211" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F211" t="n">
+        <v>8811.137699999999</v>
+      </c>
+      <c r="G211" t="n">
+        <v>17600228.23737045</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D212" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="E212" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>17598228.23737045</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="C213" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D213" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E213" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="F213" t="n">
+        <v>94.48399999999999</v>
+      </c>
+      <c r="G213" t="n">
+        <v>17598228.23737045</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D214" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="E214" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F214" t="n">
+        <v>472925.7168</v>
+      </c>
+      <c r="G214" t="n">
+        <v>17125302.52057045</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D215" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E215" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27622.588</v>
+      </c>
+      <c r="G215" t="n">
+        <v>17152925.10857045</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>308</v>
+      </c>
+      <c r="G216" t="n">
+        <v>17152617.10857045</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E217" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>9537.7788</v>
+      </c>
+      <c r="G217" t="n">
+        <v>17152617.10857045</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D218" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E218" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F218" t="n">
+        <v>9383.454900000001</v>
+      </c>
+      <c r="G218" t="n">
+        <v>17162000.56347045</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C219" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D219" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E219" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F219" t="n">
+        <v>645.4254</v>
+      </c>
+      <c r="G219" t="n">
+        <v>17161355.13807045</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C220" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D220" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="E220" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F220" t="n">
+        <v>16035.5249</v>
+      </c>
+      <c r="G220" t="n">
+        <v>17145319.61317044</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E221" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2976.9661</v>
+      </c>
+      <c r="G221" t="n">
+        <v>17148296.57927044</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C222" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D222" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E222" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F222" t="n">
+        <v>64621.0232</v>
+      </c>
+      <c r="G222" t="n">
+        <v>17148296.57927044</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
         <v>7.98</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C223" t="n">
         <v>7.98</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D223" t="n">
         <v>7.98</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E223" t="n">
         <v>7.98</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F223" t="n">
         <v>7788.0331</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G223" t="n">
         <v>17156084.61237045</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1584361.877</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1584361.877</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>1372658.877</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>1150256.877</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.89</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>1257330.9423</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>1257196.9423</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>1257186.9423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>1257156.9423</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>1257156.9423</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.87</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>1196158.3164</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.87</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>1096146.0978</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.86</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>1115144.0978</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.68</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>1115144.0978</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,17 @@
         <v>1129309.1503</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1030,17 @@
         <v>1087740.1848</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1069,17 @@
         <v>1017430.7664</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1108,17 @@
         <v>1017430.7664</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1147,17 @@
         <v>1031749.9196</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1186,17 @@
         <v>1031749.9196</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.85</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,17 @@
         <v>1294816.7916</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.85</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1264,17 @@
         <v>1411146.8265</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.97</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1303,17 @@
         <v>1411146.8265</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1342,17 @@
         <v>1497885.8817</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1381,17 @@
         <v>1535899.3508</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.07</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1420,15 @@
         <v>1518438.055</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1311,9 +1459,15 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1344,9 +1498,15 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>8.09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1535,17 @@
         <v>1499513.031</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1574,17 @@
         <v>1565501.3295</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1613,17 @@
         <v>1565501.3295</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.96</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1652,17 @@
         <v>1559526.5199</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.96</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1691,17 @@
         <v>1559526.5199</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1730,17 @@
         <v>1639405.2985</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1769,17 @@
         <v>1915036.267500001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.99</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1808,17 @@
         <v>1860096.824500001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.09</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1847,17 @@
         <v>2015881.831300001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.94</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1886,17 @@
         <v>2015819.831200001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8.07</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1925,17 @@
         <v>2044113.970800001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.87</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1964,17 @@
         <v>2044113.970800001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.08</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2003,17 @@
         <v>2028188.661100001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.08</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2042,17 @@
         <v>2289826.532300001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8.07</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2085,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2118,17 @@
         <v>2289816.532300001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2157,17 @@
         <v>2289796.532300001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.06</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2196,17 @@
         <v>2289796.532300001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2235,17 @@
         <v>2300217.4639</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2274,17 @@
         <v>2300217.4639</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2317,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2354,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2391,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2424,17 @@
         <v>2296962.5104</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2463,17 @@
         <v>2296962.5104</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2502,17 @@
         <v>2296962.5104</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2541,17 @@
         <v>2306355.8581</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2584,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2621,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2658,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2695,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2728,17 @@
         <v>2303502.9322</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7.98</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2771,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2808,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2841,17 @@
         <v>2303502.9322</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7.98</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2884,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2921,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2958,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2995,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +3032,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +3069,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3102,17 @@
         <v>2155491.8203</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3141,17 @@
         <v>2158780.9619</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3180,17 @@
         <v>2153473.2183</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3219,17 @@
         <v>2155962.1511</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3258,17 @@
         <v>2156974.427300001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3297,17 @@
         <v>2061673.672400001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.82</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3336,17 @@
         <v>2150472.5678</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7.73</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3379,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3416,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3453,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3490,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3527,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3564,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3601,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3638,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3675,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3712,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3749,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3786,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3823,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3860,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3897,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3934,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3971,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +4008,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +4045,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +4082,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4119,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4156,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4193,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4230,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4267,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4304,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4341,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4378,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4415,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4452,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4489,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4526,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4563,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4600,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4637,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4674,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4711,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4748,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4785,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4822,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4859,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4896,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4933,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4970,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +5007,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +5044,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +5081,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5118,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5155,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5192,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5229,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5266,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,15 +5299,13 @@
         <v>15813038.32387045</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>7.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4788,11 +5410,9 @@
         <v>15249692.73137045</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -4901,11 +5521,9 @@
         <v>15301556.42927045</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -4940,11 +5558,9 @@
         <v>15301556.42927045</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>7.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -4979,11 +5595,9 @@
         <v>15296556.42927045</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>7.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5018,11 +5632,9 @@
         <v>15296581.42927045</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>7.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5057,11 +5669,9 @@
         <v>15286291.42927045</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>7.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5096,11 +5706,9 @@
         <v>15286291.42927045</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5135,11 +5743,9 @@
         <v>15318746.80777045</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5174,11 +5780,9 @@
         <v>15323746.80777045</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>7.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5213,11 +5817,9 @@
         <v>15248746.80787045</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5252,11 +5854,9 @@
         <v>15248718.95717045</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>7.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5291,11 +5891,9 @@
         <v>15248718.95717045</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5330,11 +5928,9 @@
         <v>15249974.59467045</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5369,11 +5965,9 @@
         <v>15352393.43277045</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5408,11 +6002,9 @@
         <v>15278846.13137045</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5447,11 +6039,9 @@
         <v>15223834.82107045</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>7.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5486,11 +6076,9 @@
         <v>15226834.82107045</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5525,11 +6113,9 @@
         <v>15352478.02827045</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5564,11 +6150,9 @@
         <v>15407533.02827045</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>7.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5603,11 +6187,9 @@
         <v>15407483.02827045</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5679,11 +6261,9 @@
         <v>15407983.02827045</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6976,16 +7556,18 @@
         <v>16594136.55507045</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
       <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -7011,11 +7593,15 @@
         <v>16631418.34267045</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7044,11 +7630,15 @@
         <v>17119568.34267045</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7077,11 +7667,15 @@
         <v>17578447.57547045</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7110,11 +7704,15 @@
         <v>17587967.57547045</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7143,11 +7741,15 @@
         <v>17591019.33527045</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7176,11 +7778,15 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +7815,15 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7242,11 +7852,15 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7275,11 +7889,15 @@
         <v>17590931.09507044</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7308,11 +7926,15 @@
         <v>17589820.09507044</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7341,11 +7963,15 @@
         <v>17614911.52427045</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7374,11 +8000,15 @@
         <v>17607782.56507045</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7407,11 +8037,15 @@
         <v>17607793.56507045</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7440,11 +8074,15 @@
         <v>17600818.23737045</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7473,11 +8111,15 @@
         <v>17600829.23737045</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7506,11 +8148,15 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7539,11 +8185,15 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +8222,15 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7605,11 +8259,15 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7638,11 +8296,15 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7671,11 +8333,15 @@
         <v>17598228.23737045</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7704,11 +8370,15 @@
         <v>17598228.23737045</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7737,11 +8407,15 @@
         <v>17125302.52057045</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7770,14 +8444,16 @@
         <v>17152925.10857045</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
@@ -7803,7 +8479,7 @@
         <v>17152617.10857045</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7836,7 +8512,7 @@
         <v>17152617.10857045</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7869,7 +8545,7 @@
         <v>17162000.56347045</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7902,7 +8578,7 @@
         <v>17161355.13807045</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7935,7 +8611,7 @@
         <v>17145319.61317044</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7968,7 +8644,7 @@
         <v>17148296.57927044</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8001,7 +8677,7 @@
         <v>17148296.57927044</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8034,7 +8710,7 @@
         <v>17156084.61237045</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8045,6 +8721,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,563 +484,501 @@
         <v>1584361.877</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>7.91</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="C4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F4" t="n">
+        <v>239993</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1584361.877</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F5" t="n">
+        <v>211703</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1372658.877</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>222402</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1150256.877</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>107074.0653</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1257330.9423</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F8" t="n">
+        <v>134</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1257196.9423</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1257186.9423</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1257156.9423</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17777.2645</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1257156.9423</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60998.6259</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1196158.3164</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100012.2186</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1096146.0978</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18998</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1115144.0978</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7807</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1115144.0978</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14165.0525</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1129309.1503</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="F17" t="n">
+        <v>41568.9655</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1087740.1848</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F4" t="n">
-        <v>239993</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1584361.877</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F5" t="n">
-        <v>211703</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1372658.877</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>222402</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1150256.877</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="F7" t="n">
-        <v>107074.0653</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1257330.9423</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F8" t="n">
-        <v>134</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1257196.9423</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1257186.9423</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="F10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1257156.9423</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="F11" t="n">
-        <v>17777.2645</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1257156.9423</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F12" t="n">
-        <v>60998.6259</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1196158.3164</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100012.2186</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1096146.0978</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18998</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1115144.0978</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7807</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1115144.0978</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14165.0525</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1129309.1503</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="F17" t="n">
-        <v>41568.9655</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1087740.1848</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1074,7 +1012,9 @@
       <c r="I18" t="n">
         <v>7.83</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1113,7 +1053,9 @@
       <c r="I19" t="n">
         <v>7.8</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1152,7 +1094,9 @@
       <c r="I20" t="n">
         <v>7.8</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1191,7 +1135,9 @@
       <c r="I21" t="n">
         <v>7.85</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1230,7 +1176,9 @@
       <c r="I22" t="n">
         <v>7.85</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,12 +1212,12 @@
         <v>1411146.8265</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1303,12 +1251,12 @@
         <v>1411146.8265</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,12 +1290,12 @@
         <v>1497885.8817</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1381,12 +1329,12 @@
         <v>1535899.3508</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,10 +1368,12 @@
         <v>1518438.055</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1457,19 +1407,19 @@
         <v>1588503.1971</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>7.68</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>1.048385416666667</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1496,17 +1446,11 @@
         <v>1568209.9136</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.09</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1535,17 +1479,11 @@
         <v>1499513.031</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1574,17 +1512,11 @@
         <v>1565501.3295</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1613,17 +1545,11 @@
         <v>1565501.3295</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.96</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1652,17 +1578,11 @@
         <v>1559526.5199</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.96</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1691,17 +1611,11 @@
         <v>1559526.5199</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1730,17 +1644,11 @@
         <v>1639405.2985</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1769,17 +1677,11 @@
         <v>1915036.267500001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1808,17 +1710,11 @@
         <v>1860096.824500001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1847,17 +1743,11 @@
         <v>2015881.831300001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1886,17 +1776,11 @@
         <v>2015819.831200001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1925,17 +1809,11 @@
         <v>2044113.970800001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1964,17 +1842,11 @@
         <v>2044113.970800001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2003,17 +1875,11 @@
         <v>2028188.661100001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>8.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2042,17 +1908,11 @@
         <v>2289826.532300001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2085,11 +1945,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2118,17 +1974,11 @@
         <v>2289816.532300001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2157,17 +2007,11 @@
         <v>2289796.532300001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2196,17 +2040,11 @@
         <v>2289796.532300001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2235,17 +2073,11 @@
         <v>2300217.4639</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2274,17 +2106,11 @@
         <v>2300217.4639</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2317,11 +2143,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2176,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2391,11 +2209,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2424,17 +2238,11 @@
         <v>2296962.5104</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2463,17 +2271,11 @@
         <v>2296962.5104</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2502,17 +2304,11 @@
         <v>2296962.5104</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2541,17 +2337,11 @@
         <v>2306355.8581</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2374,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2621,11 +2407,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2658,11 +2440,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2473,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2728,17 +2502,11 @@
         <v>2303502.9322</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2771,11 +2539,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2808,11 +2572,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2841,17 +2601,11 @@
         <v>2303502.9322</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2884,11 +2638,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2917,15 +2667,11 @@
         <v>2303502.9322</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2954,15 +2700,11 @@
         <v>2303502.9322</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2991,15 +2733,11 @@
         <v>2303502.9322</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3028,15 +2766,11 @@
         <v>2294400.8785</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3065,15 +2799,11 @@
         <v>2291849.6244</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3102,17 +2832,11 @@
         <v>2155491.8203</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3141,17 +2865,11 @@
         <v>2158780.9619</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3180,17 +2898,11 @@
         <v>2153473.2183</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3219,17 +2931,11 @@
         <v>2155962.1511</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3258,17 +2964,11 @@
         <v>2156974.427300001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3297,17 +2997,11 @@
         <v>2061673.672400001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3341,12 +3035,10 @@
       <c r="I77" t="n">
         <v>7.73</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3375,13 +3067,17 @@
         <v>2146419.9556</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7.73</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3412,13 +3108,17 @@
         <v>16166997.6032</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="J79" t="n">
+        <v>7.73</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3453,11 +3153,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3186,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3527,11 +3219,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3564,11 +3252,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3601,11 +3285,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3638,11 +3318,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3675,11 +3351,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3712,11 +3384,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3749,11 +3417,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3786,11 +3450,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3823,11 +3483,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3860,11 +3516,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3897,11 +3549,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +3582,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +3615,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4008,11 +3648,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4045,11 +3681,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4082,11 +3714,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +3747,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4156,11 +3780,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4193,11 +3813,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4230,11 +3846,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4267,11 +3879,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4304,11 +3912,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4341,11 +3945,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +3978,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4011,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +4044,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4077,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4110,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4143,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4176,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4637,11 +4209,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4674,11 +4242,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4275,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4748,11 +4308,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4785,11 +4341,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4822,11 +4374,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4859,11 +4407,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +4440,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4933,11 +4473,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4970,11 +4506,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5007,11 +4539,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5044,11 +4572,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5081,11 +4605,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +4638,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +4671,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +4704,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +4737,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +4770,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +4803,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +4836,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5377,11 +4869,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5414,11 +4902,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5451,11 +4935,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5488,11 +4968,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5001,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5562,11 +5034,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5067,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5636,11 +5100,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +5133,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5710,11 +5166,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5747,11 +5199,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5784,11 +5232,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +5265,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5858,11 +5298,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +5331,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +5364,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5969,11 +5397,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6006,11 +5430,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6043,11 +5463,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6080,11 +5496,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6117,11 +5529,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6154,11 +5562,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6191,11 +5595,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6228,11 +5628,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6265,11 +5661,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6302,11 +5694,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6339,11 +5727,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6376,11 +5760,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6413,11 +5793,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6450,11 +5826,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6487,11 +5859,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6524,11 +5892,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +5925,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +5958,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6635,11 +5991,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6672,11 +6024,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6709,11 +6057,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +6090,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6779,15 +6119,11 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6816,15 +6152,11 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6853,15 +6185,11 @@
         <v>16433458.61027045</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6890,15 +6218,11 @@
         <v>16376355.27007045</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6927,15 +6251,11 @@
         <v>16387476.08347045</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6964,15 +6284,11 @@
         <v>16204188.41697045</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7001,15 +6317,11 @@
         <v>16209443.74097045</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7038,15 +6350,11 @@
         <v>16210443.74097045</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7075,15 +6383,11 @@
         <v>16149033.79747045</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7112,15 +6416,11 @@
         <v>16142033.79747045</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7149,15 +6449,11 @@
         <v>16145033.79747045</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7186,15 +6482,11 @@
         <v>16452944.05177045</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7223,15 +6515,11 @@
         <v>16446407.99977045</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7260,15 +6548,11 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7297,15 +6581,11 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7334,15 +6614,11 @@
         <v>16497609.40367045</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7371,15 +6647,11 @@
         <v>16494873.40367045</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7408,15 +6680,11 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7445,15 +6713,11 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7482,15 +6746,11 @@
         <v>16556248.40377045</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7519,15 +6779,11 @@
         <v>16571210.90377045</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7556,15 +6812,11 @@
         <v>16594136.55507045</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7593,15 +6845,11 @@
         <v>16631418.34267045</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7630,15 +6878,11 @@
         <v>17119568.34267045</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7671,11 +6915,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7708,11 +6948,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7745,11 +6981,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +7014,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7819,11 +7047,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7856,11 +7080,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7893,11 +7113,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +7146,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +7179,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8004,11 +7212,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +7245,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8078,11 +7278,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8115,11 +7311,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +7344,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +7377,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8226,11 +7410,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8263,11 +7443,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8300,11 +7476,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8337,11 +7509,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +7542,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8411,11 +7575,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8444,16 +7604,14 @@
         <v>17152925.10857045</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
       <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
@@ -8479,7 +7637,7 @@
         <v>17152617.10857045</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8512,7 +7670,7 @@
         <v>17152617.10857045</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8545,7 +7703,7 @@
         <v>17162000.56347045</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8578,7 +7736,7 @@
         <v>17161355.13807045</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8611,7 +7769,7 @@
         <v>17145319.61317044</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8644,7 +7802,7 @@
         <v>17148296.57927044</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8677,7 +7835,7 @@
         <v>17148296.57927044</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8710,7 +7868,7 @@
         <v>17156084.61237045</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8721,6 +7879,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -451,7 +451,7 @@
         <v>1584361.877</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1584361.877</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1584361.877</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>1372658.877</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>1150256.877</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.89</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>1257330.9423</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>1257196.9423</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>1257186.9423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>1257156.9423</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>1257156.9423</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.87</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>1196158.3164</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.87</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>1096146.0978</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.86</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -852,10 +918,12 @@
       <c r="I14" t="n">
         <v>7.68</v>
       </c>
-      <c r="J14" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -889,12 +957,10 @@
       <c r="I15" t="n">
         <v>7.78</v>
       </c>
-      <c r="J15" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -930,12 +996,10 @@
       <c r="I16" t="n">
         <v>7.78</v>
       </c>
-      <c r="J16" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -971,12 +1035,10 @@
       <c r="I17" t="n">
         <v>7.88</v>
       </c>
-      <c r="J17" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1012,9 +1074,7 @@
       <c r="I18" t="n">
         <v>7.83</v>
       </c>
-      <c r="J18" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1053,9 +1113,7 @@
       <c r="I19" t="n">
         <v>7.8</v>
       </c>
-      <c r="J19" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1094,9 +1152,7 @@
       <c r="I20" t="n">
         <v>7.8</v>
       </c>
-      <c r="J20" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1135,9 +1191,7 @@
       <c r="I21" t="n">
         <v>7.85</v>
       </c>
-      <c r="J21" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1176,9 +1230,7 @@
       <c r="I22" t="n">
         <v>7.85</v>
       </c>
-      <c r="J22" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,12 +1264,12 @@
         <v>1411146.8265</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>7.68</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1251,12 +1303,12 @@
         <v>1411146.8265</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>7.68</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1293,9 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1332,9 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1368,12 +1416,10 @@
         <v>1518438.055</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1407,19 +1453,17 @@
         <v>1588503.1971</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>7.68</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.048385416666667</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1446,11 +1490,15 @@
         <v>1568209.9136</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1479,11 +1527,15 @@
         <v>1499513.031</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1512,11 +1564,15 @@
         <v>1565501.3295</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1601,15 @@
         <v>1565501.3295</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1578,11 +1638,15 @@
         <v>1559526.5199</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1611,11 +1675,17 @@
         <v>1559526.5199</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1644,11 +1714,17 @@
         <v>1639405.2985</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.88</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1681,7 +1757,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1714,7 +1794,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1747,7 +1831,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1780,7 +1868,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1813,7 +1905,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1846,7 +1942,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1879,7 +1979,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1912,7 +2016,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1945,7 +2053,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1978,7 +2090,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2011,7 +2127,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2044,7 +2164,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2077,7 +2201,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2110,7 +2238,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2143,7 +2275,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2176,7 +2312,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2209,7 +2349,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2242,7 +2386,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2275,7 +2423,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2308,7 +2460,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2341,7 +2497,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2374,7 +2534,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2407,7 +2571,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2440,7 +2608,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2473,7 +2645,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2506,7 +2682,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2539,7 +2719,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2572,7 +2756,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2605,7 +2793,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2638,7 +2830,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2667,11 +2863,15 @@
         <v>2303502.9322</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2700,11 +2900,15 @@
         <v>2303502.9322</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2733,11 +2937,15 @@
         <v>2303502.9322</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2766,11 +2974,15 @@
         <v>2294400.8785</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2799,11 +3011,15 @@
         <v>2291849.6244</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2836,7 +3052,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2869,7 +3089,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2902,7 +3126,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2935,7 +3163,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2968,7 +3200,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3001,7 +3237,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3030,15 +3270,15 @@
         <v>2150472.5678</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3067,17 +3307,13 @@
         <v>2146419.9556</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3108,17 +3344,13 @@
         <v>16166997.6032</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3153,7 +3385,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3186,7 +3422,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3219,7 +3459,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3252,7 +3496,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3285,7 +3533,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3318,7 +3570,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3351,7 +3607,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3384,7 +3644,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3417,7 +3681,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3450,7 +3718,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3483,7 +3755,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3516,7 +3792,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3549,7 +3829,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3582,7 +3866,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3615,7 +3903,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3648,7 +3940,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3681,7 +3977,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3714,7 +4014,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3747,7 +4051,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3780,7 +4088,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +4125,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3846,7 +4162,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3879,7 +4199,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3912,7 +4236,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3945,7 +4273,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3978,7 +4310,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4011,7 +4347,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4044,7 +4384,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4077,7 +4421,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4110,7 +4458,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4143,7 +4495,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4176,7 +4532,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4209,7 +4569,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4242,7 +4606,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4275,7 +4643,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4680,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4341,7 +4717,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4374,7 +4754,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4407,7 +4791,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4440,7 +4828,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4473,7 +4865,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4506,7 +4902,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4539,7 +4939,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4572,7 +4976,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4605,7 +5013,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4638,7 +5050,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4671,7 +5087,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4704,7 +5124,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4737,7 +5161,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4770,7 +5198,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4803,7 +5235,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4836,7 +5272,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4869,7 +5309,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4902,7 +5346,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4935,7 +5383,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4968,7 +5420,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5001,7 +5457,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5034,7 +5494,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5067,7 +5531,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5100,7 +5568,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5133,7 +5605,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5166,7 +5642,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5199,7 +5679,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5232,7 +5716,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5265,7 +5753,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5298,7 +5790,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5331,7 +5827,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5364,7 +5864,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5397,7 +5901,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5430,7 +5938,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5975,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5496,7 +6012,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5529,7 +6049,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5562,7 +6086,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5595,7 +6123,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5628,7 +6160,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5661,7 +6197,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5694,7 +6234,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5727,7 +6271,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5760,7 +6308,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5793,7 +6345,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5826,7 +6382,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5859,7 +6419,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5892,7 +6456,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5925,7 +6493,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5958,7 +6530,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5991,7 +6567,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6024,7 +6604,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6057,7 +6641,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6090,7 +6678,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +6711,15 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +6748,15 @@
         <v>16433333.28617045</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6185,11 +6785,15 @@
         <v>16433458.61027045</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6218,11 +6822,15 @@
         <v>16376355.27007045</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +6859,15 @@
         <v>16387476.08347045</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +6896,15 @@
         <v>16204188.41697045</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +6933,15 @@
         <v>16209443.74097045</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +6970,15 @@
         <v>16210443.74097045</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6383,11 +7007,15 @@
         <v>16149033.79747045</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +7044,15 @@
         <v>16142033.79747045</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6449,11 +7081,15 @@
         <v>16145033.79747045</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +7118,15 @@
         <v>16452944.05177045</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6515,11 +7155,15 @@
         <v>16446407.99977045</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6548,11 +7192,15 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +7229,15 @@
         <v>16444407.99977045</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +7266,15 @@
         <v>16497609.40367045</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +7303,15 @@
         <v>16494873.40367045</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6680,11 +7340,15 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +7377,15 @@
         <v>16554248.40377045</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +7414,15 @@
         <v>16556248.40377045</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6779,11 +7451,15 @@
         <v>16571210.90377045</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +7488,15 @@
         <v>16594136.55507045</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +7525,15 @@
         <v>16631418.34267045</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +7562,15 @@
         <v>17119568.34267045</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6915,7 +7603,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6948,7 +7640,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6981,7 +7677,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7014,7 +7714,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7043,14 +7747,16 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -7076,7 +7782,7 @@
         <v>17590920.09507044</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7109,7 +7815,7 @@
         <v>17590931.09507044</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7142,7 +7848,7 @@
         <v>17589820.09507044</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7175,7 +7881,7 @@
         <v>17614911.52427045</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7208,7 +7914,7 @@
         <v>17607782.56507045</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7241,7 +7947,7 @@
         <v>17607793.56507045</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7274,7 +7980,7 @@
         <v>17600818.23737045</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7307,7 +8013,7 @@
         <v>17600829.23737045</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7340,7 +8046,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7373,7 +8079,7 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7406,7 +8112,7 @@
         <v>17600217.23737045</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7439,7 +8145,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7472,7 +8178,7 @@
         <v>17600228.23737045</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7505,7 +8211,7 @@
         <v>17598228.23737045</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7571,7 +8277,7 @@
         <v>17125302.52057045</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7736,7 +8442,7 @@
         <v>17161355.13807045</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7769,7 +8475,7 @@
         <v>17145319.61317044</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest IOST.xlsx
+++ b/BackTest/2019-11-02 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>435194</v>
       </c>
       <c r="G2" t="n">
-        <v>1584361.877</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>277437</v>
       </c>
       <c r="G3" t="n">
-        <v>1584361.877</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>239993</v>
       </c>
       <c r="G4" t="n">
-        <v>1584361.877</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>211703</v>
       </c>
       <c r="G5" t="n">
-        <v>1372658.877</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>222402</v>
       </c>
       <c r="G6" t="n">
-        <v>1150256.877</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>107074.0653</v>
       </c>
       <c r="G7" t="n">
-        <v>1257330.9423</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>134</v>
       </c>
       <c r="G8" t="n">
-        <v>1257196.9423</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +653,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>1257186.9423</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +683,15 @@
         <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>1257156.9423</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +713,15 @@
         <v>17777.2645</v>
       </c>
       <c r="G11" t="n">
-        <v>1257156.9423</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +743,15 @@
         <v>60998.6259</v>
       </c>
       <c r="G12" t="n">
-        <v>1196158.3164</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +773,15 @@
         <v>100012.2186</v>
       </c>
       <c r="G13" t="n">
-        <v>1096146.0978</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +803,15 @@
         <v>18998</v>
       </c>
       <c r="G14" t="n">
-        <v>1115144.0978</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +833,15 @@
         <v>7807</v>
       </c>
       <c r="G15" t="n">
-        <v>1115144.0978</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +863,15 @@
         <v>14165.0525</v>
       </c>
       <c r="G16" t="n">
-        <v>1129309.1503</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +893,15 @@
         <v>41568.9655</v>
       </c>
       <c r="G17" t="n">
-        <v>1087740.1848</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +923,15 @@
         <v>70309.4184</v>
       </c>
       <c r="G18" t="n">
-        <v>1017430.7664</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +953,15 @@
         <v>7060.641</v>
       </c>
       <c r="G19" t="n">
-        <v>1017430.7664</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +983,15 @@
         <v>14319.1532</v>
       </c>
       <c r="G20" t="n">
-        <v>1031749.9196</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,24 +1013,15 @@
         <v>89403.11199999999</v>
       </c>
       <c r="G21" t="n">
-        <v>1031749.9196</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1222,24 +1043,15 @@
         <v>263066.872</v>
       </c>
       <c r="G22" t="n">
-        <v>1294816.7916</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1261,24 +1073,15 @@
         <v>116330.0349</v>
       </c>
       <c r="G23" t="n">
-        <v>1411146.8265</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,24 +1103,15 @@
         <v>31267.125</v>
       </c>
       <c r="G24" t="n">
-        <v>1411146.8265</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1339,22 +1133,15 @@
         <v>86739.0552</v>
       </c>
       <c r="G25" t="n">
-        <v>1497885.8817</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1376,22 +1163,15 @@
         <v>38013.4691</v>
       </c>
       <c r="G26" t="n">
-        <v>1535899.3508</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1413,22 +1193,15 @@
         <v>17461.2958</v>
       </c>
       <c r="G27" t="n">
-        <v>1518438.055</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1450,22 +1223,15 @@
         <v>70065.1421</v>
       </c>
       <c r="G28" t="n">
-        <v>1588503.1971</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1487,22 +1253,15 @@
         <v>20293.2835</v>
       </c>
       <c r="G29" t="n">
-        <v>1568209.9136</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,22 +1283,15 @@
         <v>68696.8826</v>
       </c>
       <c r="G30" t="n">
-        <v>1499513.031</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1561,22 +1313,15 @@
         <v>65988.2985</v>
       </c>
       <c r="G31" t="n">
-        <v>1565501.3295</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1598,22 +1343,15 @@
         <v>22561.0884</v>
       </c>
       <c r="G32" t="n">
-        <v>1565501.3295</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1635,22 +1373,15 @@
         <v>5974.8096</v>
       </c>
       <c r="G33" t="n">
-        <v>1559526.5199</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1672,24 +1403,15 @@
         <v>750441.8758</v>
       </c>
       <c r="G34" t="n">
-        <v>1559526.5199</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1711,24 +1433,15 @@
         <v>79878.77860000001</v>
       </c>
       <c r="G35" t="n">
-        <v>1639405.2985</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1750,22 +1463,15 @@
         <v>275630.969</v>
       </c>
       <c r="G36" t="n">
-        <v>1915036.267500001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1787,22 +1493,15 @@
         <v>54939.443</v>
       </c>
       <c r="G37" t="n">
-        <v>1860096.824500001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1824,22 +1523,15 @@
         <v>155785.0068</v>
       </c>
       <c r="G38" t="n">
-        <v>2015881.831300001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1861,22 +1553,15 @@
         <v>62.0001</v>
       </c>
       <c r="G39" t="n">
-        <v>2015819.831200001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1898,22 +1583,15 @@
         <v>28294.1396</v>
       </c>
       <c r="G40" t="n">
-        <v>2044113.970800001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1935,22 +1613,15 @@
         <v>21207.4566</v>
       </c>
       <c r="G41" t="n">
-        <v>2044113.970800001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1972,22 +1643,15 @@
         <v>15925.3097</v>
       </c>
       <c r="G42" t="n">
-        <v>2028188.661100001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2009,22 +1673,15 @@
         <v>261637.8712</v>
       </c>
       <c r="G43" t="n">
-        <v>2289826.532300001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2046,22 +1703,15 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>2289806.532300001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2083,22 +1733,15 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>2289816.532300001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2120,22 +1763,15 @@
         <v>20</v>
       </c>
       <c r="G46" t="n">
-        <v>2289796.532300001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2157,22 +1793,15 @@
         <v>12629.3439</v>
       </c>
       <c r="G47" t="n">
-        <v>2289796.532300001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2194,22 +1823,15 @@
         <v>10420.9316</v>
       </c>
       <c r="G48" t="n">
-        <v>2300217.4639</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2231,22 +1853,15 @@
         <v>10745.9499</v>
       </c>
       <c r="G49" t="n">
-        <v>2300217.4639</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2268,22 +1883,15 @@
         <v>4454.944</v>
       </c>
       <c r="G50" t="n">
-        <v>2300217.4639</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2305,22 +1913,15 @@
         <v>42816.0901</v>
       </c>
       <c r="G51" t="n">
-        <v>2257401.3738</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2342,22 +1943,15 @@
         <v>59803.6869</v>
       </c>
       <c r="G52" t="n">
-        <v>2317205.0607</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2379,22 +1973,15 @@
         <v>20242.5503</v>
       </c>
       <c r="G53" t="n">
-        <v>2296962.5104</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2416,22 +2003,15 @@
         <v>10197.8371</v>
       </c>
       <c r="G54" t="n">
-        <v>2296962.5104</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2453,22 +2033,15 @@
         <v>1468.9672</v>
       </c>
       <c r="G55" t="n">
-        <v>2296962.5104</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2490,22 +2063,15 @@
         <v>9393.3477</v>
       </c>
       <c r="G56" t="n">
-        <v>2306355.8581</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2527,22 +2093,15 @@
         <v>974.1426</v>
       </c>
       <c r="G57" t="n">
-        <v>2306355.8581</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2564,22 +2123,15 @@
         <v>2852.9259</v>
       </c>
       <c r="G58" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2601,22 +2153,15 @@
         <v>786.817</v>
       </c>
       <c r="G59" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2638,22 +2183,15 @@
         <v>40861.2907</v>
       </c>
       <c r="G60" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2675,22 +2213,15 @@
         <v>2605.9088</v>
       </c>
       <c r="G61" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2712,22 +2243,15 @@
         <v>2543.8596</v>
       </c>
       <c r="G62" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2749,22 +2273,15 @@
         <v>3391.2906</v>
       </c>
       <c r="G63" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2786,22 +2303,15 @@
         <v>279.1353</v>
       </c>
       <c r="G64" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2823,22 +2333,15 @@
         <v>1481.3283</v>
       </c>
       <c r="G65" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2860,22 +2363,15 @@
         <v>1713.1641</v>
       </c>
       <c r="G66" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2897,22 +2393,15 @@
         <v>790.6891000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2934,22 +2423,15 @@
         <v>749.9373000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>2303502.9322</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2971,22 +2453,15 @@
         <v>9102.0537</v>
       </c>
       <c r="G69" t="n">
-        <v>2294400.8785</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3008,22 +2483,15 @@
         <v>2551.2541</v>
       </c>
       <c r="G70" t="n">
-        <v>2291849.6244</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3045,22 +2513,15 @@
         <v>136357.8041</v>
       </c>
       <c r="G71" t="n">
-        <v>2155491.8203</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3082,22 +2543,15 @@
         <v>3289.1416</v>
       </c>
       <c r="G72" t="n">
-        <v>2158780.9619</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3119,22 +2573,15 @@
         <v>5307.7436</v>
       </c>
       <c r="G73" t="n">
-        <v>2153473.2183</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3156,22 +2603,15 @@
         <v>2488.9328</v>
       </c>
       <c r="G74" t="n">
-        <v>2155962.1511</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3193,22 +2633,15 @@
         <v>1012.2762</v>
       </c>
       <c r="G75" t="n">
-        <v>2156974.427300001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3230,22 +2663,15 @@
         <v>95300.7549</v>
       </c>
       <c r="G76" t="n">
-        <v>2061673.672400001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3267,22 +2693,15 @@
         <v>88798.89539999999</v>
       </c>
       <c r="G77" t="n">
-        <v>2150472.5678</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3304,22 +2723,15 @@
         <v>4052.6122</v>
       </c>
       <c r="G78" t="n">
-        <v>2146419.9556</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3341,22 +2753,15 @@
         <v>14020577.6476</v>
       </c>
       <c r="G79" t="n">
-        <v>16166997.6032</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3378,22 +2783,15 @@
         <v>24512798.0064</v>
       </c>
       <c r="G80" t="n">
-        <v>16166997.6032</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3415,22 +2813,15 @@
         <v>24141391.976</v>
       </c>
       <c r="G81" t="n">
-        <v>16166997.6032</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3452,22 +2843,15 @@
         <v>21077292.2252</v>
       </c>
       <c r="G82" t="n">
-        <v>16166997.6032</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3489,22 +2873,15 @@
         <v>117321.5809</v>
       </c>
       <c r="G83" t="n">
-        <v>16284319.1841</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3526,22 +2903,15 @@
         <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>16284299.1841</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3563,22 +2933,15 @@
         <v>31536.6687</v>
       </c>
       <c r="G85" t="n">
-        <v>16315835.8528</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3600,22 +2963,15 @@
         <v>32875.9096</v>
       </c>
       <c r="G86" t="n">
-        <v>16315835.8528</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3637,22 +2993,15 @@
         <v>117321.5809</v>
       </c>
       <c r="G87" t="n">
-        <v>16198514.2719</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3674,22 +3023,15 @@
         <v>2515.723270440252</v>
       </c>
       <c r="G88" t="n">
-        <v>16201029.99517044</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3711,22 +3053,15 @@
         <v>29625.2516</v>
       </c>
       <c r="G89" t="n">
-        <v>16171404.74357044</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3748,22 +3083,15 @@
         <v>5724.3427</v>
       </c>
       <c r="G90" t="n">
-        <v>16177129.08627044</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3785,22 +3113,15 @@
         <v>142768.5458</v>
       </c>
       <c r="G91" t="n">
-        <v>16034360.54047044</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3822,22 +3143,15 @@
         <v>11409.3552</v>
       </c>
       <c r="G92" t="n">
-        <v>16045769.89567044</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3859,22 +3173,15 @@
         <v>189318.8775</v>
       </c>
       <c r="G93" t="n">
-        <v>15856451.01817044</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3896,22 +3203,15 @@
         <v>65920.1201</v>
       </c>
       <c r="G94" t="n">
-        <v>15856451.01817044</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3933,22 +3233,15 @@
         <v>4190.1572</v>
       </c>
       <c r="G95" t="n">
-        <v>15856451.01817044</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3970,22 +3263,15 @@
         <v>7393.9784</v>
       </c>
       <c r="G96" t="n">
-        <v>15856451.01817044</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4007,22 +3293,15 @@
         <v>20578.6106</v>
       </c>
       <c r="G97" t="n">
-        <v>15835872.40757044</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4044,22 +3323,15 @@
         <v>2728.5995</v>
       </c>
       <c r="G98" t="n">
-        <v>15838601.00707044</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4081,22 +3353,15 @@
         <v>2728.5995</v>
       </c>
       <c r="G99" t="n">
-        <v>15835872.40757044</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4118,22 +3383,15 @@
         <v>171899.8623</v>
       </c>
       <c r="G100" t="n">
-        <v>15663972.54527044</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4155,22 +3413,15 @@
         <v>73334.2856</v>
       </c>
       <c r="G101" t="n">
-        <v>15737306.83087044</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4192,22 +3443,15 @@
         <v>35898.2272</v>
       </c>
       <c r="G102" t="n">
-        <v>15701408.60367044</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4229,22 +3473,15 @@
         <v>163184.8129</v>
       </c>
       <c r="G103" t="n">
-        <v>15538223.79077045</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4266,22 +3503,15 @@
         <v>28916.5262</v>
       </c>
       <c r="G104" t="n">
-        <v>15567140.31697045</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4303,22 +3533,15 @@
         <v>16809.811</v>
       </c>
       <c r="G105" t="n">
-        <v>15550330.50597044</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4340,22 +3563,15 @@
         <v>411306.6717</v>
       </c>
       <c r="G106" t="n">
-        <v>15961637.17767045</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4377,22 +3593,15 @@
         <v>58624.5401</v>
       </c>
       <c r="G107" t="n">
-        <v>15961637.17767045</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4414,22 +3623,15 @@
         <v>8857.8878</v>
       </c>
       <c r="G108" t="n">
-        <v>15970495.06547045</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4451,22 +3653,15 @@
         <v>275858.5796</v>
       </c>
       <c r="G109" t="n">
-        <v>16246353.64507045</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4488,22 +3683,15 @@
         <v>10.012</v>
       </c>
       <c r="G110" t="n">
-        <v>16246343.63307045</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4525,22 +3713,15 @@
         <v>45</v>
       </c>
       <c r="G111" t="n">
-        <v>16246388.63307045</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4562,22 +3743,15 @@
         <v>52764.6287</v>
       </c>
       <c r="G112" t="n">
-        <v>16246388.63307045</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4599,22 +3773,15 @@
         <v>61497.0361</v>
       </c>
       <c r="G113" t="n">
-        <v>16184891.59697045</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4636,22 +3803,15 @@
         <v>23929.0047</v>
       </c>
       <c r="G114" t="n">
-        <v>16208820.60167045</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4673,22 +3833,15 @@
         <v>37550.9951</v>
       </c>
       <c r="G115" t="n">
-        <v>16208820.60167045</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4710,22 +3863,15 @@
         <v>1100</v>
       </c>
       <c r="G116" t="n">
-        <v>16209920.60167045</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4747,22 +3893,15 @@
         <v>1619.5533</v>
       </c>
       <c r="G117" t="n">
-        <v>16209920.60167045</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4784,22 +3923,15 @@
         <v>18380.4467</v>
       </c>
       <c r="G118" t="n">
-        <v>16209920.60167045</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4821,22 +3953,15 @@
         <v>40712.375</v>
       </c>
       <c r="G119" t="n">
-        <v>16169208.22667045</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4858,22 +3983,15 @@
         <v>90615.1271</v>
       </c>
       <c r="G120" t="n">
-        <v>16078593.09957045</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4895,22 +4013,15 @@
         <v>1050</v>
       </c>
       <c r="G121" t="n">
-        <v>16077543.09957045</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4932,22 +4043,15 @@
         <v>60828.7663</v>
       </c>
       <c r="G122" t="n">
-        <v>16016714.33327045</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4969,22 +4073,15 @@
         <v>5476.9724</v>
       </c>
       <c r="G123" t="n">
-        <v>16022191.30567045</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5006,22 +4103,15 @@
         <v>1931.0586</v>
       </c>
       <c r="G124" t="n">
-        <v>16022191.30567045</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5043,22 +4133,15 @@
         <v>261.6083</v>
       </c>
       <c r="G125" t="n">
-        <v>16022191.30567045</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5080,22 +4163,15 @@
         <v>55000</v>
       </c>
       <c r="G126" t="n">
-        <v>15967191.30567045</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5117,22 +4193,15 @@
         <v>44047.7513</v>
       </c>
       <c r="G127" t="n">
-        <v>16011239.05697045</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5154,22 +4223,15 @@
         <v>23752.8411</v>
       </c>
       <c r="G128" t="n">
-        <v>15987486.21587045</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5191,22 +4253,15 @@
         <v>75336.63619999999</v>
       </c>
       <c r="G129" t="n">
-        <v>15912149.57967045</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5228,22 +4283,15 @@
         <v>99111.2558</v>
       </c>
       <c r="G130" t="n">
-        <v>15813038.32387045</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5265,22 +4313,15 @@
         <v>504471.9858</v>
       </c>
       <c r="G131" t="n">
-        <v>15308566.33807045</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5302,22 +4343,21 @@
         <v>73873.6067</v>
       </c>
       <c r="G132" t="n">
-        <v>15234692.73137045</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>7.64</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5339,22 +4379,21 @@
         <v>15000</v>
       </c>
       <c r="G133" t="n">
-        <v>15249692.73137045</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5376,22 +4415,21 @@
         <v>7807.552</v>
       </c>
       <c r="G134" t="n">
-        <v>15241885.17937045</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>7.71</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5413,22 +4451,21 @@
         <v>57485.2396</v>
       </c>
       <c r="G135" t="n">
-        <v>15299370.41897045</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5450,22 +4487,19 @@
         <v>2186.0103</v>
       </c>
       <c r="G136" t="n">
-        <v>15301556.42927045</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5487,22 +4521,19 @@
         <v>491.8523</v>
       </c>
       <c r="G137" t="n">
-        <v>15301556.42927045</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5524,22 +4555,19 @@
         <v>5000</v>
       </c>
       <c r="G138" t="n">
-        <v>15296556.42927045</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5561,22 +4589,21 @@
         <v>25</v>
       </c>
       <c r="G139" t="n">
-        <v>15296581.42927045</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5598,22 +4625,21 @@
         <v>10290</v>
       </c>
       <c r="G140" t="n">
-        <v>15286291.42927045</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>7.72</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5635,22 +4661,19 @@
         <v>10300</v>
       </c>
       <c r="G141" t="n">
-        <v>15286291.42927045</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5672,22 +4695,19 @@
         <v>32455.3785</v>
       </c>
       <c r="G142" t="n">
-        <v>15318746.80777045</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5709,22 +4729,19 @@
         <v>5000</v>
       </c>
       <c r="G143" t="n">
-        <v>15323746.80777045</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5746,22 +4763,19 @@
         <v>74999.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>15248746.80787045</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5783,22 +4797,19 @@
         <v>27.8507</v>
       </c>
       <c r="G145" t="n">
-        <v>15248718.95717045</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5820,22 +4831,19 @@
         <v>30</v>
       </c>
       <c r="G146" t="n">
-        <v>15248718.95717045</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5857,22 +4865,19 @@
         <v>1255.6375</v>
       </c>
       <c r="G147" t="n">
-        <v>15249974.59467045</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5894,22 +4899,19 @@
         <v>102418.8381</v>
       </c>
       <c r="G148" t="n">
-        <v>15352393.43277045</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5931,22 +4933,19 @@
         <v>73547.3014</v>
       </c>
       <c r="G149" t="n">
-        <v>15278846.13137045</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5968,22 +4967,19 @@
         <v>55011.3103</v>
       </c>
       <c r="G150" t="n">
-        <v>15223834.82107045</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6005,22 +5001,19 @@
         <v>3000</v>
       </c>
       <c r="G151" t="n">
-        <v>15226834.82107045</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6042,22 +5035,19 @@
         <v>125643.2072</v>
       </c>
       <c r="G152" t="n">
-        <v>15352478.02827045</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6079,22 +5069,19 @@
         <v>55055</v>
       </c>
       <c r="G153" t="n">
-        <v>15407533.02827045</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6116,22 +5103,19 @@
         <v>50</v>
       </c>
       <c r="G154" t="n">
-        <v>15407483.02827045</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6153,22 +5137,19 @@
         <v>500</v>
       </c>
       <c r="G155" t="n">
-        <v>15407983.02827045</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6190,22 +5171,19 @@
         <v>8457.0733</v>
       </c>
       <c r="G156" t="n">
-        <v>15407983.02827045</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6227,22 +5205,19 @@
         <v>14461.5929</v>
       </c>
       <c r="G157" t="n">
-        <v>15407983.02827045</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6264,22 +5239,19 @@
         <v>7768.1415</v>
       </c>
       <c r="G158" t="n">
-        <v>15407983.02827045</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6301,22 +5273,19 @@
         <v>3485.7025</v>
       </c>
       <c r="G159" t="n">
-        <v>15404497.32577045</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6338,22 +5307,19 @@
         <v>55000</v>
       </c>
       <c r="G160" t="n">
-        <v>15349497.32577045</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6375,22 +5341,19 @@
         <v>58597.7977</v>
       </c>
       <c r="G161" t="n">
-        <v>15408095.12347045</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6412,22 +5375,19 @@
         <v>18213.4562</v>
       </c>
       <c r="G162" t="n">
-        <v>15408095.12347045</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6449,22 +5409,19 @@
         <v>182943.6007</v>
       </c>
       <c r="G163" t="n">
-        <v>15408095.12347045</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6486,22 +5443,19 @@
         <v>1784.8214</v>
       </c>
       <c r="G164" t="n">
-        <v>15409879.94487045</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6523,22 +5477,19 @@
         <v>40782.736</v>
       </c>
       <c r="G165" t="n">
-        <v>15409879.94487045</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6560,22 +5511,19 @@
         <v>558208.3501</v>
       </c>
       <c r="G166" t="n">
-        <v>15968088.29497045</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6597,22 +5545,19 @@
         <v>53285.4074</v>
       </c>
       <c r="G167" t="n">
-        <v>16021373.70237045</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6634,22 +5579,19 @@
         <v>48668.65</v>
       </c>
       <c r="G168" t="n">
-        <v>16070042.35237045</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6671,22 +5613,19 @@
         <v>7457.813</v>
       </c>
       <c r="G169" t="n">
-        <v>16062584.53937045</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6708,22 +5647,19 @@
         <v>370748.7468</v>
       </c>
       <c r="G170" t="n">
-        <v>16433333.28617045</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6745,22 +5681,19 @@
         <v>64303.4505</v>
       </c>
       <c r="G171" t="n">
-        <v>16433333.28617045</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6782,22 +5715,19 @@
         <v>125.3241</v>
       </c>
       <c r="G172" t="n">
-        <v>16433458.61027045</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6819,22 +5749,19 @@
         <v>57103.3402</v>
       </c>
       <c r="G173" t="n">
-        <v>16376355.27007045</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6856,22 +5783,19 @@
         <v>11120.8134</v>
       </c>
       <c r="G174" t="n">
-        <v>16387476.08347045</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6893,22 +5817,19 @@
         <v>183287.6665</v>
       </c>
       <c r="G175" t="n">
-        <v>16204188.41697045</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6930,22 +5851,19 @@
         <v>5255.324</v>
       </c>
       <c r="G176" t="n">
-        <v>16209443.74097045</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6967,22 +5885,19 @@
         <v>1000</v>
       </c>
       <c r="G177" t="n">
-        <v>16210443.74097045</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7004,22 +5919,19 @@
         <v>61409.9435</v>
       </c>
       <c r="G178" t="n">
-        <v>16149033.79747045</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7041,22 +5953,19 @@
         <v>7000</v>
       </c>
       <c r="G179" t="n">
-        <v>16142033.79747045</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7078,22 +5987,19 @@
         <v>3000</v>
       </c>
       <c r="G180" t="n">
-        <v>16145033.79747045</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7115,22 +6021,19 @@
         <v>307910.2543</v>
       </c>
       <c r="G181" t="n">
-        <v>16452944.05177045</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7152,22 +6055,19 @@
         <v>6536.052</v>
       </c>
       <c r="G182" t="n">
-        <v>16446407.99977045</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7189,22 +6089,19 @@
         <v>2000</v>
       </c>
       <c r="G183" t="n">
-        <v>16444407.99977045</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7226,22 +6123,19 @@
         <v>1799.1358</v>
       </c>
       <c r="G184" t="n">
-        <v>16444407.99977045</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7263,22 +6157,19 @@
         <v>53201.4039</v>
       </c>
       <c r="G185" t="n">
-        <v>16497609.40367045</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7300,22 +6191,19 @@
         <v>2736</v>
       </c>
       <c r="G186" t="n">
-        <v>16494873.40367045</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7337,22 +6225,19 @@
         <v>59375.0001</v>
       </c>
       <c r="G187" t="n">
-        <v>16554248.40377045</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7374,22 +6259,19 @@
         <v>108167.465</v>
       </c>
       <c r="G188" t="n">
-        <v>16554248.40377045</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7411,22 +6293,19 @@
         <v>2000</v>
       </c>
       <c r="G189" t="n">
-        <v>16556248.40377045</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7448,22 +6327,19 @@
         <v>14962.5</v>
       </c>
       <c r="G190" t="n">
-        <v>16571210.90377045</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7485,22 +6361,19 @@
         <v>22925.6513</v>
       </c>
       <c r="G191" t="n">
-        <v>16594136.55507045</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7522,22 +6395,19 @@
         <v>37281.7876</v>
       </c>
       <c r="G192" t="n">
-        <v>16631418.34267045</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7559,22 +6429,19 @@
         <v>488150</v>
       </c>
       <c r="G193" t="n">
-        <v>17119568.34267045</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7596,22 +6463,19 @@
         <v>458879.2328</v>
       </c>
       <c r="G194" t="n">
-        <v>17578447.57547045</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7633,22 +6497,19 @@
         <v>9520</v>
       </c>
       <c r="G195" t="n">
-        <v>17587967.57547045</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7670,22 +6531,19 @@
         <v>3051.7598</v>
       </c>
       <c r="G196" t="n">
-        <v>17591019.33527045</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7707,22 +6565,19 @@
         <v>99.2402</v>
       </c>
       <c r="G197" t="n">
-        <v>17590920.09507044</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7744,20 +6599,19 @@
         <v>16075.7142</v>
       </c>
       <c r="G198" t="n">
-        <v>17590920.09507044</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
       </c>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7779,18 +6633,19 @@
         <v>4405.2178</v>
       </c>
       <c r="G199" t="n">
-        <v>17590920.09507044</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7812,18 +6667,19 @@
         <v>11</v>
       </c>
       <c r="G200" t="n">
-        <v>17590931.09507044</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7845,18 +6701,17 @@
         <v>1111</v>
       </c>
       <c r="G201" t="n">
-        <v>17589820.09507044</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7878,18 +6733,15 @@
         <v>25091.4292</v>
       </c>
       <c r="G202" t="n">
-        <v>17614911.52427045</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7911,18 +6763,15 @@
         <v>7128.9592</v>
       </c>
       <c r="G203" t="n">
-        <v>17607782.56507045</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7944,18 +6793,15 @@
         <v>11</v>
       </c>
       <c r="G204" t="n">
-        <v>17607793.56507045</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7977,18 +6823,15 @@
         <v>6975.3277</v>
       </c>
       <c r="G205" t="n">
-        <v>17600818.23737045</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8010,18 +6853,15 @@
         <v>11</v>
       </c>
       <c r="G206" t="n">
-        <v>17600829.23737045</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8043,18 +6883,15 @@
         <v>601</v>
       </c>
       <c r="G207" t="n">
-        <v>17600228.23737045</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8076,18 +6913,15 @@
         <v>11</v>
       </c>
       <c r="G208" t="n">
-        <v>17600217.23737045</v>
-      </c>
-      <c r="H208" t="n">
         <v>2</v>
       </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8109,18 +6943,15 @@
         <v>56500.1199</v>
       </c>
       <c r="G209" t="n">
-        <v>17600217.23737045</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8142,18 +6973,15 @@
         <v>11</v>
       </c>
       <c r="G210" t="n">
-        <v>17600228.23737045</v>
-      </c>
-      <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8175,18 +7003,15 @@
         <v>8811.137699999999</v>
       </c>
       <c r="G211" t="n">
-        <v>17600228.23737045</v>
-      </c>
-      <c r="H211" t="n">
         <v>2</v>
       </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8208,18 +7033,15 @@
         <v>2000</v>
       </c>
       <c r="G212" t="n">
-        <v>17598228.23737045</v>
-      </c>
-      <c r="H212" t="n">
         <v>2</v>
       </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8241,18 +7063,15 @@
         <v>94.48399999999999</v>
       </c>
       <c r="G213" t="n">
-        <v>17598228.23737045</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8274,18 +7093,15 @@
         <v>472925.7168</v>
       </c>
       <c r="G214" t="n">
-        <v>17125302.52057045</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8307,18 +7123,15 @@
         <v>27622.588</v>
       </c>
       <c r="G215" t="n">
-        <v>17152925.10857045</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8340,18 +7153,15 @@
         <v>308</v>
       </c>
       <c r="G216" t="n">
-        <v>17152617.10857045</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8373,18 +7183,15 @@
         <v>9537.7788</v>
       </c>
       <c r="G217" t="n">
-        <v>17152617.10857045</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8406,18 +7213,15 @@
         <v>9383.454900000001</v>
       </c>
       <c r="G218" t="n">
-        <v>17162000.56347045</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8439,18 +7243,15 @@
         <v>645.4254</v>
       </c>
       <c r="G219" t="n">
-        <v>17161355.13807045</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8472,18 +7273,15 @@
         <v>16035.5249</v>
       </c>
       <c r="G220" t="n">
-        <v>17145319.61317044</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8505,18 +7303,15 @@
         <v>2976.9661</v>
       </c>
       <c r="G221" t="n">
-        <v>17148296.57927044</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8538,18 +7333,15 @@
         <v>64621.0232</v>
       </c>
       <c r="G222" t="n">
-        <v>17148296.57927044</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8571,18 +7363,15 @@
         <v>7788.0331</v>
       </c>
       <c r="G223" t="n">
-        <v>17156084.61237045</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
